--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000523206626194</v>
+        <v>0.9998427933288118</v>
       </c>
       <c r="D3">
         <v>0.9992213152613556</v>
       </c>
       <c r="E3">
+        <v>1.000523206626194</v>
+      </c>
+      <c r="F3">
+        <v>0.9992213152613556</v>
+      </c>
+      <c r="G3">
         <v>1.000192374276903</v>
-      </c>
-      <c r="F3">
-        <v>1.000523206626194</v>
-      </c>
-      <c r="G3">
-        <v>0.9998325389329215</v>
       </c>
       <c r="H3">
         <v>1.00028879910575</v>
       </c>
       <c r="I3">
+        <v>0.9998325389329215</v>
+      </c>
+      <c r="J3">
         <v>1.000523206626194</v>
       </c>
-      <c r="J3">
-        <v>0.9992213152613556</v>
-      </c>
       <c r="K3">
-        <v>0.9998427933288118</v>
+        <v>1.000523206626194</v>
       </c>
       <c r="L3">
+        <v>0.9994932986615305</v>
+      </c>
+      <c r="M3">
         <v>1.000195948411398</v>
-      </c>
-      <c r="M3">
-        <v>0.9994932986615305</v>
       </c>
       <c r="N3">
         <v>1.000523206626194</v>
@@ -764,7 +716,7 @@
         <v>0.9999487843256079</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9996965377315364</v>
+      </c>
+      <c r="D4">
+        <v>0.9984967205874634</v>
+      </c>
+      <c r="E4">
         <v>1.00100998051316</v>
       </c>
-      <c r="D4">
-        <v>0.9984967205874633</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <v>0.9984967205874634</v>
+      </c>
+      <c r="G4">
         <v>1.000371434461863</v>
-      </c>
-      <c r="F4">
-        <v>1.00100998051316</v>
-      </c>
-      <c r="G4">
-        <v>0.9996767155140029</v>
       </c>
       <c r="H4">
         <v>1.000557542628332</v>
       </c>
       <c r="I4">
+        <v>0.9996767155140029</v>
+      </c>
+      <c r="J4">
         <v>1.00100998051316</v>
       </c>
-      <c r="J4">
-        <v>0.9984967205874633</v>
-      </c>
       <c r="K4">
-        <v>0.9996965377315368</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="L4">
+        <v>0.9990218010985726</v>
+      </c>
+      <c r="M4">
         <v>1.000378257347902</v>
-      </c>
-      <c r="M4">
-        <v>0.9990218010985723</v>
       </c>
       <c r="N4">
         <v>1.00100998051316</v>
@@ -811,16 +763,16 @@
         <v>1.000371434461863</v>
       </c>
       <c r="P4">
-        <v>0.9994340775246632</v>
+        <v>0.9994340775246633</v>
       </c>
       <c r="Q4">
         <v>1.000024074987933</v>
       </c>
       <c r="R4">
-        <v>0.9999593785208288</v>
+        <v>0.9999593785208289</v>
       </c>
       <c r="S4">
-        <v>0.9995149568544431</v>
+        <v>0.9995149568544432</v>
       </c>
       <c r="T4">
         <v>0.9999593785208288</v>
@@ -835,7 +787,7 @@
         <v>0.9999011237353541</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001935099347813</v>
+        <v>0.999418611081659</v>
       </c>
       <c r="D5">
         <v>0.9971189230095722</v>
       </c>
       <c r="E5">
+        <v>1.001935099347813</v>
+      </c>
+      <c r="F5">
+        <v>0.9971189230095722</v>
+      </c>
+      <c r="G5">
         <v>1.000712172661099</v>
-      </c>
-      <c r="F5">
-        <v>1.001935099347813</v>
-      </c>
-      <c r="G5">
-        <v>0.9993804389778748</v>
       </c>
       <c r="H5">
         <v>1.00106857938642</v>
       </c>
       <c r="I5">
+        <v>0.9993804389778748</v>
+      </c>
+      <c r="J5">
         <v>1.001935099347813</v>
       </c>
-      <c r="J5">
-        <v>0.9971189230095722</v>
-      </c>
       <c r="K5">
-        <v>0.999418611081659</v>
+        <v>1.001935099347813</v>
       </c>
       <c r="L5">
+        <v>0.9981253118193759</v>
+      </c>
+      <c r="M5">
         <v>1.000724765408034</v>
-      </c>
-      <c r="M5">
-        <v>0.9981253118193759</v>
       </c>
       <c r="N5">
         <v>1.001935099347813</v>
@@ -906,7 +858,7 @@
         <v>0.9998104877114808</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002837944037307</v>
+        <v>0.9991473711718346</v>
       </c>
       <c r="D6">
         <v>0.995774254397338</v>
       </c>
       <c r="E6">
+        <v>1.002837944037307</v>
+      </c>
+      <c r="F6">
+        <v>0.995774254397338</v>
+      </c>
+      <c r="G6">
         <v>1.001044753918691</v>
-      </c>
-      <c r="F6">
-        <v>1.002837944037307</v>
-      </c>
-      <c r="G6">
-        <v>0.9990912839342193</v>
       </c>
       <c r="H6">
         <v>1.001567334200792</v>
       </c>
       <c r="I6">
+        <v>0.9990912839342193</v>
+      </c>
+      <c r="J6">
         <v>1.002837944037307</v>
       </c>
-      <c r="J6">
-        <v>0.995774254397338</v>
-      </c>
       <c r="K6">
-        <v>0.9991473711718346</v>
+        <v>1.002837944037307</v>
       </c>
       <c r="L6">
+        <v>0.997250370577306</v>
+      </c>
+      <c r="M6">
         <v>1.001062934732305</v>
-      </c>
-      <c r="M6">
-        <v>0.9972503705773063</v>
       </c>
       <c r="N6">
         <v>1.002837944037307</v>
@@ -974,10 +926,10 @@
         <v>1.000317236064972</v>
       </c>
       <c r="W6">
-        <v>0.9997220308712242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9997220308712241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000043595394211</v>
+        <v>0.99998693458688</v>
       </c>
       <c r="D7">
         <v>0.9999342890692485</v>
       </c>
       <c r="E7">
+        <v>1.000043595394211</v>
+      </c>
+      <c r="F7">
+        <v>0.9999342890692485</v>
+      </c>
+      <c r="G7">
         <v>1.000016547183564</v>
-      </c>
-      <c r="F7">
-        <v>1.000043595394211</v>
-      </c>
-      <c r="G7">
-        <v>0.9999858853368389</v>
       </c>
       <c r="H7">
         <v>1.000024403426668</v>
       </c>
       <c r="I7">
+        <v>0.9999858853368389</v>
+      </c>
+      <c r="J7">
         <v>1.000043595394211</v>
       </c>
-      <c r="J7">
-        <v>0.9999342890692485</v>
-      </c>
       <c r="K7">
-        <v>0.99998693458688</v>
+        <v>1.000043595394211</v>
       </c>
       <c r="L7">
+        <v>0.9999572965150905</v>
+      </c>
+      <c r="M7">
         <v>1.000016362007486</v>
-      </c>
-      <c r="M7">
-        <v>0.9999572965150905</v>
       </c>
       <c r="N7">
         <v>1.000043595394211</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999956641899983</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000127788530709</v>
+        <v>0.9999616810738821</v>
       </c>
       <c r="D8">
         <v>0.9998078842194347</v>
       </c>
       <c r="E8">
+        <v>1.000127788530709</v>
+      </c>
+      <c r="F8">
+        <v>0.9998078842194347</v>
+      </c>
+      <c r="G8">
         <v>1.000048191448655</v>
-      </c>
-      <c r="F8">
-        <v>1.000127788530709</v>
-      </c>
-      <c r="G8">
-        <v>0.9999587264776397</v>
       </c>
       <c r="H8">
         <v>1.000071328489712</v>
       </c>
       <c r="I8">
+        <v>0.9999587264776397</v>
+      </c>
+      <c r="J8">
         <v>1.000127788530709</v>
       </c>
-      <c r="J8">
-        <v>0.9998078842194347</v>
-      </c>
       <c r="K8">
-        <v>0.9999616810738823</v>
+        <v>1.000127788530709</v>
       </c>
       <c r="L8">
+        <v>0.9998751147297342</v>
+      </c>
+      <c r="M8">
         <v>1.000047939146071</v>
-      </c>
-      <c r="M8">
-        <v>0.9998751147297344</v>
       </c>
       <c r="N8">
         <v>1.000127788530709</v>
@@ -1116,10 +1068,10 @@
         <v>1.00001407584143</v>
       </c>
       <c r="W8">
-        <v>0.9999873317644798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999873317644797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9999425114668483</v>
+      </c>
+      <c r="D9">
+        <v>0.9997127648765963</v>
+      </c>
+      <c r="E9">
         <v>1.000191606832034</v>
       </c>
-      <c r="D9">
-        <v>0.9997127648765965</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
+        <v>0.9997127648765963</v>
+      </c>
+      <c r="G9">
         <v>1.000071743657756</v>
-      </c>
-      <c r="F9">
-        <v>1.000191606832034</v>
-      </c>
-      <c r="G9">
-        <v>0.9999382737514023</v>
       </c>
       <c r="H9">
         <v>1.000106611830166</v>
       </c>
       <c r="I9">
+        <v>0.9999382737514023</v>
+      </c>
+      <c r="J9">
         <v>1.000191606832034</v>
       </c>
-      <c r="J9">
-        <v>0.9997127648765965</v>
-      </c>
       <c r="K9">
-        <v>0.9999425114668483</v>
+        <v>1.000191606832034</v>
       </c>
       <c r="L9">
+        <v>0.9998132275322326</v>
+      </c>
+      <c r="M9">
         <v>1.000071845373864</v>
-      </c>
-      <c r="M9">
-        <v>0.9998132275322327</v>
       </c>
       <c r="N9">
         <v>1.000191606832034</v>
@@ -1190,7 +1142,7 @@
         <v>0.9999810731651124</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000400742478095</v>
+        <v>0.9998797982734208</v>
       </c>
       <c r="D10">
         <v>0.9993983975195785</v>
       </c>
       <c r="E10">
+        <v>1.000400742478095</v>
+      </c>
+      <c r="F10">
+        <v>0.9993983975195785</v>
+      </c>
+      <c r="G10">
         <v>1.000150584531755</v>
-      </c>
-      <c r="F10">
-        <v>1.000400742478095</v>
-      </c>
-      <c r="G10">
-        <v>0.9998707386529484</v>
       </c>
       <c r="H10">
         <v>1.000223329377361</v>
       </c>
       <c r="I10">
+        <v>0.9998707386529481</v>
+      </c>
+      <c r="J10">
         <v>1.000400742478095</v>
       </c>
-      <c r="J10">
-        <v>0.9993983975195785</v>
-      </c>
       <c r="K10">
-        <v>0.9998797982734208</v>
+        <v>1.000400742478095</v>
       </c>
       <c r="L10">
+        <v>0.9996088680599604</v>
+      </c>
+      <c r="M10">
         <v>1.000150300001404</v>
-      </c>
-      <c r="M10">
-        <v>0.9996088680599604</v>
       </c>
       <c r="N10">
         <v>1.000400742478095</v>
@@ -1252,7 +1204,7 @@
         <v>0.9999832415098093</v>
       </c>
       <c r="U10">
-        <v>0.9999551157955942</v>
+        <v>0.999955115795594</v>
       </c>
       <c r="V10">
         <v>1.000044241132094</v>
@@ -1261,7 +1213,7 @@
         <v>0.9999603448618154</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9997896165481591</v>
+      </c>
+      <c r="D11">
+        <v>0.9989503807276686</v>
+      </c>
+      <c r="E11">
         <v>1.000701027571697</v>
       </c>
-      <c r="D11">
-        <v>0.9989503807276687</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
+        <v>0.9989503807276686</v>
+      </c>
+      <c r="G11">
         <v>1.000261685346763</v>
-      </c>
-      <c r="F11">
-        <v>1.000701027571697</v>
-      </c>
-      <c r="G11">
-        <v>0.9997744160796893</v>
       </c>
       <c r="H11">
         <v>1.000389534523953</v>
       </c>
       <c r="I11">
+        <v>0.9997744160796893</v>
+      </c>
+      <c r="J11">
         <v>1.000701027571697</v>
       </c>
-      <c r="J11">
-        <v>0.9989503807276687</v>
-      </c>
       <c r="K11">
-        <v>0.9997896165481591</v>
+        <v>1.000701027571697</v>
       </c>
       <c r="L11">
+        <v>0.999317406664661</v>
+      </c>
+      <c r="M11">
         <v>1.000262804674352</v>
-      </c>
-      <c r="M11">
-        <v>0.999317406664661</v>
       </c>
       <c r="N11">
         <v>1.000701027571697</v>
@@ -1332,7 +1284,7 @@
         <v>0.9999308590171178</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,40 +1292,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9922852217124064</v>
+        <v>1.002300707148463</v>
       </c>
       <c r="D12">
         <v>1.01191541220348</v>
       </c>
       <c r="E12">
+        <v>0.9922852217124066</v>
+      </c>
+      <c r="F12">
+        <v>1.01191541220348</v>
+      </c>
+      <c r="G12">
         <v>0.9968924267760563</v>
-      </c>
-      <c r="F12">
-        <v>0.9922852217124064</v>
-      </c>
-      <c r="G12">
-        <v>1.002552594002609</v>
       </c>
       <c r="H12">
         <v>0.995563589762266</v>
       </c>
       <c r="I12">
-        <v>0.9922852217124064</v>
+        <v>1.002552594002609</v>
       </c>
       <c r="J12">
-        <v>1.01191541220348</v>
+        <v>0.9922852217124066</v>
       </c>
       <c r="K12">
-        <v>1.002300707148463</v>
+        <v>0.9922852217124066</v>
       </c>
       <c r="L12">
+        <v>1.007725189830949</v>
+      </c>
+      <c r="M12">
         <v>0.9970926567633586</v>
       </c>
-      <c r="M12">
-        <v>1.007725189830949</v>
-      </c>
       <c r="N12">
-        <v>0.9922852217124064</v>
+        <v>0.9922852217124066</v>
       </c>
       <c r="O12">
         <v>0.9968924267760563</v>
@@ -1403,7 +1355,7 @@
         <v>1.000790974774949</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,55 +1363,55 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.997886627407341</v>
+        <v>1.000639794163212</v>
       </c>
       <c r="D13">
         <v>1.003025548685639</v>
       </c>
       <c r="E13">
-        <v>0.9992978020402661</v>
+        <v>0.997886627407341</v>
       </c>
       <c r="F13">
-        <v>0.997886627407341</v>
+        <v>1.003025548685639</v>
       </c>
       <c r="G13">
-        <v>1.000653377164229</v>
+        <v>0.9992978020402662</v>
       </c>
       <c r="H13">
         <v>0.9988826280443077</v>
       </c>
       <c r="I13">
+        <v>1.000653377164229</v>
+      </c>
+      <c r="J13">
         <v>0.997886627407341</v>
       </c>
-      <c r="J13">
-        <v>1.003025548685639</v>
-      </c>
       <c r="K13">
-        <v>1.000639794163212</v>
+        <v>0.997886627407341</v>
       </c>
       <c r="L13">
+        <v>1.001976612328791</v>
+      </c>
+      <c r="M13">
         <v>0.999213504085587</v>
-      </c>
-      <c r="M13">
-        <v>1.001976612328792</v>
       </c>
       <c r="N13">
         <v>0.997886627407341</v>
       </c>
       <c r="O13">
-        <v>0.9992978020402661</v>
+        <v>0.9992978020402662</v>
       </c>
       <c r="P13">
-        <v>1.001161675362952</v>
+        <v>1.001161675362953</v>
       </c>
       <c r="Q13">
-        <v>0.9999755896022474</v>
+        <v>0.9999755896022475</v>
       </c>
       <c r="R13">
         <v>1.000069992711082</v>
       </c>
       <c r="S13">
-        <v>1.000992242630044</v>
+        <v>1.000992242630045</v>
       </c>
       <c r="T13">
         <v>1.000069992711082</v>
@@ -1474,7 +1426,7 @@
         <v>1.000196986739922</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000142679886942</v>
+        <v>0.9999811561744668</v>
       </c>
       <c r="D14">
         <v>0.9991869571858077</v>
       </c>
       <c r="E14">
+        <v>1.000142679886942</v>
+      </c>
+      <c r="F14">
+        <v>0.9991869571858077</v>
+      </c>
+      <c r="G14">
         <v>1.000427888869906</v>
-      </c>
-      <c r="F14">
-        <v>1.000142679886942</v>
-      </c>
-      <c r="G14">
-        <v>0.9998388007909302</v>
       </c>
       <c r="H14">
         <v>1.000325367139018</v>
       </c>
       <c r="I14">
+        <v>0.9998388007909303</v>
+      </c>
+      <c r="J14">
         <v>1.000142679886942</v>
       </c>
-      <c r="J14">
-        <v>0.9991869571858077</v>
-      </c>
       <c r="K14">
-        <v>0.9999811561744669</v>
+        <v>1.000142679886942</v>
       </c>
       <c r="L14">
+        <v>0.9995102536710808</v>
+      </c>
+      <c r="M14">
         <v>1.000078464151496</v>
-      </c>
-      <c r="M14">
-        <v>0.9995102536710808</v>
       </c>
       <c r="N14">
         <v>1.000142679886942</v>
@@ -1527,25 +1479,25 @@
         <v>1.000133344830418</v>
       </c>
       <c r="R14">
-        <v>0.9999191753142186</v>
+        <v>0.9999191753142185</v>
       </c>
       <c r="S14">
-        <v>0.9998178822822146</v>
+        <v>0.9998178822822147</v>
       </c>
       <c r="T14">
-        <v>0.9999191753142188</v>
+        <v>0.9999191753142185</v>
       </c>
       <c r="U14">
-        <v>0.9998990816833966</v>
+        <v>0.9998990816833965</v>
       </c>
       <c r="V14">
         <v>0.9999478013241057</v>
       </c>
       <c r="W14">
-        <v>0.9999364459837061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.999936445983706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000248075362356</v>
+        <v>0.9999157536346911</v>
       </c>
       <c r="D15">
         <v>0.9998734790989652</v>
       </c>
       <c r="E15">
+        <v>1.000248075362356</v>
+      </c>
+      <c r="F15">
+        <v>0.9998734790989652</v>
+      </c>
+      <c r="G15">
         <v>0.999939530549849</v>
-      </c>
-      <c r="F15">
-        <v>1.000248075362356</v>
-      </c>
-      <c r="G15">
-        <v>0.9999672712942665</v>
       </c>
       <c r="H15">
         <v>1.000037297630921</v>
       </c>
       <c r="I15">
+        <v>0.9999672712942665</v>
+      </c>
+      <c r="J15">
         <v>1.000248075362356</v>
       </c>
-      <c r="J15">
-        <v>0.9998734790989652</v>
-      </c>
       <c r="K15">
-        <v>0.9999157536346911</v>
+        <v>1.000248075362356</v>
       </c>
       <c r="L15">
+        <v>0.999901789476662</v>
+      </c>
+      <c r="M15">
         <v>1.000082797288644</v>
-      </c>
-      <c r="M15">
-        <v>0.9999017894766619</v>
       </c>
       <c r="N15">
         <v>1.000248075362356</v>
@@ -1616,7 +1568,7 @@
         <v>0.9999957492920444</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000002089224937</v>
+        <v>0.9969350596815914</v>
       </c>
       <c r="D16">
-        <v>0.9999967452124632</v>
+        <v>0.9848017217311645</v>
       </c>
       <c r="E16">
-        <v>1.000000859175679</v>
+        <v>1.010202414139352</v>
       </c>
       <c r="F16">
-        <v>1.000002089224937</v>
+        <v>0.9848017217311645</v>
       </c>
       <c r="G16">
-        <v>0.9999993011971362</v>
+        <v>1.00376006299036</v>
       </c>
       <c r="H16">
-        <v>1.000001212558539</v>
+        <v>1.005637312639671</v>
       </c>
       <c r="I16">
-        <v>1.000002089224937</v>
+        <v>0.9967318760808334</v>
       </c>
       <c r="J16">
-        <v>0.9999967452124632</v>
+        <v>1.010202414139352</v>
       </c>
       <c r="K16">
-        <v>0.9999993785214852</v>
+        <v>1.010202414139352</v>
       </c>
       <c r="L16">
-        <v>1.000000788853918</v>
+        <v>0.9901111537398666</v>
       </c>
       <c r="M16">
-        <v>0.999997893055295</v>
+        <v>1.003821523047976</v>
       </c>
       <c r="N16">
-        <v>1.000002089224937</v>
+        <v>1.010202414139352</v>
       </c>
       <c r="O16">
-        <v>1.000000859175679</v>
+        <v>1.00376006299036</v>
       </c>
       <c r="P16">
-        <v>0.9999988021940711</v>
+        <v>0.9942808923607624</v>
       </c>
       <c r="Q16">
-        <v>1.000000080186408</v>
+        <v>1.000245969535597</v>
       </c>
       <c r="R16">
-        <v>0.9999998978710266</v>
+        <v>0.9995880662869591</v>
       </c>
       <c r="S16">
-        <v>0.9999989685284261</v>
+        <v>0.9950978869341194</v>
       </c>
       <c r="T16">
-        <v>0.9999998978710266</v>
+        <v>0.9995880662869591</v>
       </c>
       <c r="U16">
-        <v>0.999999748702554</v>
+        <v>0.9988740187354276</v>
       </c>
       <c r="V16">
-        <v>1.000000216807031</v>
+        <v>1.001139697816213</v>
       </c>
       <c r="W16">
-        <v>0.9999997834749317</v>
+        <v>0.9990001405063519</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000045122748392</v>
+        <v>0.9974938928172288</v>
       </c>
       <c r="D17">
-        <v>0.9999315473108631</v>
+        <v>0.9875344700256717</v>
       </c>
       <c r="E17">
-        <v>1.000017401310555</v>
+        <v>1.0083464636346</v>
       </c>
       <c r="F17">
-        <v>1.000045122748392</v>
+        <v>0.9875344700256717</v>
       </c>
       <c r="G17">
-        <v>0.9999853064146966</v>
+        <v>1.003096068303983</v>
       </c>
       <c r="H17">
-        <v>1.000025439219671</v>
+        <v>1.004624957067983</v>
       </c>
       <c r="I17">
-        <v>1.000045122748392</v>
+        <v>0.9973202325180783</v>
       </c>
       <c r="J17">
-        <v>0.9999315473108631</v>
+        <v>1.0083464636346</v>
       </c>
       <c r="K17">
-        <v>0.9999864944561608</v>
+        <v>1.0083464636346</v>
       </c>
       <c r="L17">
-        <v>1.000016953780898</v>
+        <v>0.9918913252385787</v>
       </c>
       <c r="M17">
-        <v>0.9999555432197866</v>
+        <v>1.003127671459756</v>
       </c>
       <c r="N17">
-        <v>1.000045122748392</v>
+        <v>1.0083464636346</v>
       </c>
       <c r="O17">
-        <v>1.000017401310555</v>
+        <v>1.003096068303983</v>
       </c>
       <c r="P17">
-        <v>0.9999744743107091</v>
+        <v>0.9953152691648273</v>
       </c>
       <c r="Q17">
-        <v>1.000001353862626</v>
+        <v>1.000208150411031</v>
       </c>
       <c r="R17">
-        <v>0.9999980237899365</v>
+        <v>0.9996590006547517</v>
       </c>
       <c r="S17">
-        <v>0.9999780850120382</v>
+        <v>0.9959835902825777</v>
       </c>
       <c r="T17">
-        <v>0.9999980237899365</v>
+        <v>0.9996590006547517</v>
       </c>
       <c r="U17">
-        <v>0.9999948444461266</v>
+        <v>0.9990743086205833</v>
       </c>
       <c r="V17">
-        <v>1.00000490010658</v>
+        <v>1.000928739623387</v>
       </c>
       <c r="W17">
-        <v>0.9999954760576278</v>
+        <v>0.9991793851332351</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000161399278815</v>
+        <v>0.9986095308802363</v>
       </c>
       <c r="D18">
-        <v>0.9997604213962228</v>
+        <v>0.9929919092137385</v>
       </c>
       <c r="E18">
-        <v>1.000058950591462</v>
+        <v>1.004641091323072</v>
       </c>
       <c r="F18">
-        <v>1.000161399278815</v>
+        <v>0.9929919092137385</v>
       </c>
       <c r="G18">
-        <v>0.9999484608355098</v>
+        <v>1.00176944174643</v>
       </c>
       <c r="H18">
-        <v>1.000088828103257</v>
+        <v>1.002603170650078</v>
       </c>
       <c r="I18">
-        <v>1.000161399278815</v>
+        <v>0.9984951754587105</v>
       </c>
       <c r="J18">
-        <v>0.9997604213962228</v>
+        <v>1.004641091323072</v>
       </c>
       <c r="K18">
-        <v>0.9999514797986612</v>
+        <v>1.004641091323072</v>
       </c>
       <c r="L18">
-        <v>1.000060419116823</v>
+        <v>0.9954463163492384</v>
       </c>
       <c r="M18">
-        <v>0.9998440667039823</v>
+        <v>1.001742345302718</v>
       </c>
       <c r="N18">
-        <v>1.000161399278815</v>
+        <v>1.004641091323072</v>
       </c>
       <c r="O18">
-        <v>1.000058950591462</v>
+        <v>1.00176944174643</v>
       </c>
       <c r="P18">
-        <v>0.9999096859938424</v>
+        <v>0.9973806754800842</v>
       </c>
       <c r="Q18">
-        <v>1.000003705713486</v>
+        <v>1.00013230860257</v>
       </c>
       <c r="R18">
-        <v>0.9999935904221665</v>
+        <v>0.9998008140944133</v>
       </c>
       <c r="S18">
-        <v>0.9999226109410649</v>
+        <v>0.9977521754729596</v>
       </c>
       <c r="T18">
-        <v>0.9999935904221665</v>
+        <v>0.9998008140944133</v>
       </c>
       <c r="U18">
-        <v>0.9999823080255024</v>
+        <v>0.9994744044354876</v>
       </c>
       <c r="V18">
-        <v>1.000018126276165</v>
+        <v>1.000507741813004</v>
       </c>
       <c r="W18">
-        <v>0.9999842532280916</v>
+        <v>0.9995373726155277</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1789,351 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9984831589401306</v>
+      </c>
+      <c r="D19">
+        <v>0.9923282678810286</v>
+      </c>
+      <c r="E19">
+        <v>1.005065866899659</v>
+      </c>
+      <c r="F19">
+        <v>0.9923282678810286</v>
+      </c>
+      <c r="G19">
+        <v>1.001945281796884</v>
+      </c>
+      <c r="H19">
+        <v>1.002850547114986</v>
+      </c>
+      <c r="I19">
+        <v>0.9983531723701382</v>
+      </c>
+      <c r="J19">
+        <v>1.005065866899659</v>
+      </c>
+      <c r="K19">
+        <v>1.005065866899659</v>
+      </c>
+      <c r="L19">
+        <v>0.9950165319177455</v>
+      </c>
+      <c r="M19">
+        <v>1.001902735604184</v>
+      </c>
+      <c r="N19">
+        <v>1.005065866899659</v>
+      </c>
+      <c r="O19">
+        <v>1.001945281796884</v>
+      </c>
+      <c r="P19">
+        <v>0.9971367748389565</v>
+      </c>
+      <c r="Q19">
+        <v>1.000149227083511</v>
+      </c>
+      <c r="R19">
+        <v>0.9997798055258574</v>
+      </c>
+      <c r="S19">
+        <v>0.9975422406826837</v>
+      </c>
+      <c r="T19">
+        <v>0.9997798055258574</v>
+      </c>
+      <c r="U19">
+        <v>0.9994231472369277</v>
+      </c>
+      <c r="V19">
+        <v>1.000551691169474</v>
+      </c>
+      <c r="W19">
+        <v>0.9994931953155946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999993785214852</v>
+      </c>
+      <c r="D20">
+        <v>0.9999967452124633</v>
+      </c>
+      <c r="E20">
+        <v>1.000002089224937</v>
+      </c>
+      <c r="F20">
+        <v>0.9999967452124633</v>
+      </c>
+      <c r="G20">
+        <v>1.000000859175679</v>
+      </c>
+      <c r="H20">
+        <v>1.000001212558539</v>
+      </c>
+      <c r="I20">
+        <v>0.9999993011971362</v>
+      </c>
+      <c r="J20">
+        <v>1.000002089224937</v>
+      </c>
+      <c r="K20">
+        <v>1.000002089224937</v>
+      </c>
+      <c r="L20">
+        <v>0.999997893055295</v>
+      </c>
+      <c r="M20">
+        <v>1.000000788853918</v>
+      </c>
+      <c r="N20">
+        <v>1.000002089224937</v>
+      </c>
+      <c r="O20">
+        <v>1.000000859175679</v>
+      </c>
+      <c r="P20">
+        <v>0.9999988021940711</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000080186408</v>
+      </c>
+      <c r="R20">
+        <v>0.9999998978710266</v>
+      </c>
+      <c r="S20">
+        <v>0.9999989685284261</v>
+      </c>
+      <c r="T20">
+        <v>0.9999998978710266</v>
+      </c>
+      <c r="U20">
+        <v>0.999999748702554</v>
+      </c>
+      <c r="V20">
+        <v>1.000000216807031</v>
+      </c>
+      <c r="W20">
+        <v>0.9999997834749317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999864944561604</v>
+      </c>
+      <c r="D21">
+        <v>0.9999315473108631</v>
+      </c>
+      <c r="E21">
+        <v>1.000045122748392</v>
+      </c>
+      <c r="F21">
+        <v>0.9999315473108631</v>
+      </c>
+      <c r="G21">
+        <v>1.000017401310555</v>
+      </c>
+      <c r="H21">
+        <v>1.00002543921967</v>
+      </c>
+      <c r="I21">
+        <v>0.9999853064146966</v>
+      </c>
+      <c r="J21">
+        <v>1.000045122748392</v>
+      </c>
+      <c r="K21">
+        <v>1.000045122748392</v>
+      </c>
+      <c r="L21">
+        <v>0.9999555432197866</v>
+      </c>
+      <c r="M21">
+        <v>1.000016953780898</v>
+      </c>
+      <c r="N21">
+        <v>1.000045122748392</v>
+      </c>
+      <c r="O21">
+        <v>1.000017401310555</v>
+      </c>
+      <c r="P21">
+        <v>0.9999744743107091</v>
+      </c>
+      <c r="Q21">
+        <v>1.000001353862626</v>
+      </c>
+      <c r="R21">
+        <v>0.9999980237899365</v>
+      </c>
+      <c r="S21">
+        <v>0.9999780850120382</v>
+      </c>
+      <c r="T21">
+        <v>0.9999980237899365</v>
+      </c>
+      <c r="U21">
+        <v>0.9999948444461266</v>
+      </c>
+      <c r="V21">
+        <v>1.00000490010658</v>
+      </c>
+      <c r="W21">
+        <v>0.9999954760576277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999514797986612</v>
+      </c>
+      <c r="D22">
+        <v>0.9997604213962228</v>
+      </c>
+      <c r="E22">
+        <v>1.000161399278815</v>
+      </c>
+      <c r="F22">
+        <v>0.9997604213962228</v>
+      </c>
+      <c r="G22">
+        <v>1.000058950591462</v>
+      </c>
+      <c r="H22">
+        <v>1.000088828103257</v>
+      </c>
+      <c r="I22">
+        <v>0.9999484608355095</v>
+      </c>
+      <c r="J22">
+        <v>1.000161399278815</v>
+      </c>
+      <c r="K22">
+        <v>1.000161399278815</v>
+      </c>
+      <c r="L22">
+        <v>0.9998440667039823</v>
+      </c>
+      <c r="M22">
+        <v>1.000060419116823</v>
+      </c>
+      <c r="N22">
+        <v>1.000161399278815</v>
+      </c>
+      <c r="O22">
+        <v>1.000058950591462</v>
+      </c>
+      <c r="P22">
+        <v>0.9999096859938424</v>
+      </c>
+      <c r="Q22">
+        <v>1.000003705713486</v>
+      </c>
+      <c r="R22">
+        <v>0.9999935904221665</v>
+      </c>
+      <c r="S22">
+        <v>0.9999226109410647</v>
+      </c>
+      <c r="T22">
+        <v>0.9999935904221665</v>
+      </c>
+      <c r="U22">
+        <v>0.9999823080255023</v>
+      </c>
+      <c r="V22">
+        <v>1.000018126276165</v>
+      </c>
+      <c r="W22">
+        <v>0.9999842532280916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9998856097367799</v>
+      </c>
+      <c r="D23">
+        <v>0.9994398029531695</v>
+      </c>
+      <c r="E23">
         <v>1.000379991506136</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.9994398029531695</v>
       </c>
-      <c r="E19">
+      <c r="G23">
         <v>1.000136374009204</v>
       </c>
-      <c r="F19">
+      <c r="H23">
+        <v>1.00020755603095</v>
+      </c>
+      <c r="I23">
+        <v>0.9998794063850603</v>
+      </c>
+      <c r="J23">
         <v>1.000379991506136</v>
       </c>
-      <c r="G19">
-        <v>0.9998794063850603</v>
-      </c>
-      <c r="H19">
-        <v>1.00020755603095</v>
-      </c>
-      <c r="I19">
+      <c r="K23">
         <v>1.000379991506136</v>
       </c>
-      <c r="J19">
-        <v>0.9994398029531695</v>
-      </c>
-      <c r="K19">
-        <v>0.9998856097367799</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
+        <v>0.9996351243276376</v>
+      </c>
+      <c r="M23">
         <v>1.000142091284236</v>
       </c>
-      <c r="M19">
-        <v>0.9996351243276379</v>
-      </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000379991506136</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000136374009204</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9997880884811866</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000007890197132</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999853894895029</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9998185277824779</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999853894895029</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999588937133922</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000043113271941</v>
       </c>
-      <c r="W19">
-        <v>0.9999632445291466</v>
+      <c r="W23">
+        <v>0.9999632445291465</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998427933288118</v>
+        <v>0.9983104959293948</v>
       </c>
       <c r="D3">
-        <v>0.9992213152613556</v>
+        <v>0.9914861452161405</v>
       </c>
       <c r="E3">
-        <v>1.000523206626194</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="F3">
-        <v>0.9992213152613556</v>
+        <v>0.9914861452161405</v>
       </c>
       <c r="G3">
-        <v>1.000192374276903</v>
+        <v>1.002149192154177</v>
       </c>
       <c r="H3">
-        <v>1.00028879910575</v>
+        <v>1.003162441585015</v>
       </c>
       <c r="I3">
-        <v>0.9998325389329215</v>
+        <v>0.9981718212536018</v>
       </c>
       <c r="J3">
-        <v>1.000523206626194</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="K3">
-        <v>1.000523206626194</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="L3">
-        <v>0.9994932986615305</v>
+        <v>0.994467833263687</v>
       </c>
       <c r="M3">
-        <v>1.000195948411398</v>
+        <v>1.002116946729108</v>
       </c>
       <c r="N3">
-        <v>1.000523206626194</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="O3">
-        <v>1.000192374276903</v>
+        <v>1.002149192154177</v>
       </c>
       <c r="P3">
-        <v>0.9997068447691291</v>
+        <v>0.996817668685159</v>
       </c>
       <c r="Q3">
-        <v>1.000012456604912</v>
+        <v>1.00016050670389</v>
       </c>
       <c r="R3">
-        <v>0.9999789653881507</v>
+        <v>0.9997581294740637</v>
       </c>
       <c r="S3">
-        <v>0.9997487428237265</v>
+        <v>0.99726905287464</v>
       </c>
       <c r="T3">
-        <v>0.9999789653881507</v>
+        <v>0.9997581294740637</v>
       </c>
       <c r="U3">
-        <v>0.9999423587743433</v>
+        <v>0.9993615524189482</v>
       </c>
       <c r="V3">
-        <v>1.000058528344713</v>
+        <v>1.000617052145533</v>
       </c>
       <c r="W3">
-        <v>0.9999487843256079</v>
+        <v>0.9994379908978748</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9996965377315364</v>
+        <v>0.9984821273210996</v>
       </c>
       <c r="D4">
-        <v>0.9984967205874634</v>
+        <v>0.9923479946841278</v>
       </c>
       <c r="E4">
-        <v>1.00100998051316</v>
+        <v>1.005066536397689</v>
       </c>
       <c r="F4">
-        <v>0.9984967205874634</v>
+        <v>0.9923479946841278</v>
       </c>
       <c r="G4">
-        <v>1.000371434461863</v>
+        <v>1.001932575954154</v>
       </c>
       <c r="H4">
-        <v>1.000557542628332</v>
+        <v>1.002842409806187</v>
       </c>
       <c r="I4">
-        <v>0.9996767155140029</v>
+        <v>0.9983569426705164</v>
       </c>
       <c r="J4">
-        <v>1.00100998051316</v>
+        <v>1.005066536397689</v>
       </c>
       <c r="K4">
-        <v>1.00100998051316</v>
+        <v>1.005066536397689</v>
       </c>
       <c r="L4">
-        <v>0.9990218010985726</v>
+        <v>0.9950280128484877</v>
       </c>
       <c r="M4">
-        <v>1.000378257347902</v>
+        <v>1.001902125572117</v>
       </c>
       <c r="N4">
-        <v>1.00100998051316</v>
+        <v>1.005066536397689</v>
       </c>
       <c r="O4">
-        <v>1.000371434461863</v>
+        <v>1.001932575954154</v>
       </c>
       <c r="P4">
-        <v>0.9994340775246633</v>
+        <v>0.9971402853191408</v>
       </c>
       <c r="Q4">
-        <v>1.000024074987933</v>
+        <v>1.000144759312335</v>
       </c>
       <c r="R4">
-        <v>0.9999593785208289</v>
+        <v>0.9997823690119901</v>
       </c>
       <c r="S4">
-        <v>0.9995149568544432</v>
+        <v>0.9975458377695993</v>
       </c>
       <c r="T4">
-        <v>0.9999593785208288</v>
+        <v>0.9997823690119901</v>
       </c>
       <c r="U4">
-        <v>0.9998887127691223</v>
+        <v>0.9994260124266218</v>
       </c>
       <c r="V4">
-        <v>1.00011296631793</v>
+        <v>1.000554117220835</v>
       </c>
       <c r="W4">
-        <v>0.9999011237353541</v>
+        <v>0.9994948406567973</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.999418611081659</v>
+        <v>0.9979805031266835</v>
       </c>
       <c r="D5">
-        <v>0.9971189230095722</v>
+        <v>0.989829526010782</v>
       </c>
       <c r="E5">
-        <v>1.001935099347813</v>
+        <v>1.006739767115904</v>
       </c>
       <c r="F5">
-        <v>0.9971189230095722</v>
+        <v>0.989829526010782</v>
       </c>
       <c r="G5">
-        <v>1.000712172661099</v>
+        <v>1.002565424663072</v>
       </c>
       <c r="H5">
-        <v>1.00106857938642</v>
+        <v>1.003777584555257</v>
       </c>
       <c r="I5">
-        <v>0.9993804389778748</v>
+        <v>0.99781597754717</v>
       </c>
       <c r="J5">
-        <v>1.001935099347813</v>
+        <v>1.006739767115904</v>
       </c>
       <c r="K5">
-        <v>1.001935099347813</v>
+        <v>1.006739767115904</v>
       </c>
       <c r="L5">
-        <v>0.9981253118193759</v>
+        <v>0.9933910475741249</v>
       </c>
       <c r="M5">
-        <v>1.000724765408034</v>
+        <v>1.002529947762804</v>
       </c>
       <c r="N5">
-        <v>1.001935099347813</v>
+        <v>1.006739767115904</v>
       </c>
       <c r="O5">
-        <v>1.000712172661099</v>
+        <v>1.002565424663072</v>
       </c>
       <c r="P5">
-        <v>0.9989155478353353</v>
+        <v>0.9961974753369272</v>
       </c>
       <c r="Q5">
-        <v>1.000046305819487</v>
+        <v>1.000190701105121</v>
       </c>
       <c r="R5">
-        <v>0.9999220650061611</v>
+        <v>0.9997115725965863</v>
       </c>
       <c r="S5">
-        <v>0.9990705115495152</v>
+        <v>0.9967369760736747</v>
       </c>
       <c r="T5">
-        <v>0.9999220650061611</v>
+        <v>0.9997115725965863</v>
       </c>
       <c r="U5">
-        <v>0.9997866584990895</v>
+        <v>0.9992376738342322</v>
       </c>
       <c r="V5">
-        <v>1.000216346668834</v>
+        <v>1.000738092490567</v>
       </c>
       <c r="W5">
-        <v>0.9998104877114808</v>
+        <v>0.9993287222944748</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9991473711718346</v>
+        <v>0.9976675799431808</v>
       </c>
       <c r="D6">
-        <v>0.995774254397338</v>
+        <v>0.9882591137499998</v>
       </c>
       <c r="E6">
-        <v>1.002837944037307</v>
+        <v>1.007783497329545</v>
       </c>
       <c r="F6">
-        <v>0.995774254397338</v>
+        <v>0.9882591137499998</v>
       </c>
       <c r="G6">
-        <v>1.001044753918691</v>
+        <v>1.002959837443182</v>
       </c>
       <c r="H6">
-        <v>1.001567334200792</v>
+        <v>1.004360694829545</v>
       </c>
       <c r="I6">
-        <v>0.9990912839342193</v>
+        <v>0.9974786414772734</v>
       </c>
       <c r="J6">
-        <v>1.002837944037307</v>
+        <v>1.007783497329545</v>
       </c>
       <c r="K6">
-        <v>1.002837944037307</v>
+        <v>1.007783497329545</v>
       </c>
       <c r="L6">
-        <v>0.997250370577306</v>
+        <v>0.992370273465909</v>
       </c>
       <c r="M6">
-        <v>1.001062934732305</v>
+        <v>1.002921542954546</v>
       </c>
       <c r="N6">
-        <v>1.002837944037307</v>
+        <v>1.007783497329545</v>
       </c>
       <c r="O6">
-        <v>1.001044753918691</v>
+        <v>1.002959837443182</v>
       </c>
       <c r="P6">
-        <v>0.9984095041580144</v>
+        <v>0.9956094755965907</v>
       </c>
       <c r="Q6">
-        <v>1.000068018926455</v>
+        <v>1.000219239460228</v>
       </c>
       <c r="R6">
-        <v>0.9998856507844454</v>
+        <v>0.999667482840909</v>
       </c>
       <c r="S6">
-        <v>0.9986367640834161</v>
+        <v>0.9962325308901517</v>
       </c>
       <c r="T6">
-        <v>0.9998856507844454</v>
+        <v>0.999667482840909</v>
       </c>
       <c r="U6">
-        <v>0.9996870590718888</v>
+        <v>0.9991202725000001</v>
       </c>
       <c r="V6">
-        <v>1.000317236064972</v>
+        <v>1.000852917465909</v>
       </c>
       <c r="W6">
-        <v>0.9997220308712241</v>
+        <v>0.9992251476491477</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.99998693458688</v>
+        <v>0.9940289746941886</v>
       </c>
       <c r="D7">
-        <v>0.9999342890692485</v>
+        <v>0.9701165712573215</v>
       </c>
       <c r="E7">
-        <v>1.000043595394211</v>
+        <v>1.019906539230411</v>
       </c>
       <c r="F7">
-        <v>0.9999342890692485</v>
+        <v>0.9701165712573215</v>
       </c>
       <c r="G7">
-        <v>1.000016547183564</v>
+        <v>1.007479711736047</v>
       </c>
       <c r="H7">
-        <v>1.000024403426668</v>
+        <v>1.011093392792816</v>
       </c>
       <c r="I7">
-        <v>0.9999858853368389</v>
+        <v>0.9935792973946193</v>
       </c>
       <c r="J7">
-        <v>1.000043595394211</v>
+        <v>1.019906539230411</v>
       </c>
       <c r="K7">
-        <v>1.000043595394211</v>
+        <v>1.019906539230411</v>
       </c>
       <c r="L7">
-        <v>0.9999572965150905</v>
+        <v>0.9805711545371528</v>
       </c>
       <c r="M7">
-        <v>1.000016362007486</v>
+        <v>1.007465937107344</v>
       </c>
       <c r="N7">
-        <v>1.000043595394211</v>
+        <v>1.019906539230411</v>
       </c>
       <c r="O7">
-        <v>1.000016547183564</v>
+        <v>1.007479711736047</v>
       </c>
       <c r="P7">
-        <v>0.9999754181264062</v>
+        <v>0.9887981414966842</v>
       </c>
       <c r="Q7">
-        <v>1.000001216260201</v>
+        <v>1.000529504565333</v>
       </c>
       <c r="R7">
-        <v>0.999998143882341</v>
+        <v>0.9991676074079262</v>
       </c>
       <c r="S7">
-        <v>0.9999789071965504</v>
+        <v>0.9903918601293292</v>
       </c>
       <c r="T7">
-        <v>0.999998143882341</v>
+        <v>0.9991676074079264</v>
       </c>
       <c r="U7">
-        <v>0.9999950792459655</v>
+        <v>0.9977705299045996</v>
       </c>
       <c r="V7">
-        <v>1.000004782475615</v>
+        <v>1.002197731769762</v>
       </c>
       <c r="W7">
-        <v>0.9999956641899983</v>
+        <v>0.9980301973437375</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999616810738821</v>
+        <v>0.9939930582723508</v>
       </c>
       <c r="D8">
-        <v>0.9998078842194347</v>
+        <v>0.9699374547468619</v>
       </c>
       <c r="E8">
-        <v>1.000127788530709</v>
+        <v>1.020026209035328</v>
       </c>
       <c r="F8">
-        <v>0.9998078842194347</v>
+        <v>0.9699374547468619</v>
       </c>
       <c r="G8">
-        <v>1.000048191448655</v>
+        <v>1.007524345230188</v>
       </c>
       <c r="H8">
-        <v>1.000071328489712</v>
+        <v>1.011159863893649</v>
       </c>
       <c r="I8">
-        <v>0.9999587264776397</v>
+        <v>0.9935408008312183</v>
       </c>
       <c r="J8">
-        <v>1.000127788530709</v>
+        <v>1.020026209035328</v>
       </c>
       <c r="K8">
-        <v>1.000127788530709</v>
+        <v>1.020026209035328</v>
       </c>
       <c r="L8">
-        <v>0.9998751147297342</v>
+        <v>0.9804546667710523</v>
       </c>
       <c r="M8">
-        <v>1.000047939146071</v>
+        <v>1.007510796882044</v>
       </c>
       <c r="N8">
-        <v>1.000127788530709</v>
+        <v>1.020026209035328</v>
       </c>
       <c r="O8">
-        <v>1.000048191448655</v>
+        <v>1.007524345230188</v>
       </c>
       <c r="P8">
-        <v>0.9999280378340448</v>
+        <v>0.9887308999885251</v>
       </c>
       <c r="Q8">
-        <v>1.000003458963147</v>
+        <v>1.000532573030703</v>
       </c>
       <c r="R8">
-        <v>0.9999946213995997</v>
+        <v>0.999162669670793</v>
       </c>
       <c r="S8">
-        <v>0.9999382673819097</v>
+        <v>0.9903342002694228</v>
       </c>
       <c r="T8">
-        <v>0.9999946213995997</v>
+        <v>0.999162669670793</v>
       </c>
       <c r="U8">
-        <v>0.9999856476691097</v>
+        <v>0.9977572024608994</v>
       </c>
       <c r="V8">
-        <v>1.00001407584143</v>
+        <v>1.002211003775785</v>
       </c>
       <c r="W8">
-        <v>0.9999873317644797</v>
+        <v>0.9980183994578368</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999425114668483</v>
+        <v>0.9939716593892742</v>
       </c>
       <c r="D9">
-        <v>0.9997127648765963</v>
+        <v>0.9698273941798715</v>
       </c>
       <c r="E9">
-        <v>1.000191606832034</v>
+        <v>1.020097879406463</v>
       </c>
       <c r="F9">
-        <v>0.9997127648765963</v>
+        <v>0.9698273941798715</v>
       </c>
       <c r="G9">
-        <v>1.000071743657756</v>
+        <v>1.007552818444484</v>
       </c>
       <c r="H9">
-        <v>1.000106611830166</v>
+        <v>1.011200817889224</v>
       </c>
       <c r="I9">
-        <v>0.9999382737514023</v>
+        <v>0.993517209065135</v>
       </c>
       <c r="J9">
-        <v>1.000191606832034</v>
+        <v>1.020097879406463</v>
       </c>
       <c r="K9">
-        <v>1.000191606832034</v>
+        <v>1.020097879406463</v>
       </c>
       <c r="L9">
-        <v>0.9998132275322326</v>
+        <v>0.9803832706889556</v>
       </c>
       <c r="M9">
-        <v>1.000071845373864</v>
+        <v>1.007537779615901</v>
       </c>
       <c r="N9">
-        <v>1.000191606832034</v>
+        <v>1.020097879406463</v>
       </c>
       <c r="O9">
-        <v>1.000071743657756</v>
+        <v>1.007552818444484</v>
       </c>
       <c r="P9">
-        <v>0.9998922542671764</v>
+        <v>0.9886901063121776</v>
       </c>
       <c r="Q9">
-        <v>1.000005008704579</v>
+        <v>1.000535013754809</v>
       </c>
       <c r="R9">
-        <v>0.9999920384554621</v>
+        <v>0.9991593640102727</v>
       </c>
       <c r="S9">
-        <v>0.9999075940952517</v>
+        <v>0.9902991405631635</v>
       </c>
       <c r="T9">
-        <v>0.9999920384554621</v>
+        <v>0.9991593640102727</v>
       </c>
       <c r="U9">
-        <v>0.9999785972794472</v>
+        <v>0.9977488252739883</v>
       </c>
       <c r="V9">
-        <v>1.000021199189964</v>
+        <v>1.002218636100483</v>
       </c>
       <c r="W9">
-        <v>0.9999810731651124</v>
+        <v>0.9980111035849135</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9998797982734208</v>
+        <v>0.9938388905143833</v>
       </c>
       <c r="D10">
-        <v>0.9993983975195785</v>
+        <v>0.9691717868003675</v>
       </c>
       <c r="E10">
-        <v>1.000400742478095</v>
+        <v>1.02053952736578</v>
       </c>
       <c r="F10">
-        <v>0.9993983975195785</v>
+        <v>0.9691717868003675</v>
       </c>
       <c r="G10">
-        <v>1.000150584531755</v>
+        <v>1.007714146048321</v>
       </c>
       <c r="H10">
-        <v>1.000223329377361</v>
+        <v>1.011443903283467</v>
       </c>
       <c r="I10">
-        <v>0.9998707386529481</v>
+        <v>0.9933761801006395</v>
       </c>
       <c r="J10">
-        <v>1.000400742478095</v>
+        <v>1.02053952736578</v>
       </c>
       <c r="K10">
-        <v>1.000400742478095</v>
+        <v>1.02053952736578</v>
       </c>
       <c r="L10">
-        <v>0.9996088680599604</v>
+        <v>0.9799565453612402</v>
       </c>
       <c r="M10">
-        <v>1.000150300001404</v>
+        <v>1.007703110967725</v>
       </c>
       <c r="N10">
-        <v>1.000400742478095</v>
+        <v>1.02053952736578</v>
       </c>
       <c r="O10">
-        <v>1.000150584531755</v>
+        <v>1.007714146048321</v>
       </c>
       <c r="P10">
-        <v>0.9997744910256667</v>
+        <v>0.9884429664243443</v>
       </c>
       <c r="Q10">
-        <v>1.000010661592352</v>
+        <v>1.00054516307448</v>
       </c>
       <c r="R10">
-        <v>0.9999832415098093</v>
+        <v>0.9991418200714896</v>
       </c>
       <c r="S10">
-        <v>0.9998065735680939</v>
+        <v>0.9900873709831094</v>
       </c>
       <c r="T10">
-        <v>0.9999832415098093</v>
+        <v>0.9991418200714896</v>
       </c>
       <c r="U10">
-        <v>0.999955115795594</v>
+        <v>0.997700410078777</v>
       </c>
       <c r="V10">
-        <v>1.000044241132094</v>
+        <v>1.002268233536177</v>
       </c>
       <c r="W10">
-        <v>0.9999603448618154</v>
+        <v>0.9979680113052405</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9997896165481591</v>
+        <v>0.9998084271869982</v>
       </c>
       <c r="D11">
-        <v>0.9989503807276686</v>
+        <v>0.9990532259187114</v>
       </c>
       <c r="E11">
-        <v>1.000701027571697</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="F11">
-        <v>0.9989503807276686</v>
+        <v>0.9990532259187114</v>
       </c>
       <c r="G11">
-        <v>1.000261685346763</v>
+        <v>1.000233227279947</v>
       </c>
       <c r="H11">
-        <v>1.000389534523953</v>
+        <v>1.00035106948991</v>
       </c>
       <c r="I11">
-        <v>0.9997744160796893</v>
+        <v>0.9997963500902998</v>
       </c>
       <c r="J11">
-        <v>1.000701027571697</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="K11">
-        <v>1.000701027571697</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="L11">
-        <v>0.999317406664661</v>
+        <v>0.9993838036094999</v>
       </c>
       <c r="M11">
-        <v>1.000262804674352</v>
+        <v>1.000238619735454</v>
       </c>
       <c r="N11">
-        <v>1.000701027571697</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="O11">
-        <v>1.000261685346763</v>
+        <v>1.000233227279947</v>
       </c>
       <c r="P11">
-        <v>0.9996060330372161</v>
+        <v>0.9996432265993294</v>
       </c>
       <c r="Q11">
-        <v>1.000018050713226</v>
+        <v>1.000014788685124</v>
       </c>
       <c r="R11">
-        <v>0.9999710312153761</v>
+        <v>0.9999745991452601</v>
       </c>
       <c r="S11">
-        <v>0.9996621607180405</v>
+        <v>0.9996942677629862</v>
       </c>
       <c r="T11">
-        <v>0.9999710312153761</v>
+        <v>0.9999745991452601</v>
       </c>
       <c r="U11">
-        <v>0.9999218774314544</v>
+        <v>0.99993003688152</v>
       </c>
       <c r="V11">
-        <v>1.000077707459503</v>
+        <v>1.00007149835264</v>
       </c>
       <c r="W11">
-        <v>0.9999308590171178</v>
+        <v>0.9999377584434928</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002300707148463</v>
+        <v>0.9998891188550612</v>
       </c>
       <c r="D12">
-        <v>1.01191541220348</v>
+        <v>0.9994482428943701</v>
       </c>
       <c r="E12">
-        <v>0.9922852217124066</v>
+        <v>1.000369310166231</v>
       </c>
       <c r="F12">
-        <v>1.01191541220348</v>
+        <v>0.9994482428943701</v>
       </c>
       <c r="G12">
-        <v>0.9968924267760563</v>
+        <v>1.000137111096612</v>
       </c>
       <c r="H12">
-        <v>0.995563589762266</v>
+        <v>1.000204719876509</v>
       </c>
       <c r="I12">
-        <v>1.002552594002609</v>
+        <v>0.9998813886882182</v>
       </c>
       <c r="J12">
-        <v>0.9922852217124066</v>
+        <v>1.000369310166231</v>
       </c>
       <c r="K12">
-        <v>0.9922852217124066</v>
+        <v>1.000369310166231</v>
       </c>
       <c r="L12">
-        <v>1.007725189830949</v>
+        <v>0.9996411025216446</v>
       </c>
       <c r="M12">
-        <v>0.9970926567633586</v>
+        <v>1.000138399880005</v>
       </c>
       <c r="N12">
-        <v>0.9922852217124066</v>
+        <v>1.000369310166231</v>
       </c>
       <c r="O12">
-        <v>0.9968924267760563</v>
+        <v>1.000137111096612</v>
       </c>
       <c r="P12">
-        <v>1.004403919489768</v>
+        <v>0.9997926769954909</v>
       </c>
       <c r="Q12">
-        <v>0.9997225103893326</v>
+        <v>1.000009249892415</v>
       </c>
       <c r="R12">
-        <v>1.000364353563981</v>
+        <v>0.9999848880524044</v>
       </c>
       <c r="S12">
-        <v>1.003786810994048</v>
+        <v>0.9998222475597333</v>
       </c>
       <c r="T12">
-        <v>1.000364353563981</v>
+        <v>0.9999848880524044</v>
       </c>
       <c r="U12">
-        <v>1.000911413673638</v>
+        <v>0.9999590132113578</v>
       </c>
       <c r="V12">
-        <v>0.9991861752813916</v>
+        <v>1.000041072602333</v>
       </c>
       <c r="W12">
-        <v>1.000790974774949</v>
+        <v>0.9999636742473313</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000639794163212</v>
+        <v>0.9995986121396276</v>
       </c>
       <c r="D13">
-        <v>1.003025548685639</v>
+        <v>0.9980008734902899</v>
       </c>
       <c r="E13">
-        <v>0.997886627407341</v>
+        <v>1.00133708525989</v>
       </c>
       <c r="F13">
-        <v>1.003025548685639</v>
+        <v>0.9980008734902899</v>
       </c>
       <c r="G13">
-        <v>0.9992978020402662</v>
+        <v>1.000497341542027</v>
       </c>
       <c r="H13">
-        <v>0.9988826280443077</v>
+        <v>1.00074180201626</v>
       </c>
       <c r="I13">
-        <v>1.000653377164229</v>
+        <v>0.9995702854068729</v>
       </c>
       <c r="J13">
-        <v>0.997886627407341</v>
+        <v>1.00133708525989</v>
       </c>
       <c r="K13">
-        <v>0.997886627407341</v>
+        <v>1.00133708525989</v>
       </c>
       <c r="L13">
-        <v>1.001976612328791</v>
+        <v>0.9986997333320682</v>
       </c>
       <c r="M13">
-        <v>0.999213504085587</v>
+        <v>1.0005011366729</v>
       </c>
       <c r="N13">
-        <v>0.997886627407341</v>
+        <v>1.00133708525989</v>
       </c>
       <c r="O13">
-        <v>0.9992978020402662</v>
+        <v>1.000497341542027</v>
       </c>
       <c r="P13">
-        <v>1.001161675362953</v>
+        <v>0.9992491075161586</v>
       </c>
       <c r="Q13">
-        <v>0.9999755896022475</v>
+        <v>1.00003381347445</v>
       </c>
       <c r="R13">
-        <v>1.000069992711082</v>
+        <v>0.9999451000974026</v>
       </c>
       <c r="S13">
-        <v>1.000992242630045</v>
+        <v>0.9993561668130634</v>
       </c>
       <c r="T13">
-        <v>1.000069992711082</v>
+        <v>0.9999451000974026</v>
       </c>
       <c r="U13">
-        <v>1.000215838824369</v>
+        <v>0.9998513964247702</v>
       </c>
       <c r="V13">
-        <v>0.9997499965409631</v>
+        <v>1.000148534191794</v>
       </c>
       <c r="W13">
-        <v>1.000196986739922</v>
+        <v>0.999868358732492</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9999811561744668</v>
+        <v>0.9995599091327882</v>
       </c>
       <c r="D14">
-        <v>0.9991869571858077</v>
+        <v>0.9978183571092371</v>
       </c>
       <c r="E14">
-        <v>1.000142679886942</v>
+        <v>1.001464881750969</v>
       </c>
       <c r="F14">
-        <v>0.9991869571858077</v>
+        <v>0.9978183571092371</v>
       </c>
       <c r="G14">
-        <v>1.000427888869906</v>
+        <v>1.000539529296148</v>
       </c>
       <c r="H14">
-        <v>1.000325367139018</v>
+        <v>1.000809188940059</v>
       </c>
       <c r="I14">
-        <v>0.9998388007909303</v>
+        <v>0.999530856232821</v>
       </c>
       <c r="J14">
-        <v>1.000142679886942</v>
+        <v>1.001464881750969</v>
       </c>
       <c r="K14">
-        <v>1.000142679886942</v>
+        <v>1.001464881750969</v>
       </c>
       <c r="L14">
-        <v>0.9995102536710808</v>
+        <v>0.9985804676268584</v>
       </c>
       <c r="M14">
-        <v>1.000078464151496</v>
+        <v>1.000548680892612</v>
       </c>
       <c r="N14">
-        <v>1.000142679886942</v>
+        <v>1.001464881750969</v>
       </c>
       <c r="O14">
-        <v>1.000427888869906</v>
+        <v>1.000539529296148</v>
       </c>
       <c r="P14">
-        <v>0.9998074230278569</v>
+        <v>0.9991789432026927</v>
       </c>
       <c r="Q14">
-        <v>1.000133344830418</v>
+        <v>1.000035192764485</v>
       </c>
       <c r="R14">
-        <v>0.9999191753142185</v>
+        <v>0.999940922718785</v>
       </c>
       <c r="S14">
-        <v>0.9998178822822147</v>
+        <v>0.9992962475460688</v>
       </c>
       <c r="T14">
-        <v>0.9999191753142185</v>
+        <v>0.9999409227187849</v>
       </c>
       <c r="U14">
-        <v>0.9998990816833965</v>
+        <v>0.9998384060972939</v>
       </c>
       <c r="V14">
-        <v>0.9999478013241057</v>
+        <v>1.000163701228029</v>
       </c>
       <c r="W14">
-        <v>0.999936445983706</v>
+        <v>0.9998564838726867</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999157536346911</v>
+        <v>0.9998427933288118</v>
       </c>
       <c r="D15">
-        <v>0.9998734790989652</v>
+        <v>0.9992213152613556</v>
       </c>
       <c r="E15">
-        <v>1.000248075362356</v>
+        <v>1.000523206626194</v>
       </c>
       <c r="F15">
-        <v>0.9998734790989652</v>
+        <v>0.9992213152613556</v>
       </c>
       <c r="G15">
-        <v>0.999939530549849</v>
+        <v>1.000192374276903</v>
       </c>
       <c r="H15">
-        <v>1.000037297630921</v>
+        <v>1.00028879910575</v>
       </c>
       <c r="I15">
-        <v>0.9999672712942665</v>
+        <v>0.9998325389329215</v>
       </c>
       <c r="J15">
-        <v>1.000248075362356</v>
+        <v>1.000523206626194</v>
       </c>
       <c r="K15">
-        <v>1.000248075362356</v>
+        <v>1.000523206626194</v>
       </c>
       <c r="L15">
-        <v>0.999901789476662</v>
+        <v>0.9994932986615305</v>
       </c>
       <c r="M15">
-        <v>1.000082797288644</v>
+        <v>1.000195948411398</v>
       </c>
       <c r="N15">
-        <v>1.000248075362356</v>
+        <v>1.000523206626194</v>
       </c>
       <c r="O15">
-        <v>0.999939530549849</v>
+        <v>1.000192374276903</v>
       </c>
       <c r="P15">
-        <v>0.9999065048244071</v>
+        <v>0.9997068447691291</v>
       </c>
       <c r="Q15">
-        <v>0.9999534009220578</v>
+        <v>1.000012456604912</v>
       </c>
       <c r="R15">
-        <v>1.00002036167039</v>
+        <v>0.9999789653881507</v>
       </c>
       <c r="S15">
-        <v>0.9999267603143602</v>
+        <v>0.9997487428237265</v>
       </c>
       <c r="T15">
-        <v>1.00002036167039</v>
+        <v>0.9999789653881507</v>
       </c>
       <c r="U15">
-        <v>1.000007089076359</v>
+        <v>0.9999423587743433</v>
       </c>
       <c r="V15">
-        <v>1.000055286333559</v>
+        <v>1.000058528344713</v>
       </c>
       <c r="W15">
-        <v>0.9999957492920444</v>
+        <v>0.9999487843256079</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9969350596815914</v>
+        <v>0.9996965377315364</v>
       </c>
       <c r="D16">
-        <v>0.9848017217311645</v>
+        <v>0.9984967205874634</v>
       </c>
       <c r="E16">
-        <v>1.010202414139352</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="F16">
-        <v>0.9848017217311645</v>
+        <v>0.9984967205874634</v>
       </c>
       <c r="G16">
-        <v>1.00376006299036</v>
+        <v>1.000371434461863</v>
       </c>
       <c r="H16">
-        <v>1.005637312639671</v>
+        <v>1.000557542628332</v>
       </c>
       <c r="I16">
-        <v>0.9967318760808334</v>
+        <v>0.9996767155140029</v>
       </c>
       <c r="J16">
-        <v>1.010202414139352</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="K16">
-        <v>1.010202414139352</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="L16">
-        <v>0.9901111537398666</v>
+        <v>0.9990218010985726</v>
       </c>
       <c r="M16">
-        <v>1.003821523047976</v>
+        <v>1.000378257347902</v>
       </c>
       <c r="N16">
-        <v>1.010202414139352</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="O16">
-        <v>1.00376006299036</v>
+        <v>1.000371434461863</v>
       </c>
       <c r="P16">
-        <v>0.9942808923607624</v>
+        <v>0.9994340775246633</v>
       </c>
       <c r="Q16">
-        <v>1.000245969535597</v>
+        <v>1.000024074987933</v>
       </c>
       <c r="R16">
-        <v>0.9995880662869591</v>
+        <v>0.9999593785208289</v>
       </c>
       <c r="S16">
-        <v>0.9950978869341194</v>
+        <v>0.9995149568544432</v>
       </c>
       <c r="T16">
-        <v>0.9995880662869591</v>
+        <v>0.9999593785208288</v>
       </c>
       <c r="U16">
-        <v>0.9988740187354276</v>
+        <v>0.9998887127691223</v>
       </c>
       <c r="V16">
-        <v>1.001139697816213</v>
+        <v>1.00011296631793</v>
       </c>
       <c r="W16">
-        <v>0.9990001405063519</v>
+        <v>0.9999011237353541</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9974938928172288</v>
+        <v>0.999418611081659</v>
       </c>
       <c r="D17">
-        <v>0.9875344700256717</v>
+        <v>0.9971189230095722</v>
       </c>
       <c r="E17">
-        <v>1.0083464636346</v>
+        <v>1.001935099347813</v>
       </c>
       <c r="F17">
-        <v>0.9875344700256717</v>
+        <v>0.9971189230095722</v>
       </c>
       <c r="G17">
-        <v>1.003096068303983</v>
+        <v>1.000712172661099</v>
       </c>
       <c r="H17">
-        <v>1.004624957067983</v>
+        <v>1.00106857938642</v>
       </c>
       <c r="I17">
-        <v>0.9973202325180783</v>
+        <v>0.9993804389778748</v>
       </c>
       <c r="J17">
-        <v>1.0083464636346</v>
+        <v>1.001935099347813</v>
       </c>
       <c r="K17">
-        <v>1.0083464636346</v>
+        <v>1.001935099347813</v>
       </c>
       <c r="L17">
-        <v>0.9918913252385787</v>
+        <v>0.9981253118193759</v>
       </c>
       <c r="M17">
-        <v>1.003127671459756</v>
+        <v>1.000724765408034</v>
       </c>
       <c r="N17">
-        <v>1.0083464636346</v>
+        <v>1.001935099347813</v>
       </c>
       <c r="O17">
-        <v>1.003096068303983</v>
+        <v>1.000712172661099</v>
       </c>
       <c r="P17">
-        <v>0.9953152691648273</v>
+        <v>0.9989155478353353</v>
       </c>
       <c r="Q17">
-        <v>1.000208150411031</v>
+        <v>1.000046305819487</v>
       </c>
       <c r="R17">
-        <v>0.9996590006547517</v>
+        <v>0.9999220650061611</v>
       </c>
       <c r="S17">
-        <v>0.9959835902825777</v>
+        <v>0.9990705115495152</v>
       </c>
       <c r="T17">
-        <v>0.9996590006547517</v>
+        <v>0.9999220650061611</v>
       </c>
       <c r="U17">
-        <v>0.9990743086205833</v>
+        <v>0.9997866584990895</v>
       </c>
       <c r="V17">
-        <v>1.000928739623387</v>
+        <v>1.000216346668834</v>
       </c>
       <c r="W17">
-        <v>0.9991793851332351</v>
+        <v>0.9998104877114808</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9986095308802363</v>
+        <v>0.9991473711718346</v>
       </c>
       <c r="D18">
-        <v>0.9929919092137385</v>
+        <v>0.995774254397338</v>
       </c>
       <c r="E18">
-        <v>1.004641091323072</v>
+        <v>1.002837944037307</v>
       </c>
       <c r="F18">
-        <v>0.9929919092137385</v>
+        <v>0.995774254397338</v>
       </c>
       <c r="G18">
-        <v>1.00176944174643</v>
+        <v>1.001044753918691</v>
       </c>
       <c r="H18">
-        <v>1.002603170650078</v>
+        <v>1.001567334200792</v>
       </c>
       <c r="I18">
-        <v>0.9984951754587105</v>
+        <v>0.9990912839342193</v>
       </c>
       <c r="J18">
-        <v>1.004641091323072</v>
+        <v>1.002837944037307</v>
       </c>
       <c r="K18">
-        <v>1.004641091323072</v>
+        <v>1.002837944037307</v>
       </c>
       <c r="L18">
-        <v>0.9954463163492384</v>
+        <v>0.997250370577306</v>
       </c>
       <c r="M18">
-        <v>1.001742345302718</v>
+        <v>1.001062934732305</v>
       </c>
       <c r="N18">
-        <v>1.004641091323072</v>
+        <v>1.002837944037307</v>
       </c>
       <c r="O18">
-        <v>1.00176944174643</v>
+        <v>1.001044753918691</v>
       </c>
       <c r="P18">
-        <v>0.9973806754800842</v>
+        <v>0.9984095041580144</v>
       </c>
       <c r="Q18">
-        <v>1.00013230860257</v>
+        <v>1.000068018926455</v>
       </c>
       <c r="R18">
-        <v>0.9998008140944133</v>
+        <v>0.9998856507844454</v>
       </c>
       <c r="S18">
-        <v>0.9977521754729596</v>
+        <v>0.9986367640834161</v>
       </c>
       <c r="T18">
-        <v>0.9998008140944133</v>
+        <v>0.9998856507844454</v>
       </c>
       <c r="U18">
-        <v>0.9994744044354876</v>
+        <v>0.9996870590718888</v>
       </c>
       <c r="V18">
-        <v>1.000507741813004</v>
+        <v>1.000317236064972</v>
       </c>
       <c r="W18">
-        <v>0.9995373726155277</v>
+        <v>0.9997220308712241</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9984831589401306</v>
+        <v>0.99998693458688</v>
       </c>
       <c r="D19">
-        <v>0.9923282678810286</v>
+        <v>0.9999342890692485</v>
       </c>
       <c r="E19">
-        <v>1.005065866899659</v>
+        <v>1.000043595394211</v>
       </c>
       <c r="F19">
-        <v>0.9923282678810286</v>
+        <v>0.9999342890692485</v>
       </c>
       <c r="G19">
-        <v>1.001945281796884</v>
+        <v>1.000016547183564</v>
       </c>
       <c r="H19">
-        <v>1.002850547114986</v>
+        <v>1.000024403426668</v>
       </c>
       <c r="I19">
-        <v>0.9983531723701382</v>
+        <v>0.9999858853368389</v>
       </c>
       <c r="J19">
-        <v>1.005065866899659</v>
+        <v>1.000043595394211</v>
       </c>
       <c r="K19">
-        <v>1.005065866899659</v>
+        <v>1.000043595394211</v>
       </c>
       <c r="L19">
-        <v>0.9950165319177455</v>
+        <v>0.9999572965150905</v>
       </c>
       <c r="M19">
-        <v>1.001902735604184</v>
+        <v>1.000016362007486</v>
       </c>
       <c r="N19">
-        <v>1.005065866899659</v>
+        <v>1.000043595394211</v>
       </c>
       <c r="O19">
-        <v>1.001945281796884</v>
+        <v>1.000016547183564</v>
       </c>
       <c r="P19">
-        <v>0.9971367748389565</v>
+        <v>0.9999754181264062</v>
       </c>
       <c r="Q19">
-        <v>1.000149227083511</v>
+        <v>1.000001216260201</v>
       </c>
       <c r="R19">
-        <v>0.9997798055258574</v>
+        <v>0.999998143882341</v>
       </c>
       <c r="S19">
-        <v>0.9975422406826837</v>
+        <v>0.9999789071965504</v>
       </c>
       <c r="T19">
-        <v>0.9997798055258574</v>
+        <v>0.999998143882341</v>
       </c>
       <c r="U19">
-        <v>0.9994231472369277</v>
+        <v>0.9999950792459655</v>
       </c>
       <c r="V19">
-        <v>1.000551691169474</v>
+        <v>1.000004782475615</v>
       </c>
       <c r="W19">
-        <v>0.9994931953155946</v>
+        <v>0.9999956641899983</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999993785214852</v>
+        <v>0.9999616810738821</v>
       </c>
       <c r="D20">
-        <v>0.9999967452124633</v>
+        <v>0.9998078842194347</v>
       </c>
       <c r="E20">
-        <v>1.000002089224937</v>
+        <v>1.000127788530709</v>
       </c>
       <c r="F20">
-        <v>0.9999967452124633</v>
+        <v>0.9998078842194347</v>
       </c>
       <c r="G20">
-        <v>1.000000859175679</v>
+        <v>1.000048191448655</v>
       </c>
       <c r="H20">
-        <v>1.000001212558539</v>
+        <v>1.000071328489712</v>
       </c>
       <c r="I20">
-        <v>0.9999993011971362</v>
+        <v>0.9999587264776397</v>
       </c>
       <c r="J20">
-        <v>1.000002089224937</v>
+        <v>1.000127788530709</v>
       </c>
       <c r="K20">
-        <v>1.000002089224937</v>
+        <v>1.000127788530709</v>
       </c>
       <c r="L20">
-        <v>0.999997893055295</v>
+        <v>0.9998751147297342</v>
       </c>
       <c r="M20">
-        <v>1.000000788853918</v>
+        <v>1.000047939146071</v>
       </c>
       <c r="N20">
-        <v>1.000002089224937</v>
+        <v>1.000127788530709</v>
       </c>
       <c r="O20">
-        <v>1.000000859175679</v>
+        <v>1.000048191448655</v>
       </c>
       <c r="P20">
-        <v>0.9999988021940711</v>
+        <v>0.9999280378340448</v>
       </c>
       <c r="Q20">
-        <v>1.000000080186408</v>
+        <v>1.000003458963147</v>
       </c>
       <c r="R20">
-        <v>0.9999998978710266</v>
+        <v>0.9999946213995997</v>
       </c>
       <c r="S20">
-        <v>0.9999989685284261</v>
+        <v>0.9999382673819097</v>
       </c>
       <c r="T20">
-        <v>0.9999998978710266</v>
+        <v>0.9999946213995997</v>
       </c>
       <c r="U20">
-        <v>0.999999748702554</v>
+        <v>0.9999856476691097</v>
       </c>
       <c r="V20">
-        <v>1.000000216807031</v>
+        <v>1.00001407584143</v>
       </c>
       <c r="W20">
-        <v>0.9999997834749317</v>
+        <v>0.9999873317644797</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999864944561604</v>
+        <v>0.9999425114668483</v>
       </c>
       <c r="D21">
-        <v>0.9999315473108631</v>
+        <v>0.9997127648765963</v>
       </c>
       <c r="E21">
-        <v>1.000045122748392</v>
+        <v>1.000191606832034</v>
       </c>
       <c r="F21">
-        <v>0.9999315473108631</v>
+        <v>0.9997127648765963</v>
       </c>
       <c r="G21">
-        <v>1.000017401310555</v>
+        <v>1.000071743657756</v>
       </c>
       <c r="H21">
-        <v>1.00002543921967</v>
+        <v>1.000106611830166</v>
       </c>
       <c r="I21">
-        <v>0.9999853064146966</v>
+        <v>0.9999382737514023</v>
       </c>
       <c r="J21">
-        <v>1.000045122748392</v>
+        <v>1.000191606832034</v>
       </c>
       <c r="K21">
-        <v>1.000045122748392</v>
+        <v>1.000191606832034</v>
       </c>
       <c r="L21">
-        <v>0.9999555432197866</v>
+        <v>0.9998132275322326</v>
       </c>
       <c r="M21">
-        <v>1.000016953780898</v>
+        <v>1.000071845373864</v>
       </c>
       <c r="N21">
-        <v>1.000045122748392</v>
+        <v>1.000191606832034</v>
       </c>
       <c r="O21">
-        <v>1.000017401310555</v>
+        <v>1.000071743657756</v>
       </c>
       <c r="P21">
-        <v>0.9999744743107091</v>
+        <v>0.9998922542671764</v>
       </c>
       <c r="Q21">
-        <v>1.000001353862626</v>
+        <v>1.000005008704579</v>
       </c>
       <c r="R21">
-        <v>0.9999980237899365</v>
+        <v>0.9999920384554621</v>
       </c>
       <c r="S21">
-        <v>0.9999780850120382</v>
+        <v>0.9999075940952517</v>
       </c>
       <c r="T21">
-        <v>0.9999980237899365</v>
+        <v>0.9999920384554621</v>
       </c>
       <c r="U21">
-        <v>0.9999948444461266</v>
+        <v>0.9999785972794472</v>
       </c>
       <c r="V21">
-        <v>1.00000490010658</v>
+        <v>1.000021199189964</v>
       </c>
       <c r="W21">
-        <v>0.9999954760576277</v>
+        <v>0.9999810731651124</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999514797986612</v>
+        <v>0.9998797982734208</v>
       </c>
       <c r="D22">
-        <v>0.9997604213962228</v>
+        <v>0.9993983975195785</v>
       </c>
       <c r="E22">
-        <v>1.000161399278815</v>
+        <v>1.000400742478095</v>
       </c>
       <c r="F22">
-        <v>0.9997604213962228</v>
+        <v>0.9993983975195785</v>
       </c>
       <c r="G22">
-        <v>1.000058950591462</v>
+        <v>1.000150584531755</v>
       </c>
       <c r="H22">
-        <v>1.000088828103257</v>
+        <v>1.000223329377361</v>
       </c>
       <c r="I22">
-        <v>0.9999484608355095</v>
+        <v>0.9998707386529481</v>
       </c>
       <c r="J22">
-        <v>1.000161399278815</v>
+        <v>1.000400742478095</v>
       </c>
       <c r="K22">
-        <v>1.000161399278815</v>
+        <v>1.000400742478095</v>
       </c>
       <c r="L22">
-        <v>0.9998440667039823</v>
+        <v>0.9996088680599604</v>
       </c>
       <c r="M22">
-        <v>1.000060419116823</v>
+        <v>1.000150300001404</v>
       </c>
       <c r="N22">
-        <v>1.000161399278815</v>
+        <v>1.000400742478095</v>
       </c>
       <c r="O22">
-        <v>1.000058950591462</v>
+        <v>1.000150584531755</v>
       </c>
       <c r="P22">
-        <v>0.9999096859938424</v>
+        <v>0.9997744910256667</v>
       </c>
       <c r="Q22">
-        <v>1.000003705713486</v>
+        <v>1.000010661592352</v>
       </c>
       <c r="R22">
-        <v>0.9999935904221665</v>
+        <v>0.9999832415098093</v>
       </c>
       <c r="S22">
-        <v>0.9999226109410647</v>
+        <v>0.9998065735680939</v>
       </c>
       <c r="T22">
-        <v>0.9999935904221665</v>
+        <v>0.9999832415098093</v>
       </c>
       <c r="U22">
-        <v>0.9999823080255023</v>
+        <v>0.999955115795594</v>
       </c>
       <c r="V22">
-        <v>1.000018126276165</v>
+        <v>1.000044241132094</v>
       </c>
       <c r="W22">
-        <v>0.9999842532280916</v>
+        <v>0.9999603448618154</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9997896165481591</v>
+      </c>
+      <c r="D23">
+        <v>0.9989503807276686</v>
+      </c>
+      <c r="E23">
+        <v>1.000701027571697</v>
+      </c>
+      <c r="F23">
+        <v>0.9989503807276686</v>
+      </c>
+      <c r="G23">
+        <v>1.000261685346763</v>
+      </c>
+      <c r="H23">
+        <v>1.000389534523953</v>
+      </c>
+      <c r="I23">
+        <v>0.9997744160796893</v>
+      </c>
+      <c r="J23">
+        <v>1.000701027571697</v>
+      </c>
+      <c r="K23">
+        <v>1.000701027571697</v>
+      </c>
+      <c r="L23">
+        <v>0.999317406664661</v>
+      </c>
+      <c r="M23">
+        <v>1.000262804674352</v>
+      </c>
+      <c r="N23">
+        <v>1.000701027571697</v>
+      </c>
+      <c r="O23">
+        <v>1.000261685346763</v>
+      </c>
+      <c r="P23">
+        <v>0.9996060330372161</v>
+      </c>
+      <c r="Q23">
+        <v>1.000018050713226</v>
+      </c>
+      <c r="R23">
+        <v>0.9999710312153761</v>
+      </c>
+      <c r="S23">
+        <v>0.9996621607180405</v>
+      </c>
+      <c r="T23">
+        <v>0.9999710312153761</v>
+      </c>
+      <c r="U23">
+        <v>0.9999218774314544</v>
+      </c>
+      <c r="V23">
+        <v>1.000077707459503</v>
+      </c>
+      <c r="W23">
+        <v>0.9999308590171178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.002300707148463</v>
+      </c>
+      <c r="D24">
+        <v>1.01191541220348</v>
+      </c>
+      <c r="E24">
+        <v>0.9922852217124066</v>
+      </c>
+      <c r="F24">
+        <v>1.01191541220348</v>
+      </c>
+      <c r="G24">
+        <v>0.9968924267760563</v>
+      </c>
+      <c r="H24">
+        <v>0.995563589762266</v>
+      </c>
+      <c r="I24">
+        <v>1.002552594002609</v>
+      </c>
+      <c r="J24">
+        <v>0.9922852217124066</v>
+      </c>
+      <c r="K24">
+        <v>0.9922852217124066</v>
+      </c>
+      <c r="L24">
+        <v>1.007725189830949</v>
+      </c>
+      <c r="M24">
+        <v>0.9970926567633586</v>
+      </c>
+      <c r="N24">
+        <v>0.9922852217124066</v>
+      </c>
+      <c r="O24">
+        <v>0.9968924267760563</v>
+      </c>
+      <c r="P24">
+        <v>1.004403919489768</v>
+      </c>
+      <c r="Q24">
+        <v>0.9997225103893326</v>
+      </c>
+      <c r="R24">
+        <v>1.000364353563981</v>
+      </c>
+      <c r="S24">
+        <v>1.003786810994048</v>
+      </c>
+      <c r="T24">
+        <v>1.000364353563981</v>
+      </c>
+      <c r="U24">
+        <v>1.000911413673638</v>
+      </c>
+      <c r="V24">
+        <v>0.9991861752813916</v>
+      </c>
+      <c r="W24">
+        <v>1.000790974774949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000639794163212</v>
+      </c>
+      <c r="D25">
+        <v>1.003025548685639</v>
+      </c>
+      <c r="E25">
+        <v>0.997886627407341</v>
+      </c>
+      <c r="F25">
+        <v>1.003025548685639</v>
+      </c>
+      <c r="G25">
+        <v>0.9992978020402662</v>
+      </c>
+      <c r="H25">
+        <v>0.9988826280443077</v>
+      </c>
+      <c r="I25">
+        <v>1.000653377164229</v>
+      </c>
+      <c r="J25">
+        <v>0.997886627407341</v>
+      </c>
+      <c r="K25">
+        <v>0.997886627407341</v>
+      </c>
+      <c r="L25">
+        <v>1.001976612328791</v>
+      </c>
+      <c r="M25">
+        <v>0.999213504085587</v>
+      </c>
+      <c r="N25">
+        <v>0.997886627407341</v>
+      </c>
+      <c r="O25">
+        <v>0.9992978020402662</v>
+      </c>
+      <c r="P25">
+        <v>1.001161675362953</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999755896022475</v>
+      </c>
+      <c r="R25">
+        <v>1.000069992711082</v>
+      </c>
+      <c r="S25">
+        <v>1.000992242630045</v>
+      </c>
+      <c r="T25">
+        <v>1.000069992711082</v>
+      </c>
+      <c r="U25">
+        <v>1.000215838824369</v>
+      </c>
+      <c r="V25">
+        <v>0.9997499965409631</v>
+      </c>
+      <c r="W25">
+        <v>1.000196986739922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9999811561744668</v>
+      </c>
+      <c r="D26">
+        <v>0.9991869571858077</v>
+      </c>
+      <c r="E26">
+        <v>1.000142679886942</v>
+      </c>
+      <c r="F26">
+        <v>0.9991869571858077</v>
+      </c>
+      <c r="G26">
+        <v>1.000427888869906</v>
+      </c>
+      <c r="H26">
+        <v>1.000325367139018</v>
+      </c>
+      <c r="I26">
+        <v>0.9998388007909303</v>
+      </c>
+      <c r="J26">
+        <v>1.000142679886942</v>
+      </c>
+      <c r="K26">
+        <v>1.000142679886942</v>
+      </c>
+      <c r="L26">
+        <v>0.9995102536710808</v>
+      </c>
+      <c r="M26">
+        <v>1.000078464151496</v>
+      </c>
+      <c r="N26">
+        <v>1.000142679886942</v>
+      </c>
+      <c r="O26">
+        <v>1.000427888869906</v>
+      </c>
+      <c r="P26">
+        <v>0.9998074230278569</v>
+      </c>
+      <c r="Q26">
+        <v>1.000133344830418</v>
+      </c>
+      <c r="R26">
+        <v>0.9999191753142185</v>
+      </c>
+      <c r="S26">
+        <v>0.9998178822822147</v>
+      </c>
+      <c r="T26">
+        <v>0.9999191753142185</v>
+      </c>
+      <c r="U26">
+        <v>0.9998990816833965</v>
+      </c>
+      <c r="V26">
+        <v>0.9999478013241057</v>
+      </c>
+      <c r="W26">
+        <v>0.999936445983706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9999157536346911</v>
+      </c>
+      <c r="D27">
+        <v>0.9998734790989652</v>
+      </c>
+      <c r="E27">
+        <v>1.000248075362356</v>
+      </c>
+      <c r="F27">
+        <v>0.9998734790989652</v>
+      </c>
+      <c r="G27">
+        <v>0.999939530549849</v>
+      </c>
+      <c r="H27">
+        <v>1.000037297630921</v>
+      </c>
+      <c r="I27">
+        <v>0.9999672712942665</v>
+      </c>
+      <c r="J27">
+        <v>1.000248075362356</v>
+      </c>
+      <c r="K27">
+        <v>1.000248075362356</v>
+      </c>
+      <c r="L27">
+        <v>0.999901789476662</v>
+      </c>
+      <c r="M27">
+        <v>1.000082797288644</v>
+      </c>
+      <c r="N27">
+        <v>1.000248075362356</v>
+      </c>
+      <c r="O27">
+        <v>0.999939530549849</v>
+      </c>
+      <c r="P27">
+        <v>0.9999065048244071</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999534009220578</v>
+      </c>
+      <c r="R27">
+        <v>1.00002036167039</v>
+      </c>
+      <c r="S27">
+        <v>0.9999267603143602</v>
+      </c>
+      <c r="T27">
+        <v>1.00002036167039</v>
+      </c>
+      <c r="U27">
+        <v>1.000007089076359</v>
+      </c>
+      <c r="V27">
+        <v>1.000055286333559</v>
+      </c>
+      <c r="W27">
+        <v>0.9999957492920444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9969350596815914</v>
+      </c>
+      <c r="D28">
+        <v>0.9848017217311645</v>
+      </c>
+      <c r="E28">
+        <v>1.010202414139352</v>
+      </c>
+      <c r="F28">
+        <v>0.9848017217311645</v>
+      </c>
+      <c r="G28">
+        <v>1.00376006299036</v>
+      </c>
+      <c r="H28">
+        <v>1.005637312639671</v>
+      </c>
+      <c r="I28">
+        <v>0.9967318760808334</v>
+      </c>
+      <c r="J28">
+        <v>1.010202414139352</v>
+      </c>
+      <c r="K28">
+        <v>1.010202414139352</v>
+      </c>
+      <c r="L28">
+        <v>0.9901111537398666</v>
+      </c>
+      <c r="M28">
+        <v>1.003821523047976</v>
+      </c>
+      <c r="N28">
+        <v>1.010202414139352</v>
+      </c>
+      <c r="O28">
+        <v>1.00376006299036</v>
+      </c>
+      <c r="P28">
+        <v>0.9942808923607624</v>
+      </c>
+      <c r="Q28">
+        <v>1.000245969535597</v>
+      </c>
+      <c r="R28">
+        <v>0.9995880662869591</v>
+      </c>
+      <c r="S28">
+        <v>0.9950978869341194</v>
+      </c>
+      <c r="T28">
+        <v>0.9995880662869591</v>
+      </c>
+      <c r="U28">
+        <v>0.9988740187354276</v>
+      </c>
+      <c r="V28">
+        <v>1.001139697816213</v>
+      </c>
+      <c r="W28">
+        <v>0.9990001405063519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9974938928172288</v>
+      </c>
+      <c r="D29">
+        <v>0.9875344700256717</v>
+      </c>
+      <c r="E29">
+        <v>1.0083464636346</v>
+      </c>
+      <c r="F29">
+        <v>0.9875344700256717</v>
+      </c>
+      <c r="G29">
+        <v>1.003096068303983</v>
+      </c>
+      <c r="H29">
+        <v>1.004624957067983</v>
+      </c>
+      <c r="I29">
+        <v>0.9973202325180783</v>
+      </c>
+      <c r="J29">
+        <v>1.0083464636346</v>
+      </c>
+      <c r="K29">
+        <v>1.0083464636346</v>
+      </c>
+      <c r="L29">
+        <v>0.9918913252385787</v>
+      </c>
+      <c r="M29">
+        <v>1.003127671459756</v>
+      </c>
+      <c r="N29">
+        <v>1.0083464636346</v>
+      </c>
+      <c r="O29">
+        <v>1.003096068303983</v>
+      </c>
+      <c r="P29">
+        <v>0.9953152691648273</v>
+      </c>
+      <c r="Q29">
+        <v>1.000208150411031</v>
+      </c>
+      <c r="R29">
+        <v>0.9996590006547517</v>
+      </c>
+      <c r="S29">
+        <v>0.9959835902825777</v>
+      </c>
+      <c r="T29">
+        <v>0.9996590006547517</v>
+      </c>
+      <c r="U29">
+        <v>0.9990743086205833</v>
+      </c>
+      <c r="V29">
+        <v>1.000928739623387</v>
+      </c>
+      <c r="W29">
+        <v>0.9991793851332351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9986095308802363</v>
+      </c>
+      <c r="D30">
+        <v>0.9929919092137385</v>
+      </c>
+      <c r="E30">
+        <v>1.004641091323072</v>
+      </c>
+      <c r="F30">
+        <v>0.9929919092137385</v>
+      </c>
+      <c r="G30">
+        <v>1.00176944174643</v>
+      </c>
+      <c r="H30">
+        <v>1.002603170650078</v>
+      </c>
+      <c r="I30">
+        <v>0.9984951754587105</v>
+      </c>
+      <c r="J30">
+        <v>1.004641091323072</v>
+      </c>
+      <c r="K30">
+        <v>1.004641091323072</v>
+      </c>
+      <c r="L30">
+        <v>0.9954463163492384</v>
+      </c>
+      <c r="M30">
+        <v>1.001742345302718</v>
+      </c>
+      <c r="N30">
+        <v>1.004641091323072</v>
+      </c>
+      <c r="O30">
+        <v>1.00176944174643</v>
+      </c>
+      <c r="P30">
+        <v>0.9973806754800842</v>
+      </c>
+      <c r="Q30">
+        <v>1.00013230860257</v>
+      </c>
+      <c r="R30">
+        <v>0.9998008140944133</v>
+      </c>
+      <c r="S30">
+        <v>0.9977521754729596</v>
+      </c>
+      <c r="T30">
+        <v>0.9998008140944133</v>
+      </c>
+      <c r="U30">
+        <v>0.9994744044354876</v>
+      </c>
+      <c r="V30">
+        <v>1.000507741813004</v>
+      </c>
+      <c r="W30">
+        <v>0.9995373726155277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9984831589401306</v>
+      </c>
+      <c r="D31">
+        <v>0.9923282678810286</v>
+      </c>
+      <c r="E31">
+        <v>1.005065866899659</v>
+      </c>
+      <c r="F31">
+        <v>0.9923282678810286</v>
+      </c>
+      <c r="G31">
+        <v>1.001945281796884</v>
+      </c>
+      <c r="H31">
+        <v>1.002850547114986</v>
+      </c>
+      <c r="I31">
+        <v>0.9983531723701382</v>
+      </c>
+      <c r="J31">
+        <v>1.005065866899659</v>
+      </c>
+      <c r="K31">
+        <v>1.005065866899659</v>
+      </c>
+      <c r="L31">
+        <v>0.9950165319177455</v>
+      </c>
+      <c r="M31">
+        <v>1.001902735604184</v>
+      </c>
+      <c r="N31">
+        <v>1.005065866899659</v>
+      </c>
+      <c r="O31">
+        <v>1.001945281796884</v>
+      </c>
+      <c r="P31">
+        <v>0.9971367748389565</v>
+      </c>
+      <c r="Q31">
+        <v>1.000149227083511</v>
+      </c>
+      <c r="R31">
+        <v>0.9997798055258574</v>
+      </c>
+      <c r="S31">
+        <v>0.9975422406826837</v>
+      </c>
+      <c r="T31">
+        <v>0.9997798055258574</v>
+      </c>
+      <c r="U31">
+        <v>0.9994231472369277</v>
+      </c>
+      <c r="V31">
+        <v>1.000551691169474</v>
+      </c>
+      <c r="W31">
+        <v>0.9994931953155946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9961832550684931</v>
+      </c>
+      <c r="D32">
+        <v>0.9811231757534251</v>
+      </c>
+      <c r="E32">
+        <v>1.01269948520548</v>
+      </c>
+      <c r="F32">
+        <v>0.9811231757534251</v>
+      </c>
+      <c r="G32">
+        <v>1.004654550958904</v>
+      </c>
+      <c r="H32">
+        <v>1.007000115068493</v>
+      </c>
+      <c r="I32">
+        <v>0.9959399324657531</v>
+      </c>
+      <c r="J32">
+        <v>1.01269948520548</v>
+      </c>
+      <c r="K32">
+        <v>1.01269948520548</v>
+      </c>
+      <c r="L32">
+        <v>0.9877149878082195</v>
+      </c>
+      <c r="M32">
+        <v>1.004755132328767</v>
+      </c>
+      <c r="N32">
+        <v>1.01269948520548</v>
+      </c>
+      <c r="O32">
+        <v>1.004654550958904</v>
+      </c>
+      <c r="P32">
+        <v>0.9928888633561644</v>
+      </c>
+      <c r="Q32">
+        <v>1.000297241712328</v>
+      </c>
+      <c r="R32">
+        <v>0.999492403972603</v>
+      </c>
+      <c r="S32">
+        <v>0.9939058863926941</v>
+      </c>
+      <c r="T32">
+        <v>0.999492403972603</v>
+      </c>
+      <c r="U32">
+        <v>0.9986042860958905</v>
+      </c>
+      <c r="V32">
+        <v>1.001423325917808</v>
+      </c>
+      <c r="W32">
+        <v>0.9987588293321918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9933733657894737</v>
+      </c>
+      <c r="D33">
+        <v>0.9663874021052632</v>
+      </c>
+      <c r="E33">
+        <v>1.022142057894737</v>
+      </c>
+      <c r="F33">
+        <v>0.9663874021052632</v>
+      </c>
+      <c r="G33">
+        <v>1.008552976842105</v>
+      </c>
+      <c r="H33">
+        <v>1.012492418947369</v>
+      </c>
+      <c r="I33">
+        <v>0.9927864642105262</v>
+      </c>
+      <c r="J33">
+        <v>1.022142057894737</v>
+      </c>
+      <c r="K33">
+        <v>1.022142057894737</v>
+      </c>
+      <c r="L33">
+        <v>0.9781708378947368</v>
+      </c>
+      <c r="M33">
+        <v>1.008319915263158</v>
+      </c>
+      <c r="N33">
+        <v>1.022142057894737</v>
+      </c>
+      <c r="O33">
+        <v>1.008552976842105</v>
+      </c>
+      <c r="P33">
+        <v>0.9874701894736843</v>
+      </c>
+      <c r="Q33">
+        <v>1.000669720526316</v>
+      </c>
+      <c r="R33">
+        <v>0.9990274789473684</v>
+      </c>
+      <c r="S33">
+        <v>0.9892422810526315</v>
+      </c>
+      <c r="T33">
+        <v>0.9990274789473684</v>
+      </c>
+      <c r="U33">
+        <v>0.9974672252631579</v>
+      </c>
+      <c r="V33">
+        <v>1.002402191789474</v>
+      </c>
+      <c r="W33">
+        <v>0.9977781798684211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9935003610526316</v>
+      </c>
+      <c r="D34">
+        <v>0.9674729231578948</v>
+      </c>
+      <c r="E34">
+        <v>1.021668651578947</v>
+      </c>
+      <c r="F34">
+        <v>0.9674729231578948</v>
+      </c>
+      <c r="G34">
+        <v>1.008140802631579</v>
+      </c>
+      <c r="H34">
+        <v>1.012074709473684</v>
+      </c>
+      <c r="I34">
+        <v>0.9930112521052631</v>
+      </c>
+      <c r="J34">
+        <v>1.021668651578947</v>
+      </c>
+      <c r="K34">
+        <v>1.021668651578947</v>
+      </c>
+      <c r="L34">
+        <v>0.9788522710526315</v>
+      </c>
+      <c r="M34">
+        <v>1.008126746315789</v>
+      </c>
+      <c r="N34">
+        <v>1.021668651578947</v>
+      </c>
+      <c r="O34">
+        <v>1.008140802631579</v>
+      </c>
+      <c r="P34">
+        <v>0.987806862894737</v>
+      </c>
+      <c r="Q34">
+        <v>1.000576027368421</v>
+      </c>
+      <c r="R34">
+        <v>0.9990941257894738</v>
+      </c>
+      <c r="S34">
+        <v>0.9895416592982457</v>
+      </c>
+      <c r="T34">
+        <v>0.9990941257894738</v>
+      </c>
+      <c r="U34">
+        <v>0.997573407368421</v>
+      </c>
+      <c r="V34">
+        <v>1.002392456210526</v>
+      </c>
+      <c r="W34">
+        <v>0.9978559646710526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9945726680687185</v>
+      </c>
+      <c r="D35">
+        <v>0.9725335430300962</v>
+      </c>
+      <c r="E35">
+        <v>1.018127751552857</v>
+      </c>
+      <c r="F35">
+        <v>0.9725335430300962</v>
+      </c>
+      <c r="G35">
+        <v>1.006969668851366</v>
+      </c>
+      <c r="H35">
+        <v>1.010206116256736</v>
+      </c>
+      <c r="I35">
+        <v>0.9941043119622862</v>
+      </c>
+      <c r="J35">
+        <v>1.018127751552857</v>
+      </c>
+      <c r="K35">
+        <v>1.018127751552857</v>
+      </c>
+      <c r="L35">
+        <v>0.9821590008991533</v>
+      </c>
+      <c r="M35">
+        <v>1.006809350708947</v>
+      </c>
+      <c r="N35">
+        <v>1.018127751552857</v>
+      </c>
+      <c r="O35">
+        <v>1.006969668851366</v>
+      </c>
+      <c r="P35">
+        <v>0.989751605940731</v>
+      </c>
+      <c r="Q35">
+        <v>1.000536990406826</v>
+      </c>
+      <c r="R35">
+        <v>0.999210321144773</v>
+      </c>
+      <c r="S35">
+        <v>0.9912025079479161</v>
+      </c>
+      <c r="T35">
+        <v>0.999210321144773</v>
+      </c>
+      <c r="U35">
+        <v>0.9979338188491513</v>
+      </c>
+      <c r="V35">
+        <v>1.001972605389893</v>
+      </c>
+      <c r="W35">
+        <v>0.9981853014162699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999993785214852</v>
+      </c>
+      <c r="D36">
+        <v>0.9999967452124633</v>
+      </c>
+      <c r="E36">
+        <v>1.000002089224937</v>
+      </c>
+      <c r="F36">
+        <v>0.9999967452124633</v>
+      </c>
+      <c r="G36">
+        <v>1.000000859175679</v>
+      </c>
+      <c r="H36">
+        <v>1.000001212558539</v>
+      </c>
+      <c r="I36">
+        <v>0.9999993011971362</v>
+      </c>
+      <c r="J36">
+        <v>1.000002089224937</v>
+      </c>
+      <c r="K36">
+        <v>1.000002089224937</v>
+      </c>
+      <c r="L36">
+        <v>0.999997893055295</v>
+      </c>
+      <c r="M36">
+        <v>1.000000788853918</v>
+      </c>
+      <c r="N36">
+        <v>1.000002089224937</v>
+      </c>
+      <c r="O36">
+        <v>1.000000859175679</v>
+      </c>
+      <c r="P36">
+        <v>0.9999988021940711</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000080186408</v>
+      </c>
+      <c r="R36">
+        <v>0.9999998978710266</v>
+      </c>
+      <c r="S36">
+        <v>0.9999989685284261</v>
+      </c>
+      <c r="T36">
+        <v>0.9999998978710266</v>
+      </c>
+      <c r="U36">
+        <v>0.999999748702554</v>
+      </c>
+      <c r="V36">
+        <v>1.000000216807031</v>
+      </c>
+      <c r="W36">
+        <v>0.9999997834749317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999864944561604</v>
+      </c>
+      <c r="D37">
+        <v>0.9999315473108631</v>
+      </c>
+      <c r="E37">
+        <v>1.000045122748392</v>
+      </c>
+      <c r="F37">
+        <v>0.9999315473108631</v>
+      </c>
+      <c r="G37">
+        <v>1.000017401310555</v>
+      </c>
+      <c r="H37">
+        <v>1.00002543921967</v>
+      </c>
+      <c r="I37">
+        <v>0.9999853064146966</v>
+      </c>
+      <c r="J37">
+        <v>1.000045122748392</v>
+      </c>
+      <c r="K37">
+        <v>1.000045122748392</v>
+      </c>
+      <c r="L37">
+        <v>0.9999555432197866</v>
+      </c>
+      <c r="M37">
+        <v>1.000016953780898</v>
+      </c>
+      <c r="N37">
+        <v>1.000045122748392</v>
+      </c>
+      <c r="O37">
+        <v>1.000017401310555</v>
+      </c>
+      <c r="P37">
+        <v>0.9999744743107091</v>
+      </c>
+      <c r="Q37">
+        <v>1.000001353862626</v>
+      </c>
+      <c r="R37">
+        <v>0.9999980237899365</v>
+      </c>
+      <c r="S37">
+        <v>0.9999780850120382</v>
+      </c>
+      <c r="T37">
+        <v>0.9999980237899365</v>
+      </c>
+      <c r="U37">
+        <v>0.9999948444461266</v>
+      </c>
+      <c r="V37">
+        <v>1.00000490010658</v>
+      </c>
+      <c r="W37">
+        <v>0.9999954760576277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999514797986612</v>
+      </c>
+      <c r="D38">
+        <v>0.9997604213962228</v>
+      </c>
+      <c r="E38">
+        <v>1.000161399278815</v>
+      </c>
+      <c r="F38">
+        <v>0.9997604213962228</v>
+      </c>
+      <c r="G38">
+        <v>1.000058950591462</v>
+      </c>
+      <c r="H38">
+        <v>1.000088828103257</v>
+      </c>
+      <c r="I38">
+        <v>0.9999484608355095</v>
+      </c>
+      <c r="J38">
+        <v>1.000161399278815</v>
+      </c>
+      <c r="K38">
+        <v>1.000161399278815</v>
+      </c>
+      <c r="L38">
+        <v>0.9998440667039823</v>
+      </c>
+      <c r="M38">
+        <v>1.000060419116823</v>
+      </c>
+      <c r="N38">
+        <v>1.000161399278815</v>
+      </c>
+      <c r="O38">
+        <v>1.000058950591462</v>
+      </c>
+      <c r="P38">
+        <v>0.9999096859938424</v>
+      </c>
+      <c r="Q38">
+        <v>1.000003705713486</v>
+      </c>
+      <c r="R38">
+        <v>0.9999935904221665</v>
+      </c>
+      <c r="S38">
+        <v>0.9999226109410647</v>
+      </c>
+      <c r="T38">
+        <v>0.9999935904221665</v>
+      </c>
+      <c r="U38">
+        <v>0.9999823080255023</v>
+      </c>
+      <c r="V38">
+        <v>1.000018126276165</v>
+      </c>
+      <c r="W38">
+        <v>0.9999842532280916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9998856097367799</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9994398029531695</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000379991506136</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9994398029531695</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000136374009204</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.00020755603095</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9998794063850603</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000379991506136</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000379991506136</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9996351243276376</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000142091284236</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000379991506136</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000136374009204</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9997880884811866</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000007890197132</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999853894895029</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9998185277824779</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999853894895029</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999588937133922</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000043113271941</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999632445291465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9976747480850627</v>
+      </c>
+      <c r="D40">
+        <v>0.9883768967347537</v>
+      </c>
+      <c r="E40">
+        <v>1.007750491672708</v>
+      </c>
+      <c r="F40">
+        <v>0.9883768967347537</v>
+      </c>
+      <c r="G40">
+        <v>1.002904790223391</v>
+      </c>
+      <c r="H40">
+        <v>1.004314288982172</v>
+      </c>
+      <c r="I40">
+        <v>0.9975024128123001</v>
+      </c>
+      <c r="J40">
+        <v>1.007750491672708</v>
+      </c>
+      <c r="K40">
+        <v>1.007750491672708</v>
+      </c>
+      <c r="L40">
+        <v>0.9924424218369242</v>
+      </c>
+      <c r="M40">
+        <v>1.00290632629353</v>
+      </c>
+      <c r="N40">
+        <v>1.007750491672708</v>
+      </c>
+      <c r="O40">
+        <v>1.002904790223391</v>
+      </c>
+      <c r="P40">
+        <v>0.9956408434790722</v>
+      </c>
+      <c r="Q40">
+        <v>1.000203601517845</v>
+      </c>
+      <c r="R40">
+        <v>0.999677392876951</v>
+      </c>
+      <c r="S40">
+        <v>0.9962613665901482</v>
+      </c>
+      <c r="T40">
+        <v>0.999677392876951</v>
+      </c>
+      <c r="U40">
+        <v>0.9991336478607883</v>
+      </c>
+      <c r="V40">
+        <v>1.000857016623173</v>
+      </c>
+      <c r="W40">
+        <v>0.9992340470801052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.00116786207761</v>
+      </c>
+      <c r="D41">
+        <v>1.005881689727657</v>
+      </c>
+      <c r="E41">
+        <v>0.9961024193608238</v>
+      </c>
+      <c r="F41">
+        <v>1.005881689727657</v>
+      </c>
+      <c r="G41">
+        <v>0.9985163340201314</v>
+      </c>
+      <c r="H41">
+        <v>0.9978153785758782</v>
+      </c>
+      <c r="I41">
+        <v>1.001263034931419</v>
+      </c>
+      <c r="J41">
+        <v>0.9961024193608238</v>
+      </c>
+      <c r="K41">
+        <v>0.9961024193608238</v>
+      </c>
+      <c r="L41">
+        <v>1.003822016988671</v>
+      </c>
+      <c r="M41">
+        <v>0.9985369365627244</v>
+      </c>
+      <c r="N41">
+        <v>0.9961024193608238</v>
+      </c>
+      <c r="O41">
+        <v>0.9985163340201314</v>
+      </c>
+      <c r="P41">
+        <v>1.002199011873894</v>
+      </c>
+      <c r="Q41">
+        <v>0.9998896844757754</v>
+      </c>
+      <c r="R41">
+        <v>1.000166814369537</v>
+      </c>
+      <c r="S41">
+        <v>1.001887019559736</v>
+      </c>
+      <c r="T41">
+        <v>1.000166814369537</v>
+      </c>
+      <c r="U41">
+        <v>1.000440869510008</v>
+      </c>
+      <c r="V41">
+        <v>0.999573179480171</v>
+      </c>
+      <c r="W41">
+        <v>1.000388209030614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9979886355404062</v>
+      </c>
+      <c r="D42">
+        <v>0.9898128113313542</v>
+      </c>
+      <c r="E42">
+        <v>1.006719033979069</v>
+      </c>
+      <c r="F42">
+        <v>0.9898128113313542</v>
+      </c>
+      <c r="G42">
+        <v>1.00258754005625</v>
+      </c>
+      <c r="H42">
+        <v>1.003785666977657</v>
+      </c>
+      <c r="I42">
+        <v>0.9978134615508388</v>
+      </c>
+      <c r="J42">
+        <v>1.006719033979069</v>
+      </c>
+      <c r="K42">
+        <v>1.006719033979069</v>
+      </c>
+      <c r="L42">
+        <v>0.9933832881709634</v>
+      </c>
+      <c r="M42">
+        <v>1.002524167786314</v>
+      </c>
+      <c r="N42">
+        <v>1.006719033979069</v>
+      </c>
+      <c r="O42">
+        <v>1.00258754005625</v>
+      </c>
+      <c r="P42">
+        <v>0.996200175693802</v>
+      </c>
+      <c r="Q42">
+        <v>1.000200500803544</v>
+      </c>
+      <c r="R42">
+        <v>0.9997064617888909</v>
+      </c>
+      <c r="S42">
+        <v>0.9967379376461477</v>
+      </c>
+      <c r="T42">
+        <v>0.9997064617888909</v>
+      </c>
+      <c r="U42">
+        <v>0.9992332117293778</v>
+      </c>
+      <c r="V42">
+        <v>1.000730376179316</v>
+      </c>
+      <c r="W42">
+        <v>0.9993268256741065</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000523206626194</v>
+        <v>0.9999616810738821</v>
       </c>
       <c r="D3">
-        <v>0.9992213152613556</v>
+        <v>0.9998078842194347</v>
       </c>
       <c r="E3">
-        <v>1.000192374276903</v>
+        <v>1.000127788530709</v>
       </c>
       <c r="F3">
-        <v>1.000523206626194</v>
+        <v>0.9998078842194347</v>
       </c>
       <c r="G3">
-        <v>0.9998325389329215</v>
+        <v>1.000048191448655</v>
       </c>
       <c r="H3">
-        <v>1.00028879910575</v>
+        <v>1.000071328489712</v>
       </c>
       <c r="I3">
-        <v>1.000523206626194</v>
+        <v>0.9999587264776397</v>
       </c>
       <c r="J3">
-        <v>0.9992213152613556</v>
+        <v>1.000127788530709</v>
       </c>
       <c r="K3">
-        <v>0.9998427933288118</v>
+        <v>1.000127788530709</v>
       </c>
       <c r="L3">
-        <v>1.000195948411398</v>
+        <v>0.9998751147297342</v>
       </c>
       <c r="M3">
-        <v>0.9994932986615305</v>
+        <v>1.000047939146071</v>
       </c>
       <c r="N3">
-        <v>1.000523206626194</v>
+        <v>1.000127788530709</v>
       </c>
       <c r="O3">
-        <v>1.000192374276903</v>
+        <v>1.000048191448655</v>
       </c>
       <c r="P3">
-        <v>0.9997068447691291</v>
+        <v>0.9999280378340448</v>
       </c>
       <c r="Q3">
-        <v>1.000012456604912</v>
+        <v>1.000003458963147</v>
       </c>
       <c r="R3">
-        <v>0.9999789653881507</v>
+        <v>0.9999946213995997</v>
       </c>
       <c r="S3">
-        <v>0.9997487428237265</v>
+        <v>0.9999382673819097</v>
       </c>
       <c r="T3">
-        <v>0.9999789653881507</v>
+        <v>0.9999946213995997</v>
       </c>
       <c r="U3">
-        <v>0.9999423587743433</v>
+        <v>0.9999856476691097</v>
       </c>
       <c r="V3">
-        <v>1.000058528344713</v>
+        <v>1.00001407584143</v>
       </c>
       <c r="W3">
-        <v>0.9999487843256079</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999873317644797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00100998051316</v>
+        <v>0.9976747480850627</v>
       </c>
       <c r="D4">
-        <v>0.9984967205874633</v>
+        <v>0.9883768967347537</v>
       </c>
       <c r="E4">
-        <v>1.000371434461863</v>
+        <v>1.007750491672708</v>
       </c>
       <c r="F4">
-        <v>1.00100998051316</v>
+        <v>0.9883768967347537</v>
       </c>
       <c r="G4">
-        <v>0.9996767155140029</v>
+        <v>1.002904790223391</v>
       </c>
       <c r="H4">
-        <v>1.000557542628332</v>
+        <v>1.004314288982172</v>
       </c>
       <c r="I4">
-        <v>1.00100998051316</v>
+        <v>0.9975024128123001</v>
       </c>
       <c r="J4">
-        <v>0.9984967205874633</v>
+        <v>1.007750491672708</v>
       </c>
       <c r="K4">
-        <v>0.9996965377315368</v>
+        <v>1.007750491672708</v>
       </c>
       <c r="L4">
-        <v>1.000378257347902</v>
+        <v>0.9924424218369242</v>
       </c>
       <c r="M4">
-        <v>0.9990218010985723</v>
+        <v>1.00290632629353</v>
       </c>
       <c r="N4">
-        <v>1.00100998051316</v>
+        <v>1.007750491672708</v>
       </c>
       <c r="O4">
-        <v>1.000371434461863</v>
+        <v>1.002904790223391</v>
       </c>
       <c r="P4">
-        <v>0.9994340775246632</v>
+        <v>0.9956408434790722</v>
       </c>
       <c r="Q4">
-        <v>1.000024074987933</v>
+        <v>1.000203601517845</v>
       </c>
       <c r="R4">
-        <v>0.9999593785208288</v>
+        <v>0.999677392876951</v>
       </c>
       <c r="S4">
-        <v>0.9995149568544431</v>
+        <v>0.9962613665901482</v>
       </c>
       <c r="T4">
-        <v>0.9999593785208288</v>
+        <v>0.999677392876951</v>
       </c>
       <c r="U4">
-        <v>0.9998887127691223</v>
+        <v>0.9991336478607883</v>
       </c>
       <c r="V4">
-        <v>1.00011296631793</v>
+        <v>1.000857016623173</v>
       </c>
       <c r="W4">
-        <v>0.9999011237353541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9992340470801052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001935099347813</v>
+        <v>0.9983104959293948</v>
       </c>
       <c r="D5">
-        <v>0.9971189230095722</v>
+        <v>0.9914861452161405</v>
       </c>
       <c r="E5">
-        <v>1.000712172661099</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="F5">
-        <v>1.001935099347813</v>
+        <v>0.9914861452161405</v>
       </c>
       <c r="G5">
-        <v>0.9993804389778748</v>
+        <v>1.002149192154177</v>
       </c>
       <c r="H5">
-        <v>1.00106857938642</v>
+        <v>1.003162441585015</v>
       </c>
       <c r="I5">
-        <v>1.001935099347813</v>
+        <v>0.9981718212536018</v>
       </c>
       <c r="J5">
-        <v>0.9971189230095722</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="K5">
-        <v>0.999418611081659</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="L5">
-        <v>1.000724765408034</v>
+        <v>0.994467833263687</v>
       </c>
       <c r="M5">
-        <v>0.9981253118193759</v>
+        <v>1.002116946729108</v>
       </c>
       <c r="N5">
-        <v>1.001935099347813</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="O5">
-        <v>1.000712172661099</v>
+        <v>1.002149192154177</v>
       </c>
       <c r="P5">
-        <v>0.9989155478353353</v>
+        <v>0.996817668685159</v>
       </c>
       <c r="Q5">
-        <v>1.000046305819487</v>
+        <v>1.00016050670389</v>
       </c>
       <c r="R5">
-        <v>0.9999220650061611</v>
+        <v>0.9997581294740637</v>
       </c>
       <c r="S5">
-        <v>0.9990705115495152</v>
+        <v>0.99726905287464</v>
       </c>
       <c r="T5">
-        <v>0.9999220650061611</v>
+        <v>0.9997581294740637</v>
       </c>
       <c r="U5">
-        <v>0.9997866584990895</v>
+        <v>0.9993615524189482</v>
       </c>
       <c r="V5">
-        <v>1.000216346668834</v>
+        <v>1.000617052145533</v>
       </c>
       <c r="W5">
-        <v>0.9998104877114808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9994379908978748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002837944037307</v>
+        <v>0.9945726680687185</v>
       </c>
       <c r="D6">
-        <v>0.995774254397338</v>
+        <v>0.9725335430300962</v>
       </c>
       <c r="E6">
-        <v>1.001044753918691</v>
+        <v>1.018127751552857</v>
       </c>
       <c r="F6">
-        <v>1.002837944037307</v>
+        <v>0.9725335430300962</v>
       </c>
       <c r="G6">
-        <v>0.9990912839342193</v>
+        <v>1.006969668851366</v>
       </c>
       <c r="H6">
-        <v>1.001567334200792</v>
+        <v>1.010206116256736</v>
       </c>
       <c r="I6">
-        <v>1.002837944037307</v>
+        <v>0.9941043119622862</v>
       </c>
       <c r="J6">
-        <v>0.995774254397338</v>
+        <v>1.018127751552857</v>
       </c>
       <c r="K6">
-        <v>0.9991473711718346</v>
+        <v>1.018127751552857</v>
       </c>
       <c r="L6">
-        <v>1.001062934732305</v>
+        <v>0.9821590008991533</v>
       </c>
       <c r="M6">
-        <v>0.9972503705773063</v>
+        <v>1.006809350708947</v>
       </c>
       <c r="N6">
-        <v>1.002837944037307</v>
+        <v>1.018127751552857</v>
       </c>
       <c r="O6">
-        <v>1.001044753918691</v>
+        <v>1.006969668851366</v>
       </c>
       <c r="P6">
-        <v>0.9984095041580144</v>
+        <v>0.989751605940731</v>
       </c>
       <c r="Q6">
-        <v>1.000068018926455</v>
+        <v>1.000536990406826</v>
       </c>
       <c r="R6">
-        <v>0.9998856507844454</v>
+        <v>0.999210321144773</v>
       </c>
       <c r="S6">
-        <v>0.9986367640834161</v>
+        <v>0.9912025079479161</v>
       </c>
       <c r="T6">
-        <v>0.9998856507844454</v>
+        <v>0.999210321144773</v>
       </c>
       <c r="U6">
-        <v>0.9996870590718888</v>
+        <v>0.9979338188491513</v>
       </c>
       <c r="V6">
-        <v>1.000317236064972</v>
+        <v>1.001972605389893</v>
       </c>
       <c r="W6">
-        <v>0.9997220308712242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9981853014162699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000043595394211</v>
+        <v>0.9998084271869982</v>
       </c>
       <c r="D7">
-        <v>0.9999342890692485</v>
+        <v>0.9990532259187114</v>
       </c>
       <c r="E7">
-        <v>1.000016547183564</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="F7">
-        <v>1.000043595394211</v>
+        <v>0.9990532259187114</v>
       </c>
       <c r="G7">
-        <v>0.9999858853368389</v>
+        <v>1.000233227279947</v>
       </c>
       <c r="H7">
-        <v>1.000024403426668</v>
+        <v>1.00035106948991</v>
       </c>
       <c r="I7">
-        <v>1.000043595394211</v>
+        <v>0.9997963500902998</v>
       </c>
       <c r="J7">
-        <v>0.9999342890692485</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="K7">
-        <v>0.99998693458688</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="L7">
-        <v>1.000016362007486</v>
+        <v>0.9993838036094999</v>
       </c>
       <c r="M7">
-        <v>0.9999572965150905</v>
+        <v>1.000238619735454</v>
       </c>
       <c r="N7">
-        <v>1.000043595394211</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="O7">
-        <v>1.000016547183564</v>
+        <v>1.000233227279947</v>
       </c>
       <c r="P7">
-        <v>0.9999754181264062</v>
+        <v>0.9996432265993294</v>
       </c>
       <c r="Q7">
-        <v>1.000001216260201</v>
+        <v>1.000014788685124</v>
       </c>
       <c r="R7">
-        <v>0.999998143882341</v>
+        <v>0.9999745991452601</v>
       </c>
       <c r="S7">
-        <v>0.9999789071965504</v>
+        <v>0.9996942677629862</v>
       </c>
       <c r="T7">
-        <v>0.999998143882341</v>
+        <v>0.9999745991452601</v>
       </c>
       <c r="U7">
-        <v>0.9999950792459655</v>
+        <v>0.99993003688152</v>
       </c>
       <c r="V7">
-        <v>1.000004782475615</v>
+        <v>1.00007149835264</v>
       </c>
       <c r="W7">
-        <v>0.9999956641899983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999377584434928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000127788530709</v>
+        <v>0.9999864944561604</v>
       </c>
       <c r="D8">
-        <v>0.9998078842194347</v>
+        <v>0.9999315473108631</v>
       </c>
       <c r="E8">
-        <v>1.000048191448655</v>
+        <v>1.000045122748392</v>
       </c>
       <c r="F8">
-        <v>1.000127788530709</v>
+        <v>0.9999315473108631</v>
       </c>
       <c r="G8">
-        <v>0.9999587264776397</v>
+        <v>1.000017401310555</v>
       </c>
       <c r="H8">
-        <v>1.000071328489712</v>
+        <v>1.00002543921967</v>
       </c>
       <c r="I8">
-        <v>1.000127788530709</v>
+        <v>0.9999853064146966</v>
       </c>
       <c r="J8">
-        <v>0.9998078842194347</v>
+        <v>1.000045122748392</v>
       </c>
       <c r="K8">
-        <v>0.9999616810738823</v>
+        <v>1.000045122748392</v>
       </c>
       <c r="L8">
-        <v>1.000047939146071</v>
+        <v>0.9999555432197866</v>
       </c>
       <c r="M8">
-        <v>0.9998751147297344</v>
+        <v>1.000016953780898</v>
       </c>
       <c r="N8">
-        <v>1.000127788530709</v>
+        <v>1.000045122748392</v>
       </c>
       <c r="O8">
-        <v>1.000048191448655</v>
+        <v>1.000017401310555</v>
       </c>
       <c r="P8">
-        <v>0.9999280378340448</v>
+        <v>0.9999744743107091</v>
       </c>
       <c r="Q8">
-        <v>1.000003458963147</v>
+        <v>1.000001353862626</v>
       </c>
       <c r="R8">
-        <v>0.9999946213995997</v>
+        <v>0.9999980237899365</v>
       </c>
       <c r="S8">
-        <v>0.9999382673819097</v>
+        <v>0.9999780850120382</v>
       </c>
       <c r="T8">
-        <v>0.9999946213995997</v>
+        <v>0.9999980237899365</v>
       </c>
       <c r="U8">
-        <v>0.9999856476691097</v>
+        <v>0.9999948444461266</v>
       </c>
       <c r="V8">
-        <v>1.00001407584143</v>
+        <v>1.00000490010658</v>
       </c>
       <c r="W8">
-        <v>0.9999873317644798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999954760576277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000191606832034</v>
+        <v>0.9996965377315364</v>
       </c>
       <c r="D9">
-        <v>0.9997127648765965</v>
+        <v>0.9984967205874634</v>
       </c>
       <c r="E9">
-        <v>1.000071743657756</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="F9">
-        <v>1.000191606832034</v>
+        <v>0.9984967205874634</v>
       </c>
       <c r="G9">
-        <v>0.9999382737514023</v>
+        <v>1.000371434461863</v>
       </c>
       <c r="H9">
-        <v>1.000106611830166</v>
+        <v>1.000557542628332</v>
       </c>
       <c r="I9">
-        <v>1.000191606832034</v>
+        <v>0.9996767155140029</v>
       </c>
       <c r="J9">
-        <v>0.9997127648765965</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="K9">
-        <v>0.9999425114668483</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="L9">
-        <v>1.000071845373864</v>
+        <v>0.9990218010985726</v>
       </c>
       <c r="M9">
-        <v>0.9998132275322327</v>
+        <v>1.000378257347902</v>
       </c>
       <c r="N9">
-        <v>1.000191606832034</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="O9">
-        <v>1.000071743657756</v>
+        <v>1.000371434461863</v>
       </c>
       <c r="P9">
-        <v>0.9998922542671764</v>
+        <v>0.9994340775246633</v>
       </c>
       <c r="Q9">
-        <v>1.000005008704579</v>
+        <v>1.000024074987933</v>
       </c>
       <c r="R9">
-        <v>0.9999920384554621</v>
+        <v>0.9999593785208289</v>
       </c>
       <c r="S9">
-        <v>0.9999075940952517</v>
+        <v>0.9995149568544432</v>
       </c>
       <c r="T9">
-        <v>0.9999920384554621</v>
+        <v>0.9999593785208288</v>
       </c>
       <c r="U9">
-        <v>0.9999785972794472</v>
+        <v>0.9998887127691223</v>
       </c>
       <c r="V9">
-        <v>1.000021199189964</v>
+        <v>1.00011296631793</v>
       </c>
       <c r="W9">
-        <v>0.9999810731651124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999011237353541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000400742478095</v>
+        <v>0.9944928936781439</v>
       </c>
       <c r="D10">
-        <v>0.9993983975195785</v>
+        <v>0.9721243764430895</v>
       </c>
       <c r="E10">
-        <v>1.000150584531755</v>
+        <v>1.018394809813959</v>
       </c>
       <c r="F10">
-        <v>1.000400742478095</v>
+        <v>0.9721243764430895</v>
       </c>
       <c r="G10">
-        <v>0.9998707386529484</v>
+        <v>1.007075177537502</v>
       </c>
       <c r="H10">
-        <v>1.000223329377361</v>
+        <v>1.010358333089576</v>
       </c>
       <c r="I10">
-        <v>1.000400742478095</v>
+        <v>0.9940165860961548</v>
       </c>
       <c r="J10">
-        <v>0.9993983975195785</v>
+        <v>1.018394809813959</v>
       </c>
       <c r="K10">
-        <v>0.9998797982734208</v>
+        <v>1.018394809813959</v>
       </c>
       <c r="L10">
-        <v>1.000150300001404</v>
+        <v>0.981893515173754</v>
       </c>
       <c r="M10">
-        <v>0.9996088680599604</v>
+        <v>1.006909854519902</v>
       </c>
       <c r="N10">
-        <v>1.000400742478095</v>
+        <v>1.018394809813959</v>
       </c>
       <c r="O10">
-        <v>1.000150584531755</v>
+        <v>1.007075177537502</v>
       </c>
       <c r="P10">
-        <v>0.9997744910256667</v>
+        <v>0.989599776990296</v>
       </c>
       <c r="Q10">
-        <v>1.000010661592352</v>
+        <v>1.000545881816829</v>
       </c>
       <c r="R10">
-        <v>0.9999832415098093</v>
+        <v>0.9991981212648504</v>
       </c>
       <c r="S10">
-        <v>0.9998065735680939</v>
+        <v>0.991072046692249</v>
       </c>
       <c r="T10">
-        <v>0.9999832415098093</v>
+        <v>0.9991981212648504</v>
       </c>
       <c r="U10">
-        <v>0.9999551157955942</v>
+        <v>0.9979027374726765</v>
       </c>
       <c r="V10">
-        <v>1.000044241132094</v>
+        <v>1.002001151940933</v>
       </c>
       <c r="W10">
-        <v>0.9999603448618154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9981581932940102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000701027571697</v>
+        <v>0.9988358639087616</v>
       </c>
       <c r="D11">
-        <v>0.9989503807276687</v>
+        <v>0.9942171203166651</v>
       </c>
       <c r="E11">
-        <v>1.000261685346763</v>
+        <v>1.003876256323612</v>
       </c>
       <c r="F11">
-        <v>1.000701027571697</v>
+        <v>0.9942171203166651</v>
       </c>
       <c r="G11">
-        <v>0.9997744160796893</v>
+        <v>1.001433908811634</v>
       </c>
       <c r="H11">
-        <v>1.000389534523953</v>
+        <v>1.002145313412799</v>
       </c>
       <c r="I11">
-        <v>1.000701027571697</v>
+        <v>0.9987566851187241</v>
       </c>
       <c r="J11">
-        <v>0.9989503807276687</v>
+        <v>1.003876256323612</v>
       </c>
       <c r="K11">
-        <v>0.9997896165481591</v>
+        <v>1.003876256323612</v>
       </c>
       <c r="L11">
-        <v>1.000262804674352</v>
+        <v>0.9962378944248084</v>
       </c>
       <c r="M11">
-        <v>0.999317406664661</v>
+        <v>1.001452286421339</v>
       </c>
       <c r="N11">
-        <v>1.000701027571697</v>
+        <v>1.003876256323612</v>
       </c>
       <c r="O11">
-        <v>1.000261685346763</v>
+        <v>1.001433908811634</v>
       </c>
       <c r="P11">
-        <v>0.9996060330372161</v>
+        <v>0.9978255145641497</v>
       </c>
       <c r="Q11">
-        <v>1.000018050713226</v>
+        <v>1.000095296965179</v>
       </c>
       <c r="R11">
-        <v>0.9999710312153761</v>
+        <v>0.9998424284839705</v>
       </c>
       <c r="S11">
-        <v>0.9996621607180405</v>
+        <v>0.9981359047490078</v>
       </c>
       <c r="T11">
-        <v>0.9999710312153761</v>
+        <v>0.9998424284839705</v>
       </c>
       <c r="U11">
-        <v>0.9999218774314544</v>
+        <v>0.9995709926426589</v>
       </c>
       <c r="V11">
-        <v>1.000077707459503</v>
+        <v>1.00043204537885</v>
       </c>
       <c r="W11">
-        <v>0.9999308590171178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9996194160922929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9922852217124064</v>
+        <v>0.9983233302105268</v>
       </c>
       <c r="D12">
-        <v>1.01191541220348</v>
+        <v>0.9915117957368427</v>
       </c>
       <c r="E12">
-        <v>0.9968924267760563</v>
+        <v>1.005600549999999</v>
       </c>
       <c r="F12">
-        <v>0.9922852217124064</v>
+        <v>0.9915117957368427</v>
       </c>
       <c r="G12">
-        <v>1.002552594002609</v>
+        <v>1.002154816957894</v>
       </c>
       <c r="H12">
-        <v>0.995563589762266</v>
+        <v>1.003154183515788</v>
       </c>
       <c r="I12">
-        <v>0.9922852217124064</v>
+        <v>0.9981780580210505</v>
       </c>
       <c r="J12">
-        <v>1.01191541220348</v>
+        <v>1.005600549999999</v>
       </c>
       <c r="K12">
-        <v>1.002300707148463</v>
+        <v>1.005600549999999</v>
       </c>
       <c r="L12">
-        <v>0.9970926567633586</v>
+        <v>0.9944865947263137</v>
       </c>
       <c r="M12">
-        <v>1.007725189830949</v>
+        <v>1.002103845326317</v>
       </c>
       <c r="N12">
-        <v>0.9922852217124064</v>
+        <v>1.005600549999999</v>
       </c>
       <c r="O12">
-        <v>0.9968924267760563</v>
+        <v>1.002154816957894</v>
       </c>
       <c r="P12">
-        <v>1.004403919489768</v>
+        <v>0.9968333063473686</v>
       </c>
       <c r="Q12">
-        <v>0.9997225103893326</v>
+        <v>1.000166437489473</v>
       </c>
       <c r="R12">
-        <v>1.000364353563981</v>
+        <v>0.9997557208982455</v>
       </c>
       <c r="S12">
-        <v>1.003786810994048</v>
+        <v>0.9972815569052625</v>
       </c>
       <c r="T12">
-        <v>1.000364353563981</v>
+        <v>0.9997557208982455</v>
       </c>
       <c r="U12">
-        <v>1.000911413673638</v>
+        <v>0.9993613051789467</v>
       </c>
       <c r="V12">
-        <v>0.9991861752813916</v>
+        <v>1.000609154143157</v>
       </c>
       <c r="W12">
-        <v>1.000790974774949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9994391468118415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.997886627407341</v>
+        <v>1.00109150088204</v>
       </c>
       <c r="D13">
-        <v>1.003025548685639</v>
+        <v>1.005470079430694</v>
       </c>
       <c r="E13">
-        <v>0.9992978020402661</v>
+        <v>0.9963602681875737</v>
       </c>
       <c r="F13">
-        <v>0.997886627407341</v>
+        <v>1.005470079430694</v>
       </c>
       <c r="G13">
-        <v>1.000653377164229</v>
+        <v>0.9986285488775367</v>
       </c>
       <c r="H13">
-        <v>0.9988826280443077</v>
+        <v>0.9979691417893221</v>
       </c>
       <c r="I13">
-        <v>0.997886627407341</v>
+        <v>1.001175153218249</v>
       </c>
       <c r="J13">
-        <v>1.003025548685639</v>
+        <v>0.9963602681875737</v>
       </c>
       <c r="K13">
-        <v>1.000639794163212</v>
+        <v>0.9963602681875737</v>
       </c>
       <c r="L13">
-        <v>0.999213504085587</v>
+        <v>1.003555996979702</v>
       </c>
       <c r="M13">
-        <v>1.001976612328792</v>
+        <v>0.9986346637060719</v>
       </c>
       <c r="N13">
-        <v>0.997886627407341</v>
+        <v>0.9963602681875737</v>
       </c>
       <c r="O13">
-        <v>0.9992978020402661</v>
+        <v>0.9986285488775367</v>
       </c>
       <c r="P13">
-        <v>1.001161675362952</v>
+        <v>1.002049314154115</v>
       </c>
       <c r="Q13">
-        <v>0.9999755896022474</v>
+        <v>0.9999018510478928</v>
       </c>
       <c r="R13">
-        <v>1.000069992711082</v>
+        <v>1.000152965498601</v>
       </c>
       <c r="S13">
-        <v>1.000992242630044</v>
+        <v>1.001757927175493</v>
       </c>
       <c r="T13">
-        <v>1.000069992711082</v>
+        <v>1.000152965498601</v>
       </c>
       <c r="U13">
-        <v>1.000215838824369</v>
+        <v>1.000408512428513</v>
       </c>
       <c r="V13">
-        <v>0.9997499965409631</v>
+        <v>0.9995988635803255</v>
       </c>
       <c r="W13">
-        <v>1.000196986739922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000360669133899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000142679886942</v>
+        <v>0.9904873500000002</v>
       </c>
       <c r="D14">
-        <v>0.9991869571858077</v>
+        <v>0.9518358600000012</v>
       </c>
       <c r="E14">
-        <v>1.000427888869906</v>
+        <v>1.031775600000002</v>
       </c>
       <c r="F14">
-        <v>1.000142679886942</v>
+        <v>0.9518358600000012</v>
       </c>
       <c r="G14">
-        <v>0.9998388007909302</v>
+        <v>1.012228800000001</v>
       </c>
       <c r="H14">
-        <v>1.000325367139018</v>
+        <v>1.0178978</v>
       </c>
       <c r="I14">
-        <v>1.000142679886942</v>
+        <v>0.9896619699999999</v>
       </c>
       <c r="J14">
-        <v>0.9991869571858077</v>
+        <v>1.031775600000002</v>
       </c>
       <c r="K14">
-        <v>0.9999811561744669</v>
+        <v>1.031775600000002</v>
       </c>
       <c r="L14">
-        <v>1.000078464151496</v>
+        <v>0.9687159200000004</v>
       </c>
       <c r="M14">
-        <v>0.9995102536710808</v>
+        <v>1.011936700000001</v>
       </c>
       <c r="N14">
-        <v>1.000142679886942</v>
+        <v>1.031775600000002</v>
       </c>
       <c r="O14">
-        <v>1.000427888869906</v>
+        <v>1.012228800000001</v>
       </c>
       <c r="P14">
-        <v>0.9998074230278569</v>
+        <v>0.9820323300000011</v>
       </c>
       <c r="Q14">
-        <v>1.000133344830418</v>
+        <v>1.000945385000001</v>
       </c>
       <c r="R14">
-        <v>0.9999191753142186</v>
+        <v>0.9986134200000013</v>
       </c>
       <c r="S14">
-        <v>0.9998178822822146</v>
+        <v>0.984575543333334</v>
       </c>
       <c r="T14">
-        <v>0.9999191753142188</v>
+        <v>0.9986134200000013</v>
       </c>
       <c r="U14">
-        <v>0.9998990816833966</v>
+        <v>0.996375557500001</v>
       </c>
       <c r="V14">
-        <v>0.9999478013241057</v>
+        <v>1.003455566000001</v>
       </c>
       <c r="W14">
-        <v>0.9999364459837061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9968175000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000248075362356</v>
+        <v>0.9828161399999999</v>
       </c>
       <c r="D15">
-        <v>0.9998734790989652</v>
+        <v>0.91566315</v>
       </c>
       <c r="E15">
-        <v>0.999939530549849</v>
+        <v>1.0571037</v>
       </c>
       <c r="F15">
-        <v>1.000248075362356</v>
+        <v>0.91566315</v>
       </c>
       <c r="G15">
-        <v>0.9999672712942665</v>
+        <v>1.0205897</v>
       </c>
       <c r="H15">
-        <v>1.000037297630921</v>
+        <v>1.0312532</v>
       </c>
       <c r="I15">
-        <v>1.000248075362356</v>
+        <v>0.9818483099999998</v>
       </c>
       <c r="J15">
-        <v>0.9998734790989652</v>
+        <v>1.0571037</v>
       </c>
       <c r="K15">
-        <v>0.9999157536346911</v>
+        <v>1.0571037</v>
       </c>
       <c r="L15">
-        <v>1.000082797288644</v>
+        <v>0.94507807</v>
       </c>
       <c r="M15">
-        <v>0.9999017894766619</v>
+        <v>1.0213589</v>
       </c>
       <c r="N15">
-        <v>1.000248075362356</v>
+        <v>1.0571037</v>
       </c>
       <c r="O15">
-        <v>0.999939530549849</v>
+        <v>1.0205897</v>
       </c>
       <c r="P15">
-        <v>0.9999065048244071</v>
+        <v>0.9681264249999999</v>
       </c>
       <c r="Q15">
-        <v>0.9999534009220578</v>
+        <v>1.001219005</v>
       </c>
       <c r="R15">
-        <v>1.00002036167039</v>
+        <v>0.9977855166666666</v>
       </c>
       <c r="S15">
-        <v>0.9999267603143602</v>
+        <v>0.9727003866666665</v>
       </c>
       <c r="T15">
-        <v>1.00002036167039</v>
+        <v>0.9977855166666667</v>
       </c>
       <c r="U15">
-        <v>1.000007089076359</v>
+        <v>0.993801215</v>
       </c>
       <c r="V15">
-        <v>1.000055286333559</v>
+        <v>1.006461712</v>
       </c>
       <c r="W15">
-        <v>0.9999957492920444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.99446389625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000002089224937</v>
+        <v>0.98362986</v>
       </c>
       <c r="D16">
-        <v>0.9999967452124632</v>
+        <v>0.91833425</v>
       </c>
       <c r="E16">
-        <v>1.000000859175679</v>
+        <v>1.0545466</v>
       </c>
       <c r="F16">
-        <v>1.000002089224937</v>
+        <v>0.91833425</v>
       </c>
       <c r="G16">
-        <v>0.9999993011971362</v>
+        <v>1.0203586</v>
       </c>
       <c r="H16">
-        <v>1.000001212558539</v>
+        <v>1.0303075</v>
       </c>
       <c r="I16">
-        <v>1.000002089224937</v>
+        <v>0.98244851</v>
       </c>
       <c r="J16">
-        <v>0.9999967452124632</v>
+        <v>1.0545466</v>
       </c>
       <c r="K16">
-        <v>0.9999993785214852</v>
+        <v>1.0545466</v>
       </c>
       <c r="L16">
-        <v>1.000000788853918</v>
+        <v>0.9468904500000001</v>
       </c>
       <c r="M16">
-        <v>0.999997893055295</v>
+        <v>1.0204485</v>
       </c>
       <c r="N16">
-        <v>1.000002089224937</v>
+        <v>1.0545466</v>
       </c>
       <c r="O16">
-        <v>1.000000859175679</v>
+        <v>1.0203586</v>
       </c>
       <c r="P16">
-        <v>0.9999988021940711</v>
+        <v>0.969346425</v>
       </c>
       <c r="Q16">
-        <v>1.000000080186408</v>
+        <v>1.001403555</v>
       </c>
       <c r="R16">
-        <v>0.9999998978710266</v>
+        <v>0.9977464833333333</v>
       </c>
       <c r="S16">
-        <v>0.9999989685284261</v>
+        <v>0.9737137866666666</v>
       </c>
       <c r="T16">
-        <v>0.9999998978710266</v>
+        <v>0.9977464833333333</v>
       </c>
       <c r="U16">
-        <v>0.999999748702554</v>
+        <v>0.99392199</v>
       </c>
       <c r="V16">
-        <v>1.000000216807031</v>
+        <v>1.006046912</v>
       </c>
       <c r="W16">
-        <v>0.9999997834749317</v>
+        <v>0.99462053375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000045122748392</v>
+        <v>0.99526348</v>
       </c>
       <c r="D17">
-        <v>0.9999315473108631</v>
+        <v>0.97638806</v>
       </c>
       <c r="E17">
-        <v>1.000017401310555</v>
+        <v>1.0157806</v>
       </c>
       <c r="F17">
-        <v>1.000045122748392</v>
+        <v>0.97638806</v>
       </c>
       <c r="G17">
-        <v>0.9999853064146966</v>
+        <v>1.0058809</v>
       </c>
       <c r="H17">
-        <v>1.000025439219671</v>
+        <v>1.0087622</v>
       </c>
       <c r="I17">
-        <v>1.000045122748392</v>
+        <v>0.99492503</v>
       </c>
       <c r="J17">
-        <v>0.9999315473108631</v>
+        <v>1.0157806</v>
       </c>
       <c r="K17">
-        <v>0.9999864944561608</v>
+        <v>1.0157806</v>
       </c>
       <c r="L17">
-        <v>1.000016953780898</v>
+        <v>0.98464356</v>
       </c>
       <c r="M17">
-        <v>0.9999555432197866</v>
+        <v>1.0059153</v>
       </c>
       <c r="N17">
-        <v>1.000045122748392</v>
+        <v>1.0157806</v>
       </c>
       <c r="O17">
-        <v>1.000017401310555</v>
+        <v>1.0058809</v>
       </c>
       <c r="P17">
-        <v>0.9999744743107091</v>
+        <v>0.9911344799999999</v>
       </c>
       <c r="Q17">
-        <v>1.000001353862626</v>
+        <v>1.000402965</v>
       </c>
       <c r="R17">
-        <v>0.9999980237899365</v>
+        <v>0.9993498533333334</v>
       </c>
       <c r="S17">
-        <v>0.9999780850120382</v>
+        <v>0.9923979966666666</v>
       </c>
       <c r="T17">
-        <v>0.9999980237899365</v>
+        <v>0.9993498533333334</v>
       </c>
       <c r="U17">
-        <v>0.9999948444461266</v>
+        <v>0.9982436475000001</v>
       </c>
       <c r="V17">
-        <v>1.00000490010658</v>
+        <v>1.001751038</v>
       </c>
       <c r="W17">
-        <v>0.9999954760576278</v>
+        <v>0.9984448912499999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000161399278815</v>
+        <v>0.9961832550684931</v>
       </c>
       <c r="D18">
-        <v>0.9997604213962228</v>
+        <v>0.9811231757534251</v>
       </c>
       <c r="E18">
-        <v>1.000058950591462</v>
+        <v>1.01269948520548</v>
       </c>
       <c r="F18">
-        <v>1.000161399278815</v>
+        <v>0.9811231757534251</v>
       </c>
       <c r="G18">
-        <v>0.9999484608355098</v>
+        <v>1.004654550958904</v>
       </c>
       <c r="H18">
-        <v>1.000088828103257</v>
+        <v>1.007000115068493</v>
       </c>
       <c r="I18">
-        <v>1.000161399278815</v>
+        <v>0.9959399324657531</v>
       </c>
       <c r="J18">
-        <v>0.9997604213962228</v>
+        <v>1.01269948520548</v>
       </c>
       <c r="K18">
-        <v>0.9999514797986612</v>
+        <v>1.01269948520548</v>
       </c>
       <c r="L18">
-        <v>1.000060419116823</v>
+        <v>0.9877149878082195</v>
       </c>
       <c r="M18">
-        <v>0.9998440667039823</v>
+        <v>1.004755132328767</v>
       </c>
       <c r="N18">
-        <v>1.000161399278815</v>
+        <v>1.01269948520548</v>
       </c>
       <c r="O18">
-        <v>1.000058950591462</v>
+        <v>1.004654550958904</v>
       </c>
       <c r="P18">
-        <v>0.9999096859938424</v>
+        <v>0.9928888633561644</v>
       </c>
       <c r="Q18">
-        <v>1.000003705713486</v>
+        <v>1.000297241712328</v>
       </c>
       <c r="R18">
-        <v>0.9999935904221665</v>
+        <v>0.999492403972603</v>
       </c>
       <c r="S18">
-        <v>0.9999226109410649</v>
+        <v>0.9939058863926941</v>
       </c>
       <c r="T18">
-        <v>0.9999935904221665</v>
+        <v>0.999492403972603</v>
       </c>
       <c r="U18">
-        <v>0.9999823080255024</v>
+        <v>0.9986042860958905</v>
       </c>
       <c r="V18">
-        <v>1.000018126276165</v>
+        <v>1.001423325917808</v>
       </c>
       <c r="W18">
-        <v>0.9999842532280916</v>
+        <v>0.9987588293321918</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000379991506136</v>
+        <v>0.9933733657894737</v>
       </c>
       <c r="D19">
-        <v>0.9994398029531695</v>
+        <v>0.9663874021052632</v>
       </c>
       <c r="E19">
-        <v>1.000136374009204</v>
+        <v>1.022142057894737</v>
       </c>
       <c r="F19">
-        <v>1.000379991506136</v>
+        <v>0.9663874021052632</v>
       </c>
       <c r="G19">
-        <v>0.9998794063850603</v>
+        <v>1.008552976842105</v>
       </c>
       <c r="H19">
-        <v>1.00020755603095</v>
+        <v>1.012492418947369</v>
       </c>
       <c r="I19">
-        <v>1.000379991506136</v>
+        <v>0.9927864642105262</v>
       </c>
       <c r="J19">
-        <v>0.9994398029531695</v>
+        <v>1.022142057894737</v>
       </c>
       <c r="K19">
-        <v>0.9998856097367799</v>
+        <v>1.022142057894737</v>
       </c>
       <c r="L19">
-        <v>1.000142091284236</v>
+        <v>0.9781708378947368</v>
       </c>
       <c r="M19">
-        <v>0.9996351243276379</v>
+        <v>1.008319915263158</v>
       </c>
       <c r="N19">
-        <v>1.000379991506136</v>
+        <v>1.022142057894737</v>
       </c>
       <c r="O19">
-        <v>1.000136374009204</v>
+        <v>1.008552976842105</v>
       </c>
       <c r="P19">
-        <v>0.9997880884811866</v>
+        <v>0.9874701894736843</v>
       </c>
       <c r="Q19">
-        <v>1.000007890197132</v>
+        <v>1.000669720526316</v>
       </c>
       <c r="R19">
-        <v>0.9999853894895029</v>
+        <v>0.9990274789473684</v>
       </c>
       <c r="S19">
-        <v>0.9998185277824779</v>
+        <v>0.9892422810526315</v>
       </c>
       <c r="T19">
-        <v>0.9999853894895029</v>
+        <v>0.9990274789473684</v>
       </c>
       <c r="U19">
-        <v>0.9999588937133922</v>
+        <v>0.9974672252631579</v>
       </c>
       <c r="V19">
-        <v>1.000043113271941</v>
+        <v>1.002402191789474</v>
       </c>
       <c r="W19">
-        <v>0.9999632445291466</v>
+        <v>0.9977781798684211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9935003610526316</v>
+      </c>
+      <c r="D20">
+        <v>0.9674729231578948</v>
+      </c>
+      <c r="E20">
+        <v>1.021668651578947</v>
+      </c>
+      <c r="F20">
+        <v>0.9674729231578948</v>
+      </c>
+      <c r="G20">
+        <v>1.008140802631579</v>
+      </c>
+      <c r="H20">
+        <v>1.012074709473684</v>
+      </c>
+      <c r="I20">
+        <v>0.9930112521052631</v>
+      </c>
+      <c r="J20">
+        <v>1.021668651578947</v>
+      </c>
+      <c r="K20">
+        <v>1.021668651578947</v>
+      </c>
+      <c r="L20">
+        <v>0.9788522710526315</v>
+      </c>
+      <c r="M20">
+        <v>1.008126746315789</v>
+      </c>
+      <c r="N20">
+        <v>1.021668651578947</v>
+      </c>
+      <c r="O20">
+        <v>1.008140802631579</v>
+      </c>
+      <c r="P20">
+        <v>0.987806862894737</v>
+      </c>
+      <c r="Q20">
+        <v>1.000576027368421</v>
+      </c>
+      <c r="R20">
+        <v>0.9990941257894738</v>
+      </c>
+      <c r="S20">
+        <v>0.9895416592982457</v>
+      </c>
+      <c r="T20">
+        <v>0.9990941257894738</v>
+      </c>
+      <c r="U20">
+        <v>0.997573407368421</v>
+      </c>
+      <c r="V20">
+        <v>1.002392456210526</v>
+      </c>
+      <c r="W20">
+        <v>0.9978559646710526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999811561744668</v>
+      </c>
+      <c r="D21">
+        <v>0.9991869571858077</v>
+      </c>
+      <c r="E21">
+        <v>1.000142679886942</v>
+      </c>
+      <c r="F21">
+        <v>0.9991869571858077</v>
+      </c>
+      <c r="G21">
+        <v>1.000427888869906</v>
+      </c>
+      <c r="H21">
+        <v>1.000325367139018</v>
+      </c>
+      <c r="I21">
+        <v>0.9998388007909303</v>
+      </c>
+      <c r="J21">
+        <v>1.000142679886942</v>
+      </c>
+      <c r="K21">
+        <v>1.000142679886942</v>
+      </c>
+      <c r="L21">
+        <v>0.9995102536710808</v>
+      </c>
+      <c r="M21">
+        <v>1.000078464151496</v>
+      </c>
+      <c r="N21">
+        <v>1.000142679886942</v>
+      </c>
+      <c r="O21">
+        <v>1.000427888869906</v>
+      </c>
+      <c r="P21">
+        <v>0.9998074230278569</v>
+      </c>
+      <c r="Q21">
+        <v>1.000133344830418</v>
+      </c>
+      <c r="R21">
+        <v>0.9999191753142185</v>
+      </c>
+      <c r="S21">
+        <v>0.9998178822822147</v>
+      </c>
+      <c r="T21">
+        <v>0.9999191753142185</v>
+      </c>
+      <c r="U21">
+        <v>0.9998990816833965</v>
+      </c>
+      <c r="V21">
+        <v>0.9999478013241057</v>
+      </c>
+      <c r="W21">
+        <v>0.999936445983706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999157536346911</v>
+      </c>
+      <c r="D22">
+        <v>0.9998734790989652</v>
+      </c>
+      <c r="E22">
+        <v>1.000248075362356</v>
+      </c>
+      <c r="F22">
+        <v>0.9998734790989652</v>
+      </c>
+      <c r="G22">
+        <v>0.999939530549849</v>
+      </c>
+      <c r="H22">
+        <v>1.000037297630921</v>
+      </c>
+      <c r="I22">
+        <v>0.9999672712942665</v>
+      </c>
+      <c r="J22">
+        <v>1.000248075362356</v>
+      </c>
+      <c r="K22">
+        <v>1.000248075362356</v>
+      </c>
+      <c r="L22">
+        <v>0.999901789476662</v>
+      </c>
+      <c r="M22">
+        <v>1.000082797288644</v>
+      </c>
+      <c r="N22">
+        <v>1.000248075362356</v>
+      </c>
+      <c r="O22">
+        <v>0.999939530549849</v>
+      </c>
+      <c r="P22">
+        <v>0.9999065048244071</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999534009220578</v>
+      </c>
+      <c r="R22">
+        <v>1.00002036167039</v>
+      </c>
+      <c r="S22">
+        <v>0.9999267603143602</v>
+      </c>
+      <c r="T22">
+        <v>1.00002036167039</v>
+      </c>
+      <c r="U22">
+        <v>1.000007089076359</v>
+      </c>
+      <c r="V22">
+        <v>1.000055286333559</v>
+      </c>
+      <c r="W22">
+        <v>0.9999957492920444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.002300707148463</v>
+      </c>
+      <c r="D23">
+        <v>1.01191541220348</v>
+      </c>
+      <c r="E23">
+        <v>0.9922852217124066</v>
+      </c>
+      <c r="F23">
+        <v>1.01191541220348</v>
+      </c>
+      <c r="G23">
+        <v>0.9968924267760563</v>
+      </c>
+      <c r="H23">
+        <v>0.995563589762266</v>
+      </c>
+      <c r="I23">
+        <v>1.002552594002609</v>
+      </c>
+      <c r="J23">
+        <v>0.9922852217124066</v>
+      </c>
+      <c r="K23">
+        <v>0.9922852217124066</v>
+      </c>
+      <c r="L23">
+        <v>1.007725189830949</v>
+      </c>
+      <c r="M23">
+        <v>0.9970926567633586</v>
+      </c>
+      <c r="N23">
+        <v>0.9922852217124066</v>
+      </c>
+      <c r="O23">
+        <v>0.9968924267760563</v>
+      </c>
+      <c r="P23">
+        <v>1.004403919489768</v>
+      </c>
+      <c r="Q23">
+        <v>0.9997225103893326</v>
+      </c>
+      <c r="R23">
+        <v>1.000364353563981</v>
+      </c>
+      <c r="S23">
+        <v>1.003786810994048</v>
+      </c>
+      <c r="T23">
+        <v>1.000364353563981</v>
+      </c>
+      <c r="U23">
+        <v>1.000911413673638</v>
+      </c>
+      <c r="V23">
+        <v>0.9991861752813916</v>
+      </c>
+      <c r="W23">
+        <v>1.000790974774949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000639794163212</v>
+      </c>
+      <c r="D24">
+        <v>1.003025548685639</v>
+      </c>
+      <c r="E24">
+        <v>0.997886627407341</v>
+      </c>
+      <c r="F24">
+        <v>1.003025548685639</v>
+      </c>
+      <c r="G24">
+        <v>0.9992978020402662</v>
+      </c>
+      <c r="H24">
+        <v>0.9988826280443077</v>
+      </c>
+      <c r="I24">
+        <v>1.000653377164229</v>
+      </c>
+      <c r="J24">
+        <v>0.997886627407341</v>
+      </c>
+      <c r="K24">
+        <v>0.997886627407341</v>
+      </c>
+      <c r="L24">
+        <v>1.001976612328791</v>
+      </c>
+      <c r="M24">
+        <v>0.999213504085587</v>
+      </c>
+      <c r="N24">
+        <v>0.997886627407341</v>
+      </c>
+      <c r="O24">
+        <v>0.9992978020402662</v>
+      </c>
+      <c r="P24">
+        <v>1.001161675362953</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999755896022475</v>
+      </c>
+      <c r="R24">
+        <v>1.000069992711082</v>
+      </c>
+      <c r="S24">
+        <v>1.000992242630045</v>
+      </c>
+      <c r="T24">
+        <v>1.000069992711082</v>
+      </c>
+      <c r="U24">
+        <v>1.000215838824369</v>
+      </c>
+      <c r="V24">
+        <v>0.9997499965409631</v>
+      </c>
+      <c r="W24">
+        <v>1.000196986739922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000366871770279</v>
+      </c>
+      <c r="D25">
+        <v>1.002283807541665</v>
+      </c>
+      <c r="E25">
+        <v>0.9987271598883204</v>
+      </c>
+      <c r="F25">
+        <v>1.002283807541665</v>
+      </c>
+      <c r="G25">
+        <v>0.9992885931764667</v>
+      </c>
+      <c r="H25">
+        <v>0.9991375248242177</v>
+      </c>
+      <c r="I25">
+        <v>1.000482287830855</v>
+      </c>
+      <c r="J25">
+        <v>0.9987271598883204</v>
+      </c>
+      <c r="K25">
+        <v>0.9987271598883204</v>
+      </c>
+      <c r="L25">
+        <v>1.001460629866307</v>
+      </c>
+      <c r="M25">
+        <v>0.9995070770901292</v>
+      </c>
+      <c r="N25">
+        <v>0.9987271598883204</v>
+      </c>
+      <c r="O25">
+        <v>0.9992885931764667</v>
+      </c>
+      <c r="P25">
+        <v>1.000786200359066</v>
+      </c>
+      <c r="Q25">
+        <v>0.9998854405036608</v>
+      </c>
+      <c r="R25">
+        <v>1.000099853535484</v>
+      </c>
+      <c r="S25">
+        <v>1.000684896182996</v>
+      </c>
+      <c r="T25">
+        <v>1.000099853535484</v>
+      </c>
+      <c r="U25">
+        <v>1.000195462109327</v>
+      </c>
+      <c r="V25">
+        <v>0.9999018016651255</v>
+      </c>
+      <c r="W25">
+        <v>1.00015674399853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000141261868787</v>
+      </c>
+      <c r="D26">
+        <v>1.000521645123488</v>
+      </c>
+      <c r="E26">
+        <v>0.9995496551048904</v>
+      </c>
+      <c r="F26">
+        <v>1.000521645123488</v>
+      </c>
+      <c r="G26">
+        <v>0.9999272859644912</v>
+      </c>
+      <c r="H26">
+        <v>0.9998124252271313</v>
+      </c>
+      <c r="I26">
+        <v>1.000115559876135</v>
+      </c>
+      <c r="J26">
+        <v>0.9995496551048904</v>
+      </c>
+      <c r="K26">
+        <v>0.9995496551048904</v>
+      </c>
+      <c r="L26">
+        <v>1.000349168089611</v>
+      </c>
+      <c r="M26">
+        <v>0.9998375359776883</v>
+      </c>
+      <c r="N26">
+        <v>0.9995496551048904</v>
+      </c>
+      <c r="O26">
+        <v>0.9999272859644912</v>
+      </c>
+      <c r="P26">
+        <v>1.00022446554399</v>
+      </c>
+      <c r="Q26">
+        <v>1.000021422920313</v>
+      </c>
+      <c r="R26">
+        <v>0.9999995287309567</v>
+      </c>
+      <c r="S26">
+        <v>1.000188163654705</v>
+      </c>
+      <c r="T26">
+        <v>0.9999995287309565</v>
+      </c>
+      <c r="U26">
+        <v>1.000028536517251</v>
+      </c>
+      <c r="V26">
+        <v>0.9999327602347788</v>
+      </c>
+      <c r="W26">
+        <v>1.000031817154028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9994253848769847</v>
+      </c>
+      <c r="D27">
+        <v>0.9971406579096657</v>
+      </c>
+      <c r="E27">
+        <v>1.00191382629836</v>
+      </c>
+      <c r="F27">
+        <v>0.9971406579096657</v>
+      </c>
+      <c r="G27">
+        <v>1.000710552891405</v>
+      </c>
+      <c r="H27">
+        <v>1.001060912249192</v>
+      </c>
+      <c r="I27">
+        <v>0.9993853507114514</v>
+      </c>
+      <c r="J27">
+        <v>1.00191382629836</v>
+      </c>
+      <c r="K27">
+        <v>1.00191382629836</v>
+      </c>
+      <c r="L27">
+        <v>0.9981400992462903</v>
+      </c>
+      <c r="M27">
+        <v>1.000717218262307</v>
+      </c>
+      <c r="N27">
+        <v>1.00191382629836</v>
+      </c>
+      <c r="O27">
+        <v>1.000710552891405</v>
+      </c>
+      <c r="P27">
+        <v>0.9989256054005353</v>
+      </c>
+      <c r="Q27">
+        <v>1.000047951801428</v>
+      </c>
+      <c r="R27">
+        <v>0.9999216790331434</v>
+      </c>
+      <c r="S27">
+        <v>0.9990788538375073</v>
+      </c>
+      <c r="T27">
+        <v>0.9999216790331434</v>
+      </c>
+      <c r="U27">
+        <v>0.9997875969527203</v>
+      </c>
+      <c r="V27">
+        <v>1.000212842821848</v>
+      </c>
+      <c r="W27">
+        <v>0.9998117503057071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9992887390532561</v>
+      </c>
+      <c r="D28">
+        <v>0.9964610085345487</v>
+      </c>
+      <c r="E28">
+        <v>1.002368936787452</v>
+      </c>
+      <c r="F28">
+        <v>0.9964610085345487</v>
+      </c>
+      <c r="G28">
+        <v>1.000879333585826</v>
+      </c>
+      <c r="H28">
+        <v>1.001313076725504</v>
+      </c>
+      <c r="I28">
+        <v>0.9992392286480383</v>
+      </c>
+      <c r="J28">
+        <v>1.002368936787452</v>
+      </c>
+      <c r="K28">
+        <v>1.002368936787452</v>
+      </c>
+      <c r="L28">
+        <v>0.9976979977619013</v>
+      </c>
+      <c r="M28">
+        <v>1.000887754794153</v>
+      </c>
+      <c r="N28">
+        <v>1.002368936787452</v>
+      </c>
+      <c r="O28">
+        <v>1.000879333585826</v>
+      </c>
+      <c r="P28">
+        <v>0.9986701710601872</v>
+      </c>
+      <c r="Q28">
+        <v>1.000059281116932</v>
+      </c>
+      <c r="R28">
+        <v>0.9999030929692753</v>
+      </c>
+      <c r="S28">
+        <v>0.9988598569228042</v>
+      </c>
+      <c r="T28">
+        <v>0.9999030929692753</v>
+      </c>
+      <c r="U28">
+        <v>0.9997371268889661</v>
+      </c>
+      <c r="V28">
+        <v>1.000263488868663</v>
+      </c>
+      <c r="W28">
+        <v>0.9997670094863348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.001022666046465</v>
+      </c>
+      <c r="D29">
+        <v>1.00528121774075</v>
+      </c>
+      <c r="E29">
+        <v>0.9965724486507122</v>
+      </c>
+      <c r="F29">
+        <v>1.00528121774075</v>
+      </c>
+      <c r="G29">
+        <v>0.9986272059025125</v>
+      </c>
+      <c r="H29">
+        <v>0.9980341511716404</v>
+      </c>
+      <c r="I29">
+        <v>1.001131652311718</v>
+      </c>
+      <c r="J29">
+        <v>0.9965724486507122</v>
+      </c>
+      <c r="K29">
+        <v>0.9965724486507122</v>
+      </c>
+      <c r="L29">
+        <v>1.00342481226531</v>
+      </c>
+      <c r="M29">
+        <v>0.9987088441122987</v>
+      </c>
+      <c r="N29">
+        <v>0.9965724486507122</v>
+      </c>
+      <c r="O29">
+        <v>0.9986272059025125</v>
+      </c>
+      <c r="P29">
+        <v>1.001954211821631</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998794291071152</v>
+      </c>
+      <c r="R29">
+        <v>1.000160290764658</v>
+      </c>
+      <c r="S29">
+        <v>1.001680025318327</v>
+      </c>
+      <c r="T29">
+        <v>1.000160290764658</v>
+      </c>
+      <c r="U29">
+        <v>1.000403131151423</v>
+      </c>
+      <c r="V29">
+        <v>0.9996369946512808</v>
+      </c>
+      <c r="W29">
+        <v>1.000350374775176</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9976747480850627</v>
+        <v>0.9986969927504069</v>
       </c>
       <c r="D4">
-        <v>0.9883768967347537</v>
+        <v>0.9934181971878052</v>
       </c>
       <c r="E4">
-        <v>1.007750491672708</v>
+        <v>1.004350776807604</v>
       </c>
       <c r="F4">
-        <v>0.9883768967347537</v>
+        <v>0.9934181971878052</v>
       </c>
       <c r="G4">
-        <v>1.002904790223391</v>
+        <v>1.001666314363113</v>
       </c>
       <c r="H4">
-        <v>1.004314288982172</v>
+        <v>1.00244529562576</v>
       </c>
       <c r="I4">
-        <v>0.9975024128123001</v>
+        <v>0.9985869809728579</v>
       </c>
       <c r="J4">
-        <v>1.007750491672708</v>
+        <v>1.004350776807604</v>
       </c>
       <c r="K4">
-        <v>1.007750491672708</v>
+        <v>1.004350776807604</v>
       </c>
       <c r="L4">
-        <v>0.9924424218369242</v>
+        <v>0.9957240877549126</v>
       </c>
       <c r="M4">
-        <v>1.00290632629353</v>
+        <v>1.001633859001183</v>
       </c>
       <c r="N4">
-        <v>1.007750491672708</v>
+        <v>1.004350776807604</v>
       </c>
       <c r="O4">
-        <v>1.002904790223391</v>
+        <v>1.001666314363113</v>
       </c>
       <c r="P4">
-        <v>0.9956408434790722</v>
+        <v>0.997542255775459</v>
       </c>
       <c r="Q4">
-        <v>1.000203601517845</v>
+        <v>1.000126647667985</v>
       </c>
       <c r="R4">
-        <v>0.999677392876951</v>
+        <v>0.9998117627861739</v>
       </c>
       <c r="S4">
-        <v>0.9962613665901482</v>
+        <v>0.9978904975079254</v>
       </c>
       <c r="T4">
-        <v>0.999677392876951</v>
+        <v>0.9998117627861739</v>
       </c>
       <c r="U4">
-        <v>0.9991336478607883</v>
+        <v>0.9995055673328449</v>
       </c>
       <c r="V4">
-        <v>1.000857016623173</v>
+        <v>1.000474609227797</v>
       </c>
       <c r="W4">
-        <v>0.9992340470801052</v>
+        <v>0.9995653130579552</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9983104959293948</v>
+        <v>0.9939930582723508</v>
       </c>
       <c r="D5">
-        <v>0.9914861452161405</v>
+        <v>0.9699374547468619</v>
       </c>
       <c r="E5">
-        <v>1.005639051051873</v>
+        <v>1.020026209035328</v>
       </c>
       <c r="F5">
-        <v>0.9914861452161405</v>
+        <v>0.9699374547468619</v>
       </c>
       <c r="G5">
-        <v>1.002149192154177</v>
+        <v>1.007524345230188</v>
       </c>
       <c r="H5">
-        <v>1.003162441585015</v>
+        <v>1.011159863893649</v>
       </c>
       <c r="I5">
-        <v>0.9981718212536018</v>
+        <v>0.9935408008312183</v>
       </c>
       <c r="J5">
-        <v>1.005639051051873</v>
+        <v>1.020026209035328</v>
       </c>
       <c r="K5">
-        <v>1.005639051051873</v>
+        <v>1.020026209035328</v>
       </c>
       <c r="L5">
-        <v>0.994467833263687</v>
+        <v>0.9804546667710523</v>
       </c>
       <c r="M5">
-        <v>1.002116946729108</v>
+        <v>1.007510796882044</v>
       </c>
       <c r="N5">
-        <v>1.005639051051873</v>
+        <v>1.020026209035328</v>
       </c>
       <c r="O5">
-        <v>1.002149192154177</v>
+        <v>1.007524345230188</v>
       </c>
       <c r="P5">
-        <v>0.996817668685159</v>
+        <v>0.9887308999885251</v>
       </c>
       <c r="Q5">
-        <v>1.00016050670389</v>
+        <v>1.000532573030703</v>
       </c>
       <c r="R5">
-        <v>0.9997581294740637</v>
+        <v>0.999162669670793</v>
       </c>
       <c r="S5">
-        <v>0.99726905287464</v>
+        <v>0.9903342002694228</v>
       </c>
       <c r="T5">
-        <v>0.9997581294740637</v>
+        <v>0.999162669670793</v>
       </c>
       <c r="U5">
-        <v>0.9993615524189482</v>
+        <v>0.9977572024608994</v>
       </c>
       <c r="V5">
-        <v>1.000617052145533</v>
+        <v>1.002211003775785</v>
       </c>
       <c r="W5">
-        <v>0.9994379908978748</v>
+        <v>0.9980183994578368</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9945726680687185</v>
+        <v>0.9976747480850627</v>
       </c>
       <c r="D6">
-        <v>0.9725335430300962</v>
+        <v>0.9883768967347537</v>
       </c>
       <c r="E6">
-        <v>1.018127751552857</v>
+        <v>1.007750491672708</v>
       </c>
       <c r="F6">
-        <v>0.9725335430300962</v>
+        <v>0.9883768967347537</v>
       </c>
       <c r="G6">
-        <v>1.006969668851366</v>
+        <v>1.002904790223391</v>
       </c>
       <c r="H6">
-        <v>1.010206116256736</v>
+        <v>1.004314288982172</v>
       </c>
       <c r="I6">
-        <v>0.9941043119622862</v>
+        <v>0.9975024128123001</v>
       </c>
       <c r="J6">
-        <v>1.018127751552857</v>
+        <v>1.007750491672708</v>
       </c>
       <c r="K6">
-        <v>1.018127751552857</v>
+        <v>1.007750491672708</v>
       </c>
       <c r="L6">
-        <v>0.9821590008991533</v>
+        <v>0.9924424218369242</v>
       </c>
       <c r="M6">
-        <v>1.006809350708947</v>
+        <v>1.00290632629353</v>
       </c>
       <c r="N6">
-        <v>1.018127751552857</v>
+        <v>1.007750491672708</v>
       </c>
       <c r="O6">
-        <v>1.006969668851366</v>
+        <v>1.002904790223391</v>
       </c>
       <c r="P6">
-        <v>0.989751605940731</v>
+        <v>0.9956408434790722</v>
       </c>
       <c r="Q6">
-        <v>1.000536990406826</v>
+        <v>1.000203601517845</v>
       </c>
       <c r="R6">
-        <v>0.999210321144773</v>
+        <v>0.999677392876951</v>
       </c>
       <c r="S6">
-        <v>0.9912025079479161</v>
+        <v>0.9962613665901482</v>
       </c>
       <c r="T6">
-        <v>0.999210321144773</v>
+        <v>0.999677392876951</v>
       </c>
       <c r="U6">
-        <v>0.9979338188491513</v>
+        <v>0.9991336478607883</v>
       </c>
       <c r="V6">
-        <v>1.001972605389893</v>
+        <v>1.000857016623173</v>
       </c>
       <c r="W6">
-        <v>0.9981853014162699</v>
+        <v>0.9992340470801052</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998084271869982</v>
+        <v>0.9983104959293948</v>
       </c>
       <c r="D7">
-        <v>0.9990532259187114</v>
+        <v>0.9914861452161405</v>
       </c>
       <c r="E7">
-        <v>1.000637344237121</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="F7">
-        <v>0.9990532259187114</v>
+        <v>0.9914861452161405</v>
       </c>
       <c r="G7">
-        <v>1.000233227279947</v>
+        <v>1.002149192154177</v>
       </c>
       <c r="H7">
-        <v>1.00035106948991</v>
+        <v>1.003162441585015</v>
       </c>
       <c r="I7">
-        <v>0.9997963500902998</v>
+        <v>0.9981718212536018</v>
       </c>
       <c r="J7">
-        <v>1.000637344237121</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="K7">
-        <v>1.000637344237121</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="L7">
-        <v>0.9993838036094999</v>
+        <v>0.994467833263687</v>
       </c>
       <c r="M7">
-        <v>1.000238619735454</v>
+        <v>1.002116946729108</v>
       </c>
       <c r="N7">
-        <v>1.000637344237121</v>
+        <v>1.005639051051873</v>
       </c>
       <c r="O7">
-        <v>1.000233227279947</v>
+        <v>1.002149192154177</v>
       </c>
       <c r="P7">
-        <v>0.9996432265993294</v>
+        <v>0.996817668685159</v>
       </c>
       <c r="Q7">
-        <v>1.000014788685124</v>
+        <v>1.00016050670389</v>
       </c>
       <c r="R7">
-        <v>0.9999745991452601</v>
+        <v>0.9997581294740637</v>
       </c>
       <c r="S7">
-        <v>0.9996942677629862</v>
+        <v>0.99726905287464</v>
       </c>
       <c r="T7">
-        <v>0.9999745991452601</v>
+        <v>0.9997581294740637</v>
       </c>
       <c r="U7">
-        <v>0.99993003688152</v>
+        <v>0.9993615524189482</v>
       </c>
       <c r="V7">
-        <v>1.00007149835264</v>
+        <v>1.000617052145533</v>
       </c>
       <c r="W7">
-        <v>0.9999377584434928</v>
+        <v>0.9994379908978748</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999864944561604</v>
+        <v>0.9945726680687185</v>
       </c>
       <c r="D8">
-        <v>0.9999315473108631</v>
+        <v>0.9725335430300962</v>
       </c>
       <c r="E8">
-        <v>1.000045122748392</v>
+        <v>1.018127751552857</v>
       </c>
       <c r="F8">
-        <v>0.9999315473108631</v>
+        <v>0.9725335430300962</v>
       </c>
       <c r="G8">
-        <v>1.000017401310555</v>
+        <v>1.006969668851366</v>
       </c>
       <c r="H8">
-        <v>1.00002543921967</v>
+        <v>1.010206116256736</v>
       </c>
       <c r="I8">
-        <v>0.9999853064146966</v>
+        <v>0.9941043119622862</v>
       </c>
       <c r="J8">
-        <v>1.000045122748392</v>
+        <v>1.018127751552857</v>
       </c>
       <c r="K8">
-        <v>1.000045122748392</v>
+        <v>1.018127751552857</v>
       </c>
       <c r="L8">
-        <v>0.9999555432197866</v>
+        <v>0.9821590008991533</v>
       </c>
       <c r="M8">
-        <v>1.000016953780898</v>
+        <v>1.006809350708947</v>
       </c>
       <c r="N8">
-        <v>1.000045122748392</v>
+        <v>1.018127751552857</v>
       </c>
       <c r="O8">
-        <v>1.000017401310555</v>
+        <v>1.006969668851366</v>
       </c>
       <c r="P8">
-        <v>0.9999744743107091</v>
+        <v>0.989751605940731</v>
       </c>
       <c r="Q8">
-        <v>1.000001353862626</v>
+        <v>1.000536990406826</v>
       </c>
       <c r="R8">
-        <v>0.9999980237899365</v>
+        <v>0.999210321144773</v>
       </c>
       <c r="S8">
-        <v>0.9999780850120382</v>
+        <v>0.9912025079479161</v>
       </c>
       <c r="T8">
-        <v>0.9999980237899365</v>
+        <v>0.999210321144773</v>
       </c>
       <c r="U8">
-        <v>0.9999948444461266</v>
+        <v>0.9979338188491513</v>
       </c>
       <c r="V8">
-        <v>1.00000490010658</v>
+        <v>1.001972605389893</v>
       </c>
       <c r="W8">
-        <v>0.9999954760576277</v>
+        <v>0.9981853014162699</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996965377315364</v>
+        <v>0.9998084271869982</v>
       </c>
       <c r="D9">
-        <v>0.9984967205874634</v>
+        <v>0.9990532259187114</v>
       </c>
       <c r="E9">
-        <v>1.00100998051316</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="F9">
-        <v>0.9984967205874634</v>
+        <v>0.9990532259187114</v>
       </c>
       <c r="G9">
-        <v>1.000371434461863</v>
+        <v>1.000233227279947</v>
       </c>
       <c r="H9">
-        <v>1.000557542628332</v>
+        <v>1.00035106948991</v>
       </c>
       <c r="I9">
-        <v>0.9996767155140029</v>
+        <v>0.9997963500902998</v>
       </c>
       <c r="J9">
-        <v>1.00100998051316</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="K9">
-        <v>1.00100998051316</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="L9">
-        <v>0.9990218010985726</v>
+        <v>0.9993838036094999</v>
       </c>
       <c r="M9">
-        <v>1.000378257347902</v>
+        <v>1.000238619735454</v>
       </c>
       <c r="N9">
-        <v>1.00100998051316</v>
+        <v>1.000637344237121</v>
       </c>
       <c r="O9">
-        <v>1.000371434461863</v>
+        <v>1.000233227279947</v>
       </c>
       <c r="P9">
-        <v>0.9994340775246633</v>
+        <v>0.9996432265993294</v>
       </c>
       <c r="Q9">
-        <v>1.000024074987933</v>
+        <v>1.000014788685124</v>
       </c>
       <c r="R9">
-        <v>0.9999593785208289</v>
+        <v>0.9999745991452601</v>
       </c>
       <c r="S9">
-        <v>0.9995149568544432</v>
+        <v>0.9996942677629862</v>
       </c>
       <c r="T9">
-        <v>0.9999593785208288</v>
+        <v>0.9999745991452601</v>
       </c>
       <c r="U9">
-        <v>0.9998887127691223</v>
+        <v>0.99993003688152</v>
       </c>
       <c r="V9">
-        <v>1.00011296631793</v>
+        <v>1.00007149835264</v>
       </c>
       <c r="W9">
-        <v>0.9999011237353541</v>
+        <v>0.9999377584434928</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9944928936781439</v>
+        <v>0.9999864944561604</v>
       </c>
       <c r="D10">
-        <v>0.9721243764430895</v>
+        <v>0.9999315473108631</v>
       </c>
       <c r="E10">
-        <v>1.018394809813959</v>
+        <v>1.000045122748392</v>
       </c>
       <c r="F10">
-        <v>0.9721243764430895</v>
+        <v>0.9999315473108631</v>
       </c>
       <c r="G10">
-        <v>1.007075177537502</v>
+        <v>1.000017401310555</v>
       </c>
       <c r="H10">
-        <v>1.010358333089576</v>
+        <v>1.00002543921967</v>
       </c>
       <c r="I10">
-        <v>0.9940165860961548</v>
+        <v>0.9999853064146966</v>
       </c>
       <c r="J10">
-        <v>1.018394809813959</v>
+        <v>1.000045122748392</v>
       </c>
       <c r="K10">
-        <v>1.018394809813959</v>
+        <v>1.000045122748392</v>
       </c>
       <c r="L10">
-        <v>0.981893515173754</v>
+        <v>0.9999555432197866</v>
       </c>
       <c r="M10">
-        <v>1.006909854519902</v>
+        <v>1.000016953780898</v>
       </c>
       <c r="N10">
-        <v>1.018394809813959</v>
+        <v>1.000045122748392</v>
       </c>
       <c r="O10">
-        <v>1.007075177537502</v>
+        <v>1.000017401310555</v>
       </c>
       <c r="P10">
-        <v>0.989599776990296</v>
+        <v>0.9999744743107091</v>
       </c>
       <c r="Q10">
-        <v>1.000545881816829</v>
+        <v>1.000001353862626</v>
       </c>
       <c r="R10">
-        <v>0.9991981212648504</v>
+        <v>0.9999980237899365</v>
       </c>
       <c r="S10">
-        <v>0.991072046692249</v>
+        <v>0.9999780850120382</v>
       </c>
       <c r="T10">
-        <v>0.9991981212648504</v>
+        <v>0.9999980237899365</v>
       </c>
       <c r="U10">
-        <v>0.9979027374726765</v>
+        <v>0.9999948444461266</v>
       </c>
       <c r="V10">
-        <v>1.002001151940933</v>
+        <v>1.00000490010658</v>
       </c>
       <c r="W10">
-        <v>0.9981581932940102</v>
+        <v>0.9999954760576277</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9988358639087616</v>
+        <v>0.9996965377315364</v>
       </c>
       <c r="D11">
-        <v>0.9942171203166651</v>
+        <v>0.9984967205874634</v>
       </c>
       <c r="E11">
-        <v>1.003876256323612</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="F11">
-        <v>0.9942171203166651</v>
+        <v>0.9984967205874634</v>
       </c>
       <c r="G11">
-        <v>1.001433908811634</v>
+        <v>1.000371434461863</v>
       </c>
       <c r="H11">
-        <v>1.002145313412799</v>
+        <v>1.000557542628332</v>
       </c>
       <c r="I11">
-        <v>0.9987566851187241</v>
+        <v>0.9996767155140029</v>
       </c>
       <c r="J11">
-        <v>1.003876256323612</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="K11">
-        <v>1.003876256323612</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="L11">
-        <v>0.9962378944248084</v>
+        <v>0.9990218010985726</v>
       </c>
       <c r="M11">
-        <v>1.001452286421339</v>
+        <v>1.000378257347902</v>
       </c>
       <c r="N11">
-        <v>1.003876256323612</v>
+        <v>1.00100998051316</v>
       </c>
       <c r="O11">
-        <v>1.001433908811634</v>
+        <v>1.000371434461863</v>
       </c>
       <c r="P11">
-        <v>0.9978255145641497</v>
+        <v>0.9994340775246633</v>
       </c>
       <c r="Q11">
-        <v>1.000095296965179</v>
+        <v>1.000024074987933</v>
       </c>
       <c r="R11">
-        <v>0.9998424284839705</v>
+        <v>0.9999593785208289</v>
       </c>
       <c r="S11">
-        <v>0.9981359047490078</v>
+        <v>0.9995149568544432</v>
       </c>
       <c r="T11">
-        <v>0.9998424284839705</v>
+        <v>0.9999593785208288</v>
       </c>
       <c r="U11">
-        <v>0.9995709926426589</v>
+        <v>0.9998887127691223</v>
       </c>
       <c r="V11">
-        <v>1.00043204537885</v>
+        <v>1.00011296631793</v>
       </c>
       <c r="W11">
-        <v>0.9996194160922929</v>
+        <v>0.9999011237353541</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9983233302105268</v>
+        <v>0.9944928936781439</v>
       </c>
       <c r="D12">
-        <v>0.9915117957368427</v>
+        <v>0.9721243764430895</v>
       </c>
       <c r="E12">
-        <v>1.005600549999999</v>
+        <v>1.018394809813959</v>
       </c>
       <c r="F12">
-        <v>0.9915117957368427</v>
+        <v>0.9721243764430895</v>
       </c>
       <c r="G12">
-        <v>1.002154816957894</v>
+        <v>1.007075177537502</v>
       </c>
       <c r="H12">
-        <v>1.003154183515788</v>
+        <v>1.010358333089576</v>
       </c>
       <c r="I12">
-        <v>0.9981780580210505</v>
+        <v>0.9940165860961548</v>
       </c>
       <c r="J12">
-        <v>1.005600549999999</v>
+        <v>1.018394809813959</v>
       </c>
       <c r="K12">
-        <v>1.005600549999999</v>
+        <v>1.018394809813959</v>
       </c>
       <c r="L12">
-        <v>0.9944865947263137</v>
+        <v>0.981893515173754</v>
       </c>
       <c r="M12">
-        <v>1.002103845326317</v>
+        <v>1.006909854519902</v>
       </c>
       <c r="N12">
-        <v>1.005600549999999</v>
+        <v>1.018394809813959</v>
       </c>
       <c r="O12">
-        <v>1.002154816957894</v>
+        <v>1.007075177537502</v>
       </c>
       <c r="P12">
-        <v>0.9968333063473686</v>
+        <v>0.989599776990296</v>
       </c>
       <c r="Q12">
-        <v>1.000166437489473</v>
+        <v>1.000545881816829</v>
       </c>
       <c r="R12">
-        <v>0.9997557208982455</v>
+        <v>0.9991981212648504</v>
       </c>
       <c r="S12">
-        <v>0.9972815569052625</v>
+        <v>0.991072046692249</v>
       </c>
       <c r="T12">
-        <v>0.9997557208982455</v>
+        <v>0.9991981212648504</v>
       </c>
       <c r="U12">
-        <v>0.9993613051789467</v>
+        <v>0.9979027374726765</v>
       </c>
       <c r="V12">
-        <v>1.000609154143157</v>
+        <v>1.002001151940933</v>
       </c>
       <c r="W12">
-        <v>0.9994391468118415</v>
+        <v>0.9981581932940102</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00109150088204</v>
+        <v>0.9988358639087616</v>
       </c>
       <c r="D13">
-        <v>1.005470079430694</v>
+        <v>0.9942171203166651</v>
       </c>
       <c r="E13">
-        <v>0.9963602681875737</v>
+        <v>1.003876256323612</v>
       </c>
       <c r="F13">
-        <v>1.005470079430694</v>
+        <v>0.9942171203166651</v>
       </c>
       <c r="G13">
-        <v>0.9986285488775367</v>
+        <v>1.001433908811634</v>
       </c>
       <c r="H13">
-        <v>0.9979691417893221</v>
+        <v>1.002145313412799</v>
       </c>
       <c r="I13">
-        <v>1.001175153218249</v>
+        <v>0.9987566851187241</v>
       </c>
       <c r="J13">
-        <v>0.9963602681875737</v>
+        <v>1.003876256323612</v>
       </c>
       <c r="K13">
-        <v>0.9963602681875737</v>
+        <v>1.003876256323612</v>
       </c>
       <c r="L13">
-        <v>1.003555996979702</v>
+        <v>0.9962378944248084</v>
       </c>
       <c r="M13">
-        <v>0.9986346637060719</v>
+        <v>1.001452286421339</v>
       </c>
       <c r="N13">
-        <v>0.9963602681875737</v>
+        <v>1.003876256323612</v>
       </c>
       <c r="O13">
-        <v>0.9986285488775367</v>
+        <v>1.001433908811634</v>
       </c>
       <c r="P13">
-        <v>1.002049314154115</v>
+        <v>0.9978255145641497</v>
       </c>
       <c r="Q13">
-        <v>0.9999018510478928</v>
+        <v>1.000095296965179</v>
       </c>
       <c r="R13">
-        <v>1.000152965498601</v>
+        <v>0.9998424284839705</v>
       </c>
       <c r="S13">
-        <v>1.001757927175493</v>
+        <v>0.9981359047490078</v>
       </c>
       <c r="T13">
-        <v>1.000152965498601</v>
+        <v>0.9998424284839705</v>
       </c>
       <c r="U13">
-        <v>1.000408512428513</v>
+        <v>0.9995709926426589</v>
       </c>
       <c r="V13">
-        <v>0.9995988635803255</v>
+        <v>1.00043204537885</v>
       </c>
       <c r="W13">
-        <v>1.000360669133899</v>
+        <v>0.9996194160922929</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9904873500000002</v>
+        <v>0.9983233302105268</v>
       </c>
       <c r="D14">
-        <v>0.9518358600000012</v>
+        <v>0.9915117957368427</v>
       </c>
       <c r="E14">
-        <v>1.031775600000002</v>
+        <v>1.005600549999999</v>
       </c>
       <c r="F14">
-        <v>0.9518358600000012</v>
+        <v>0.9915117957368427</v>
       </c>
       <c r="G14">
-        <v>1.012228800000001</v>
+        <v>1.002154816957894</v>
       </c>
       <c r="H14">
-        <v>1.0178978</v>
+        <v>1.003154183515788</v>
       </c>
       <c r="I14">
-        <v>0.9896619699999999</v>
+        <v>0.9981780580210505</v>
       </c>
       <c r="J14">
-        <v>1.031775600000002</v>
+        <v>1.005600549999999</v>
       </c>
       <c r="K14">
-        <v>1.031775600000002</v>
+        <v>1.005600549999999</v>
       </c>
       <c r="L14">
-        <v>0.9687159200000004</v>
+        <v>0.9944865947263137</v>
       </c>
       <c r="M14">
-        <v>1.011936700000001</v>
+        <v>1.002103845326317</v>
       </c>
       <c r="N14">
-        <v>1.031775600000002</v>
+        <v>1.005600549999999</v>
       </c>
       <c r="O14">
-        <v>1.012228800000001</v>
+        <v>1.002154816957894</v>
       </c>
       <c r="P14">
-        <v>0.9820323300000011</v>
+        <v>0.9968333063473686</v>
       </c>
       <c r="Q14">
-        <v>1.000945385000001</v>
+        <v>1.000166437489473</v>
       </c>
       <c r="R14">
-        <v>0.9986134200000013</v>
+        <v>0.9997557208982455</v>
       </c>
       <c r="S14">
-        <v>0.984575543333334</v>
+        <v>0.9972815569052625</v>
       </c>
       <c r="T14">
-        <v>0.9986134200000013</v>
+        <v>0.9997557208982455</v>
       </c>
       <c r="U14">
-        <v>0.996375557500001</v>
+        <v>0.9993613051789467</v>
       </c>
       <c r="V14">
-        <v>1.003455566000001</v>
+        <v>1.000609154143157</v>
       </c>
       <c r="W14">
-        <v>0.9968175000000006</v>
+        <v>0.9994391468118415</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9828161399999999</v>
+        <v>1.00109150088204</v>
       </c>
       <c r="D15">
-        <v>0.91566315</v>
+        <v>1.005470079430694</v>
       </c>
       <c r="E15">
-        <v>1.0571037</v>
+        <v>0.9963602681875737</v>
       </c>
       <c r="F15">
-        <v>0.91566315</v>
+        <v>1.005470079430694</v>
       </c>
       <c r="G15">
-        <v>1.0205897</v>
+        <v>0.9986285488775367</v>
       </c>
       <c r="H15">
-        <v>1.0312532</v>
+        <v>0.9979691417893221</v>
       </c>
       <c r="I15">
-        <v>0.9818483099999998</v>
+        <v>1.001175153218249</v>
       </c>
       <c r="J15">
-        <v>1.0571037</v>
+        <v>0.9963602681875737</v>
       </c>
       <c r="K15">
-        <v>1.0571037</v>
+        <v>0.9963602681875737</v>
       </c>
       <c r="L15">
-        <v>0.94507807</v>
+        <v>1.003555996979702</v>
       </c>
       <c r="M15">
-        <v>1.0213589</v>
+        <v>0.9986346637060719</v>
       </c>
       <c r="N15">
-        <v>1.0571037</v>
+        <v>0.9963602681875737</v>
       </c>
       <c r="O15">
-        <v>1.0205897</v>
+        <v>0.9986285488775367</v>
       </c>
       <c r="P15">
-        <v>0.9681264249999999</v>
+        <v>1.002049314154115</v>
       </c>
       <c r="Q15">
-        <v>1.001219005</v>
+        <v>0.9999018510478928</v>
       </c>
       <c r="R15">
-        <v>0.9977855166666666</v>
+        <v>1.000152965498601</v>
       </c>
       <c r="S15">
-        <v>0.9727003866666665</v>
+        <v>1.001757927175493</v>
       </c>
       <c r="T15">
-        <v>0.9977855166666667</v>
+        <v>1.000152965498601</v>
       </c>
       <c r="U15">
-        <v>0.993801215</v>
+        <v>1.000408512428513</v>
       </c>
       <c r="V15">
-        <v>1.006461712</v>
+        <v>0.9995988635803255</v>
       </c>
       <c r="W15">
-        <v>0.99446389625</v>
+        <v>1.000360669133899</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.98362986</v>
+        <v>0.9904873500000002</v>
       </c>
       <c r="D16">
-        <v>0.91833425</v>
+        <v>0.9518358600000012</v>
       </c>
       <c r="E16">
-        <v>1.0545466</v>
+        <v>1.031775600000002</v>
       </c>
       <c r="F16">
-        <v>0.91833425</v>
+        <v>0.9518358600000012</v>
       </c>
       <c r="G16">
-        <v>1.0203586</v>
+        <v>1.012228800000001</v>
       </c>
       <c r="H16">
-        <v>1.0303075</v>
+        <v>1.0178978</v>
       </c>
       <c r="I16">
-        <v>0.98244851</v>
+        <v>0.9896619699999999</v>
       </c>
       <c r="J16">
-        <v>1.0545466</v>
+        <v>1.031775600000002</v>
       </c>
       <c r="K16">
-        <v>1.0545466</v>
+        <v>1.031775600000002</v>
       </c>
       <c r="L16">
-        <v>0.9468904500000001</v>
+        <v>0.9687159200000004</v>
       </c>
       <c r="M16">
-        <v>1.0204485</v>
+        <v>1.011936700000001</v>
       </c>
       <c r="N16">
-        <v>1.0545466</v>
+        <v>1.031775600000002</v>
       </c>
       <c r="O16">
-        <v>1.0203586</v>
+        <v>1.012228800000001</v>
       </c>
       <c r="P16">
-        <v>0.969346425</v>
+        <v>0.9820323300000011</v>
       </c>
       <c r="Q16">
-        <v>1.001403555</v>
+        <v>1.000945385000001</v>
       </c>
       <c r="R16">
-        <v>0.9977464833333333</v>
+        <v>0.9986134200000013</v>
       </c>
       <c r="S16">
-        <v>0.9737137866666666</v>
+        <v>0.984575543333334</v>
       </c>
       <c r="T16">
-        <v>0.9977464833333333</v>
+        <v>0.9986134200000013</v>
       </c>
       <c r="U16">
-        <v>0.99392199</v>
+        <v>0.996375557500001</v>
       </c>
       <c r="V16">
-        <v>1.006046912</v>
+        <v>1.003455566000001</v>
       </c>
       <c r="W16">
-        <v>0.99462053375</v>
+        <v>0.9968175000000006</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99526348</v>
+        <v>0.9828161399999999</v>
       </c>
       <c r="D17">
-        <v>0.97638806</v>
+        <v>0.91566315</v>
       </c>
       <c r="E17">
-        <v>1.0157806</v>
+        <v>1.0571037</v>
       </c>
       <c r="F17">
-        <v>0.97638806</v>
+        <v>0.91566315</v>
       </c>
       <c r="G17">
-        <v>1.0058809</v>
+        <v>1.0205897</v>
       </c>
       <c r="H17">
-        <v>1.0087622</v>
+        <v>1.0312532</v>
       </c>
       <c r="I17">
-        <v>0.99492503</v>
+        <v>0.9818483099999998</v>
       </c>
       <c r="J17">
-        <v>1.0157806</v>
+        <v>1.0571037</v>
       </c>
       <c r="K17">
-        <v>1.0157806</v>
+        <v>1.0571037</v>
       </c>
       <c r="L17">
-        <v>0.98464356</v>
+        <v>0.94507807</v>
       </c>
       <c r="M17">
-        <v>1.0059153</v>
+        <v>1.0213589</v>
       </c>
       <c r="N17">
-        <v>1.0157806</v>
+        <v>1.0571037</v>
       </c>
       <c r="O17">
-        <v>1.0058809</v>
+        <v>1.0205897</v>
       </c>
       <c r="P17">
-        <v>0.9911344799999999</v>
+        <v>0.9681264249999999</v>
       </c>
       <c r="Q17">
-        <v>1.000402965</v>
+        <v>1.001219005</v>
       </c>
       <c r="R17">
-        <v>0.9993498533333334</v>
+        <v>0.9977855166666666</v>
       </c>
       <c r="S17">
-        <v>0.9923979966666666</v>
+        <v>0.9727003866666665</v>
       </c>
       <c r="T17">
-        <v>0.9993498533333334</v>
+        <v>0.9977855166666667</v>
       </c>
       <c r="U17">
-        <v>0.9982436475000001</v>
+        <v>0.993801215</v>
       </c>
       <c r="V17">
-        <v>1.001751038</v>
+        <v>1.006461712</v>
       </c>
       <c r="W17">
-        <v>0.9984448912499999</v>
+        <v>0.99446389625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9961832550684931</v>
+        <v>0.98362986</v>
       </c>
       <c r="D18">
-        <v>0.9811231757534251</v>
+        <v>0.91833425</v>
       </c>
       <c r="E18">
-        <v>1.01269948520548</v>
+        <v>1.0545466</v>
       </c>
       <c r="F18">
-        <v>0.9811231757534251</v>
+        <v>0.91833425</v>
       </c>
       <c r="G18">
-        <v>1.004654550958904</v>
+        <v>1.0203586</v>
       </c>
       <c r="H18">
-        <v>1.007000115068493</v>
+        <v>1.0303075</v>
       </c>
       <c r="I18">
-        <v>0.9959399324657531</v>
+        <v>0.98244851</v>
       </c>
       <c r="J18">
-        <v>1.01269948520548</v>
+        <v>1.0545466</v>
       </c>
       <c r="K18">
-        <v>1.01269948520548</v>
+        <v>1.0545466</v>
       </c>
       <c r="L18">
-        <v>0.9877149878082195</v>
+        <v>0.9468904500000001</v>
       </c>
       <c r="M18">
-        <v>1.004755132328767</v>
+        <v>1.0204485</v>
       </c>
       <c r="N18">
-        <v>1.01269948520548</v>
+        <v>1.0545466</v>
       </c>
       <c r="O18">
-        <v>1.004654550958904</v>
+        <v>1.0203586</v>
       </c>
       <c r="P18">
-        <v>0.9928888633561644</v>
+        <v>0.969346425</v>
       </c>
       <c r="Q18">
-        <v>1.000297241712328</v>
+        <v>1.001403555</v>
       </c>
       <c r="R18">
-        <v>0.999492403972603</v>
+        <v>0.9977464833333333</v>
       </c>
       <c r="S18">
-        <v>0.9939058863926941</v>
+        <v>0.9737137866666666</v>
       </c>
       <c r="T18">
-        <v>0.999492403972603</v>
+        <v>0.9977464833333333</v>
       </c>
       <c r="U18">
-        <v>0.9986042860958905</v>
+        <v>0.99392199</v>
       </c>
       <c r="V18">
-        <v>1.001423325917808</v>
+        <v>1.006046912</v>
       </c>
       <c r="W18">
-        <v>0.9987588293321918</v>
+        <v>0.99462053375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9933733657894737</v>
+        <v>0.99526348</v>
       </c>
       <c r="D19">
-        <v>0.9663874021052632</v>
+        <v>0.97638806</v>
       </c>
       <c r="E19">
-        <v>1.022142057894737</v>
+        <v>1.0157806</v>
       </c>
       <c r="F19">
-        <v>0.9663874021052632</v>
+        <v>0.97638806</v>
       </c>
       <c r="G19">
-        <v>1.008552976842105</v>
+        <v>1.0058809</v>
       </c>
       <c r="H19">
-        <v>1.012492418947369</v>
+        <v>1.0087622</v>
       </c>
       <c r="I19">
-        <v>0.9927864642105262</v>
+        <v>0.99492503</v>
       </c>
       <c r="J19">
-        <v>1.022142057894737</v>
+        <v>1.0157806</v>
       </c>
       <c r="K19">
-        <v>1.022142057894737</v>
+        <v>1.0157806</v>
       </c>
       <c r="L19">
-        <v>0.9781708378947368</v>
+        <v>0.98464356</v>
       </c>
       <c r="M19">
-        <v>1.008319915263158</v>
+        <v>1.0059153</v>
       </c>
       <c r="N19">
-        <v>1.022142057894737</v>
+        <v>1.0157806</v>
       </c>
       <c r="O19">
-        <v>1.008552976842105</v>
+        <v>1.0058809</v>
       </c>
       <c r="P19">
-        <v>0.9874701894736843</v>
+        <v>0.9911344799999999</v>
       </c>
       <c r="Q19">
-        <v>1.000669720526316</v>
+        <v>1.000402965</v>
       </c>
       <c r="R19">
-        <v>0.9990274789473684</v>
+        <v>0.9993498533333334</v>
       </c>
       <c r="S19">
-        <v>0.9892422810526315</v>
+        <v>0.9923979966666666</v>
       </c>
       <c r="T19">
-        <v>0.9990274789473684</v>
+        <v>0.9993498533333334</v>
       </c>
       <c r="U19">
-        <v>0.9974672252631579</v>
+        <v>0.9982436475000001</v>
       </c>
       <c r="V19">
-        <v>1.002402191789474</v>
+        <v>1.001751038</v>
       </c>
       <c r="W19">
-        <v>0.9977781798684211</v>
+        <v>0.9984448912499999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9935003610526316</v>
+        <v>0.9961832550684931</v>
       </c>
       <c r="D20">
-        <v>0.9674729231578948</v>
+        <v>0.9811231757534251</v>
       </c>
       <c r="E20">
-        <v>1.021668651578947</v>
+        <v>1.01269948520548</v>
       </c>
       <c r="F20">
-        <v>0.9674729231578948</v>
+        <v>0.9811231757534251</v>
       </c>
       <c r="G20">
-        <v>1.008140802631579</v>
+        <v>1.004654550958904</v>
       </c>
       <c r="H20">
-        <v>1.012074709473684</v>
+        <v>1.007000115068493</v>
       </c>
       <c r="I20">
-        <v>0.9930112521052631</v>
+        <v>0.9959399324657531</v>
       </c>
       <c r="J20">
-        <v>1.021668651578947</v>
+        <v>1.01269948520548</v>
       </c>
       <c r="K20">
-        <v>1.021668651578947</v>
+        <v>1.01269948520548</v>
       </c>
       <c r="L20">
-        <v>0.9788522710526315</v>
+        <v>0.9877149878082195</v>
       </c>
       <c r="M20">
-        <v>1.008126746315789</v>
+        <v>1.004755132328767</v>
       </c>
       <c r="N20">
-        <v>1.021668651578947</v>
+        <v>1.01269948520548</v>
       </c>
       <c r="O20">
-        <v>1.008140802631579</v>
+        <v>1.004654550958904</v>
       </c>
       <c r="P20">
-        <v>0.987806862894737</v>
+        <v>0.9928888633561644</v>
       </c>
       <c r="Q20">
-        <v>1.000576027368421</v>
+        <v>1.000297241712328</v>
       </c>
       <c r="R20">
-        <v>0.9990941257894738</v>
+        <v>0.999492403972603</v>
       </c>
       <c r="S20">
-        <v>0.9895416592982457</v>
+        <v>0.9939058863926941</v>
       </c>
       <c r="T20">
-        <v>0.9990941257894738</v>
+        <v>0.999492403972603</v>
       </c>
       <c r="U20">
-        <v>0.997573407368421</v>
+        <v>0.9986042860958905</v>
       </c>
       <c r="V20">
-        <v>1.002392456210526</v>
+        <v>1.001423325917808</v>
       </c>
       <c r="W20">
-        <v>0.9978559646710526</v>
+        <v>0.9987588293321918</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999811561744668</v>
+        <v>0.9933733657894737</v>
       </c>
       <c r="D21">
-        <v>0.9991869571858077</v>
+        <v>0.9663874021052632</v>
       </c>
       <c r="E21">
-        <v>1.000142679886942</v>
+        <v>1.022142057894737</v>
       </c>
       <c r="F21">
-        <v>0.9991869571858077</v>
+        <v>0.9663874021052632</v>
       </c>
       <c r="G21">
-        <v>1.000427888869906</v>
+        <v>1.008552976842105</v>
       </c>
       <c r="H21">
-        <v>1.000325367139018</v>
+        <v>1.012492418947369</v>
       </c>
       <c r="I21">
-        <v>0.9998388007909303</v>
+        <v>0.9927864642105262</v>
       </c>
       <c r="J21">
-        <v>1.000142679886942</v>
+        <v>1.022142057894737</v>
       </c>
       <c r="K21">
-        <v>1.000142679886942</v>
+        <v>1.022142057894737</v>
       </c>
       <c r="L21">
-        <v>0.9995102536710808</v>
+        <v>0.9781708378947368</v>
       </c>
       <c r="M21">
-        <v>1.000078464151496</v>
+        <v>1.008319915263158</v>
       </c>
       <c r="N21">
-        <v>1.000142679886942</v>
+        <v>1.022142057894737</v>
       </c>
       <c r="O21">
-        <v>1.000427888869906</v>
+        <v>1.008552976842105</v>
       </c>
       <c r="P21">
-        <v>0.9998074230278569</v>
+        <v>0.9874701894736843</v>
       </c>
       <c r="Q21">
-        <v>1.000133344830418</v>
+        <v>1.000669720526316</v>
       </c>
       <c r="R21">
-        <v>0.9999191753142185</v>
+        <v>0.9990274789473684</v>
       </c>
       <c r="S21">
-        <v>0.9998178822822147</v>
+        <v>0.9892422810526315</v>
       </c>
       <c r="T21">
-        <v>0.9999191753142185</v>
+        <v>0.9990274789473684</v>
       </c>
       <c r="U21">
-        <v>0.9998990816833965</v>
+        <v>0.9974672252631579</v>
       </c>
       <c r="V21">
-        <v>0.9999478013241057</v>
+        <v>1.002402191789474</v>
       </c>
       <c r="W21">
-        <v>0.999936445983706</v>
+        <v>0.9977781798684211</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999157536346911</v>
+        <v>0.9935003610526316</v>
       </c>
       <c r="D22">
-        <v>0.9998734790989652</v>
+        <v>0.9674729231578948</v>
       </c>
       <c r="E22">
-        <v>1.000248075362356</v>
+        <v>1.021668651578947</v>
       </c>
       <c r="F22">
-        <v>0.9998734790989652</v>
+        <v>0.9674729231578948</v>
       </c>
       <c r="G22">
-        <v>0.999939530549849</v>
+        <v>1.008140802631579</v>
       </c>
       <c r="H22">
-        <v>1.000037297630921</v>
+        <v>1.012074709473684</v>
       </c>
       <c r="I22">
-        <v>0.9999672712942665</v>
+        <v>0.9930112521052631</v>
       </c>
       <c r="J22">
-        <v>1.000248075362356</v>
+        <v>1.021668651578947</v>
       </c>
       <c r="K22">
-        <v>1.000248075362356</v>
+        <v>1.021668651578947</v>
       </c>
       <c r="L22">
-        <v>0.999901789476662</v>
+        <v>0.9788522710526315</v>
       </c>
       <c r="M22">
-        <v>1.000082797288644</v>
+        <v>1.008126746315789</v>
       </c>
       <c r="N22">
-        <v>1.000248075362356</v>
+        <v>1.021668651578947</v>
       </c>
       <c r="O22">
-        <v>0.999939530549849</v>
+        <v>1.008140802631579</v>
       </c>
       <c r="P22">
-        <v>0.9999065048244071</v>
+        <v>0.987806862894737</v>
       </c>
       <c r="Q22">
-        <v>0.9999534009220578</v>
+        <v>1.000576027368421</v>
       </c>
       <c r="R22">
-        <v>1.00002036167039</v>
+        <v>0.9990941257894738</v>
       </c>
       <c r="S22">
-        <v>0.9999267603143602</v>
+        <v>0.9895416592982457</v>
       </c>
       <c r="T22">
-        <v>1.00002036167039</v>
+        <v>0.9990941257894738</v>
       </c>
       <c r="U22">
-        <v>1.000007089076359</v>
+        <v>0.997573407368421</v>
       </c>
       <c r="V22">
-        <v>1.000055286333559</v>
+        <v>1.002392456210526</v>
       </c>
       <c r="W22">
-        <v>0.9999957492920444</v>
+        <v>0.9978559646710526</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.002300707148463</v>
+        <v>0.9999811561744668</v>
       </c>
       <c r="D23">
-        <v>1.01191541220348</v>
+        <v>0.9991869571858077</v>
       </c>
       <c r="E23">
-        <v>0.9922852217124066</v>
+        <v>1.000142679886942</v>
       </c>
       <c r="F23">
-        <v>1.01191541220348</v>
+        <v>0.9991869571858077</v>
       </c>
       <c r="G23">
-        <v>0.9968924267760563</v>
+        <v>1.000427888869906</v>
       </c>
       <c r="H23">
-        <v>0.995563589762266</v>
+        <v>1.000325367139018</v>
       </c>
       <c r="I23">
-        <v>1.002552594002609</v>
+        <v>0.9998388007909303</v>
       </c>
       <c r="J23">
-        <v>0.9922852217124066</v>
+        <v>1.000142679886942</v>
       </c>
       <c r="K23">
-        <v>0.9922852217124066</v>
+        <v>1.000142679886942</v>
       </c>
       <c r="L23">
-        <v>1.007725189830949</v>
+        <v>0.9995102536710808</v>
       </c>
       <c r="M23">
-        <v>0.9970926567633586</v>
+        <v>1.000078464151496</v>
       </c>
       <c r="N23">
-        <v>0.9922852217124066</v>
+        <v>1.000142679886942</v>
       </c>
       <c r="O23">
-        <v>0.9968924267760563</v>
+        <v>1.000427888869906</v>
       </c>
       <c r="P23">
-        <v>1.004403919489768</v>
+        <v>0.9998074230278569</v>
       </c>
       <c r="Q23">
-        <v>0.9997225103893326</v>
+        <v>1.000133344830418</v>
       </c>
       <c r="R23">
-        <v>1.000364353563981</v>
+        <v>0.9999191753142185</v>
       </c>
       <c r="S23">
-        <v>1.003786810994048</v>
+        <v>0.9998178822822147</v>
       </c>
       <c r="T23">
-        <v>1.000364353563981</v>
+        <v>0.9999191753142185</v>
       </c>
       <c r="U23">
-        <v>1.000911413673638</v>
+        <v>0.9998990816833965</v>
       </c>
       <c r="V23">
-        <v>0.9991861752813916</v>
+        <v>0.9999478013241057</v>
       </c>
       <c r="W23">
-        <v>1.000790974774949</v>
+        <v>0.999936445983706</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000639794163212</v>
+        <v>0.9999157536346911</v>
       </c>
       <c r="D24">
-        <v>1.003025548685639</v>
+        <v>0.9998734790989652</v>
       </c>
       <c r="E24">
-        <v>0.997886627407341</v>
+        <v>1.000248075362356</v>
       </c>
       <c r="F24">
-        <v>1.003025548685639</v>
+        <v>0.9998734790989652</v>
       </c>
       <c r="G24">
-        <v>0.9992978020402662</v>
+        <v>0.999939530549849</v>
       </c>
       <c r="H24">
-        <v>0.9988826280443077</v>
+        <v>1.000037297630921</v>
       </c>
       <c r="I24">
-        <v>1.000653377164229</v>
+        <v>0.9999672712942665</v>
       </c>
       <c r="J24">
-        <v>0.997886627407341</v>
+        <v>1.000248075362356</v>
       </c>
       <c r="K24">
-        <v>0.997886627407341</v>
+        <v>1.000248075362356</v>
       </c>
       <c r="L24">
-        <v>1.001976612328791</v>
+        <v>0.999901789476662</v>
       </c>
       <c r="M24">
-        <v>0.999213504085587</v>
+        <v>1.000082797288644</v>
       </c>
       <c r="N24">
-        <v>0.997886627407341</v>
+        <v>1.000248075362356</v>
       </c>
       <c r="O24">
-        <v>0.9992978020402662</v>
+        <v>0.999939530549849</v>
       </c>
       <c r="P24">
-        <v>1.001161675362953</v>
+        <v>0.9999065048244071</v>
       </c>
       <c r="Q24">
-        <v>0.9999755896022475</v>
+        <v>0.9999534009220578</v>
       </c>
       <c r="R24">
-        <v>1.000069992711082</v>
+        <v>1.00002036167039</v>
       </c>
       <c r="S24">
-        <v>1.000992242630045</v>
+        <v>0.9999267603143602</v>
       </c>
       <c r="T24">
-        <v>1.000069992711082</v>
+        <v>1.00002036167039</v>
       </c>
       <c r="U24">
-        <v>1.000215838824369</v>
+        <v>1.000007089076359</v>
       </c>
       <c r="V24">
-        <v>0.9997499965409631</v>
+        <v>1.000055286333559</v>
       </c>
       <c r="W24">
-        <v>1.000196986739922</v>
+        <v>0.9999957492920444</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.000366871770279</v>
+        <v>1.002300707148463</v>
       </c>
       <c r="D25">
-        <v>1.002283807541665</v>
+        <v>1.01191541220348</v>
       </c>
       <c r="E25">
-        <v>0.9987271598883204</v>
+        <v>0.9922852217124066</v>
       </c>
       <c r="F25">
-        <v>1.002283807541665</v>
+        <v>1.01191541220348</v>
       </c>
       <c r="G25">
-        <v>0.9992885931764667</v>
+        <v>0.9968924267760563</v>
       </c>
       <c r="H25">
-        <v>0.9991375248242177</v>
+        <v>0.995563589762266</v>
       </c>
       <c r="I25">
-        <v>1.000482287830855</v>
+        <v>1.002552594002609</v>
       </c>
       <c r="J25">
-        <v>0.9987271598883204</v>
+        <v>0.9922852217124066</v>
       </c>
       <c r="K25">
-        <v>0.9987271598883204</v>
+        <v>0.9922852217124066</v>
       </c>
       <c r="L25">
-        <v>1.001460629866307</v>
+        <v>1.007725189830949</v>
       </c>
       <c r="M25">
-        <v>0.9995070770901292</v>
+        <v>0.9970926567633586</v>
       </c>
       <c r="N25">
-        <v>0.9987271598883204</v>
+        <v>0.9922852217124066</v>
       </c>
       <c r="O25">
-        <v>0.9992885931764667</v>
+        <v>0.9968924267760563</v>
       </c>
       <c r="P25">
-        <v>1.000786200359066</v>
+        <v>1.004403919489768</v>
       </c>
       <c r="Q25">
-        <v>0.9998854405036608</v>
+        <v>0.9997225103893326</v>
       </c>
       <c r="R25">
-        <v>1.000099853535484</v>
+        <v>1.000364353563981</v>
       </c>
       <c r="S25">
-        <v>1.000684896182996</v>
+        <v>1.003786810994048</v>
       </c>
       <c r="T25">
-        <v>1.000099853535484</v>
+        <v>1.000364353563981</v>
       </c>
       <c r="U25">
-        <v>1.000195462109327</v>
+        <v>1.000911413673638</v>
       </c>
       <c r="V25">
-        <v>0.9999018016651255</v>
+        <v>0.9991861752813916</v>
       </c>
       <c r="W25">
-        <v>1.00015674399853</v>
+        <v>1.000790974774949</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000141261868787</v>
+        <v>1.000639794163212</v>
       </c>
       <c r="D26">
-        <v>1.000521645123488</v>
+        <v>1.003025548685639</v>
       </c>
       <c r="E26">
-        <v>0.9995496551048904</v>
+        <v>0.997886627407341</v>
       </c>
       <c r="F26">
-        <v>1.000521645123488</v>
+        <v>1.003025548685639</v>
       </c>
       <c r="G26">
-        <v>0.9999272859644912</v>
+        <v>0.9992978020402662</v>
       </c>
       <c r="H26">
-        <v>0.9998124252271313</v>
+        <v>0.9988826280443077</v>
       </c>
       <c r="I26">
-        <v>1.000115559876135</v>
+        <v>1.000653377164229</v>
       </c>
       <c r="J26">
-        <v>0.9995496551048904</v>
+        <v>0.997886627407341</v>
       </c>
       <c r="K26">
-        <v>0.9995496551048904</v>
+        <v>0.997886627407341</v>
       </c>
       <c r="L26">
-        <v>1.000349168089611</v>
+        <v>1.001976612328791</v>
       </c>
       <c r="M26">
-        <v>0.9998375359776883</v>
+        <v>0.999213504085587</v>
       </c>
       <c r="N26">
-        <v>0.9995496551048904</v>
+        <v>0.997886627407341</v>
       </c>
       <c r="O26">
-        <v>0.9999272859644912</v>
+        <v>0.9992978020402662</v>
       </c>
       <c r="P26">
-        <v>1.00022446554399</v>
+        <v>1.001161675362953</v>
       </c>
       <c r="Q26">
-        <v>1.000021422920313</v>
+        <v>0.9999755896022475</v>
       </c>
       <c r="R26">
-        <v>0.9999995287309567</v>
+        <v>1.000069992711082</v>
       </c>
       <c r="S26">
-        <v>1.000188163654705</v>
+        <v>1.000992242630045</v>
       </c>
       <c r="T26">
-        <v>0.9999995287309565</v>
+        <v>1.000069992711082</v>
       </c>
       <c r="U26">
-        <v>1.000028536517251</v>
+        <v>1.000215838824369</v>
       </c>
       <c r="V26">
-        <v>0.9999327602347788</v>
+        <v>0.9997499965409631</v>
       </c>
       <c r="W26">
-        <v>1.000031817154028</v>
+        <v>1.000196986739922</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9994253848769847</v>
+        <v>1.000366871770279</v>
       </c>
       <c r="D27">
-        <v>0.9971406579096657</v>
+        <v>1.002283807541665</v>
       </c>
       <c r="E27">
-        <v>1.00191382629836</v>
+        <v>0.9987271598883204</v>
       </c>
       <c r="F27">
-        <v>0.9971406579096657</v>
+        <v>1.002283807541665</v>
       </c>
       <c r="G27">
-        <v>1.000710552891405</v>
+        <v>0.9992885931764667</v>
       </c>
       <c r="H27">
-        <v>1.001060912249192</v>
+        <v>0.9991375248242177</v>
       </c>
       <c r="I27">
-        <v>0.9993853507114514</v>
+        <v>1.000482287830855</v>
       </c>
       <c r="J27">
-        <v>1.00191382629836</v>
+        <v>0.9987271598883204</v>
       </c>
       <c r="K27">
-        <v>1.00191382629836</v>
+        <v>0.9987271598883204</v>
       </c>
       <c r="L27">
-        <v>0.9981400992462903</v>
+        <v>1.001460629866307</v>
       </c>
       <c r="M27">
-        <v>1.000717218262307</v>
+        <v>0.9995070770901292</v>
       </c>
       <c r="N27">
-        <v>1.00191382629836</v>
+        <v>0.9987271598883204</v>
       </c>
       <c r="O27">
-        <v>1.000710552891405</v>
+        <v>0.9992885931764667</v>
       </c>
       <c r="P27">
-        <v>0.9989256054005353</v>
+        <v>1.000786200359066</v>
       </c>
       <c r="Q27">
-        <v>1.000047951801428</v>
+        <v>0.9998854405036608</v>
       </c>
       <c r="R27">
-        <v>0.9999216790331434</v>
+        <v>1.000099853535484</v>
       </c>
       <c r="S27">
-        <v>0.9990788538375073</v>
+        <v>1.000684896182996</v>
       </c>
       <c r="T27">
-        <v>0.9999216790331434</v>
+        <v>1.000099853535484</v>
       </c>
       <c r="U27">
-        <v>0.9997875969527203</v>
+        <v>1.000195462109327</v>
       </c>
       <c r="V27">
-        <v>1.000212842821848</v>
+        <v>0.9999018016651255</v>
       </c>
       <c r="W27">
-        <v>0.9998117503057071</v>
+        <v>1.00015674399853</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9992887390532561</v>
+        <v>1.000141261868787</v>
       </c>
       <c r="D28">
-        <v>0.9964610085345487</v>
+        <v>1.000521645123488</v>
       </c>
       <c r="E28">
-        <v>1.002368936787452</v>
+        <v>0.9995496551048904</v>
       </c>
       <c r="F28">
-        <v>0.9964610085345487</v>
+        <v>1.000521645123488</v>
       </c>
       <c r="G28">
-        <v>1.000879333585826</v>
+        <v>0.9999272859644912</v>
       </c>
       <c r="H28">
-        <v>1.001313076725504</v>
+        <v>0.9998124252271313</v>
       </c>
       <c r="I28">
-        <v>0.9992392286480383</v>
+        <v>1.000115559876135</v>
       </c>
       <c r="J28">
-        <v>1.002368936787452</v>
+        <v>0.9995496551048904</v>
       </c>
       <c r="K28">
-        <v>1.002368936787452</v>
+        <v>0.9995496551048904</v>
       </c>
       <c r="L28">
-        <v>0.9976979977619013</v>
+        <v>1.000349168089611</v>
       </c>
       <c r="M28">
-        <v>1.000887754794153</v>
+        <v>0.9998375359776883</v>
       </c>
       <c r="N28">
-        <v>1.002368936787452</v>
+        <v>0.9995496551048904</v>
       </c>
       <c r="O28">
-        <v>1.000879333585826</v>
+        <v>0.9999272859644912</v>
       </c>
       <c r="P28">
-        <v>0.9986701710601872</v>
+        <v>1.00022446554399</v>
       </c>
       <c r="Q28">
-        <v>1.000059281116932</v>
+        <v>1.000021422920313</v>
       </c>
       <c r="R28">
-        <v>0.9999030929692753</v>
+        <v>0.9999995287309567</v>
       </c>
       <c r="S28">
-        <v>0.9988598569228042</v>
+        <v>1.000188163654705</v>
       </c>
       <c r="T28">
-        <v>0.9999030929692753</v>
+        <v>0.9999995287309565</v>
       </c>
       <c r="U28">
-        <v>0.9997371268889661</v>
+        <v>1.000028536517251</v>
       </c>
       <c r="V28">
-        <v>1.000263488868663</v>
+        <v>0.9999327602347788</v>
       </c>
       <c r="W28">
-        <v>0.9997670094863348</v>
+        <v>1.000031817154028</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9994253848769847</v>
+      </c>
+      <c r="D29">
+        <v>0.9971406579096657</v>
+      </c>
+      <c r="E29">
+        <v>1.00191382629836</v>
+      </c>
+      <c r="F29">
+        <v>0.9971406579096657</v>
+      </c>
+      <c r="G29">
+        <v>1.000710552891405</v>
+      </c>
+      <c r="H29">
+        <v>1.001060912249192</v>
+      </c>
+      <c r="I29">
+        <v>0.9993853507114514</v>
+      </c>
+      <c r="J29">
+        <v>1.00191382629836</v>
+      </c>
+      <c r="K29">
+        <v>1.00191382629836</v>
+      </c>
+      <c r="L29">
+        <v>0.9981400992462903</v>
+      </c>
+      <c r="M29">
+        <v>1.000717218262307</v>
+      </c>
+      <c r="N29">
+        <v>1.00191382629836</v>
+      </c>
+      <c r="O29">
+        <v>1.000710552891405</v>
+      </c>
+      <c r="P29">
+        <v>0.9989256054005353</v>
+      </c>
+      <c r="Q29">
+        <v>1.000047951801428</v>
+      </c>
+      <c r="R29">
+        <v>0.9999216790331434</v>
+      </c>
+      <c r="S29">
+        <v>0.9990788538375073</v>
+      </c>
+      <c r="T29">
+        <v>0.9999216790331434</v>
+      </c>
+      <c r="U29">
+        <v>0.9997875969527203</v>
+      </c>
+      <c r="V29">
+        <v>1.000212842821848</v>
+      </c>
+      <c r="W29">
+        <v>0.9998117503057071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9992887390532561</v>
+      </c>
+      <c r="D30">
+        <v>0.9964610085345487</v>
+      </c>
+      <c r="E30">
+        <v>1.002368936787452</v>
+      </c>
+      <c r="F30">
+        <v>0.9964610085345487</v>
+      </c>
+      <c r="G30">
+        <v>1.000879333585826</v>
+      </c>
+      <c r="H30">
+        <v>1.001313076725504</v>
+      </c>
+      <c r="I30">
+        <v>0.9992392286480383</v>
+      </c>
+      <c r="J30">
+        <v>1.002368936787452</v>
+      </c>
+      <c r="K30">
+        <v>1.002368936787452</v>
+      </c>
+      <c r="L30">
+        <v>0.9976979977619013</v>
+      </c>
+      <c r="M30">
+        <v>1.000887754794153</v>
+      </c>
+      <c r="N30">
+        <v>1.002368936787452</v>
+      </c>
+      <c r="O30">
+        <v>1.000879333585826</v>
+      </c>
+      <c r="P30">
+        <v>0.9986701710601872</v>
+      </c>
+      <c r="Q30">
+        <v>1.000059281116932</v>
+      </c>
+      <c r="R30">
+        <v>0.9999030929692753</v>
+      </c>
+      <c r="S30">
+        <v>0.9988598569228042</v>
+      </c>
+      <c r="T30">
+        <v>0.9999030929692753</v>
+      </c>
+      <c r="U30">
+        <v>0.9997371268889661</v>
+      </c>
+      <c r="V30">
+        <v>1.000263488868663</v>
+      </c>
+      <c r="W30">
+        <v>0.9997670094863348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.001022666046465</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.00528121774075</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9965724486507122</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.00528121774075</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9986272059025125</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9980341511716404</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.001131652311718</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9965724486507122</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9965724486507122</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.00342481226531</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9987088441122987</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9965724486507122</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9986272059025125</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001954211821631</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9998794291071152</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000160290764658</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001680025318327</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000160290764658</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000403131151423</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9996369946512808</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000350374775176</v>
       </c>
     </row>
